--- a/Angular/mock_interview/Questions.xlsx
+++ b/Angular/mock_interview/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9286B371-D21D-9043-9D90-10E9D1DA57D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CD65C2-AA5F-EB47-B069-B38C9D852CB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34900" yWindow="6120" windowWidth="19980" windowHeight="13240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36900" yWindow="1880" windowWidth="23760" windowHeight="15920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="JavaScrit" sheetId="4" r:id="rId3"/>
     <sheet name="AngularJS" sheetId="5" r:id="rId4"/>
     <sheet name="Anguar" sheetId="6" r:id="rId5"/>
+    <sheet name="TypeScript" sheetId="7" r:id="rId6"/>
+    <sheet name="Angular-CLI" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t xml:space="preserve">What's the difference between Block Level Elements and Inline Elements? Examples? </t>
   </si>
@@ -385,9 +387,6 @@
     <t>There are at least three different ways to doing this by using bind, call and apply.</t>
   </si>
   <si>
-    <t>What the heck is this in JavaScript?</t>
-  </si>
-  <si>
     <t>At the time of execution of every function, JavaScript engine sets a property to the function called this which refer to the current execution context. this is always refer to an object and depends on how function is called. There are 7 different cases where the value of this varies.
 In the global context or inside a function this refers to the window object.
 Inside IIFE (immediate invoking function) if you use "use strict", value of this is undefined. To pass access window inside IIFE with "use strict", you have to pass this.
@@ -401,14 +400,648 @@
     <t xml:space="preserve">Scope and hoisting; </t>
   </si>
   <si>
-    <t>Closures Inside Loops</t>
+    <t>anonymous function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An anonymous function is a function that was declared without any named identifier to refer to it. As such, an anonymous function is usually not accessible after its initial creation 
+The most common use for anonymous functions are as arguments to other functions, or as a closure. </t>
+  </si>
+  <si>
+    <t>What is closure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScript variables can belong to the local or global scope. Private variables can be made possible with closures. The nested function can access the variable in the parent scope. This is called a JavaScript closure. It makes it possible for a function to have "private" variables. 
+var add = (function () { 
+    var counter = 0; 
+    return function () {return counter += 1;} 
+})(); 
+add(); 
+add(); 
+add(); 
+// the counter is now 3 </t>
+  </si>
+  <si>
+    <t>What is addEventListener() method used for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The addEventListener() method attaches an event handler to the specified element.it can assign different function to a specified element. </t>
+  </si>
+  <si>
+    <t>Difference between settimeout() and setinterval()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settimeout() method calls a function or evaluates an expression after a specified number of milliseconds. 
+Setinterval() method calls a function or evaluates an expression at specified intervals (in milliseconds).  will continue calling the function until clearInterval() is called, or the window is closed. </t>
+  </si>
+  <si>
+    <t>Difference between overloading and overriding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overloading deals with the notion of having two or more methods(functions) in the same class with the same name but different arguments. 
+overriding means having two methods with the same arguments, but different implementation. One of them would exist in the Parent class (Base Class) while another will be   the derived class(Child  Class) </t>
+  </si>
+  <si>
+    <t>What is 'this' in JavaScript?</t>
+  </si>
+  <si>
+    <t>Difference between apply and call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main difference is that apply lets you invoke the function with arguments as an array; call requires the parameters be listed explicitly. 
+See here and here. 
+Pseudo syntax: 
+context 
+theFunction.apply(valueForThis, arrayOfArgs) 
+theFunction.call(valueForThis, arg1, arg2, ...) 
+Sample code: 
+function theFunction(name, profession) { 
+    alert("My name is " + name + " and I am a " + profession + "."); 
+} 
+theFunction("John", "fireman"); 
+theFunction.apply(undefined, ["Susan", "school teacher"]); 
+theFunction.call(undefined, "Claude", "mathematician"); </t>
+  </si>
+  <si>
+    <t>Singleton? Benefits of Singleton Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Singleton Pattern limits the number of instances of a particular object to just one. This single instance is called the singleton. The Singleton object is implemented as an immediate anonymous function, The Module pattern is JavaScript's manifestation of the Singleton pattern. 
+Benefits of Singleton Pattern: Singleton prevents other objects from instantiating their own copies of the Singleton object, ensuring that all objects access the single instance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">var Singleton = (function () { 
+     var instance; 
+     function createInstance() { 
+     var object = new Object("I am the instance"); 
+     return object; 
+     } 
+    return { 
+            getInstance: function () { 
+                if (!instance) { 
+                     instance = createInstance(); 
+                } 
+            return instance; 
+} 
+}; 
+})(); 
+function run() { 
+var instance1 = Singleton.getInstance(); 
+var instance2 = Singleton.getInstance(); 
+alert("Same instance? " + (instance1 === instance2));  
+} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to catch unhandled JavaScript errors? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign the window.onerror event to an event handler. 
+&lt;img src="image.gif" onerror="myFunction()"&gt; 
+&lt;script&gt; 
+function myFunction() { 
+    alert('The image could not be loaded.'); 
+} 
+&lt;/script&gt; </t>
+  </si>
+  <si>
+    <t>What is immediate function? IIFE?</t>
+  </si>
+  <si>
+    <t>What is stric  mode?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First, strict mode delete some JavaScript silent errors by changing them to throw errors. Second, strict mode code can sometimes be made to run faster than identical code that's not strict mode.  
+Strict mode is declared by adding "use strict"; to the beginning of a JavaScript file, or a JavaScript function. 
+Declared at the beginning of a JavaScript file, it has global scope (all code will execute in strict mode). 
+Declared inside a function, it has local scope (only the code inside the function is in strict mode). </t>
+  </si>
+  <si>
+    <t>Immediate functions execute as soon as JavaScript encounters them .Creating an immediate function is simple: you add the open/close parentheses after the closing curly bracket, and then wrap the entire function in parentheses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is event bubbling and capturing? Difference? Which one is better or faster? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are two ways of event propagation in the HTML DOM, bubbling and capturing. 
+Event propagation is a way of defining the element order when an event occurs. If you have a &lt;p&gt; element inside a &lt;div&gt; element, and the user clicks on the &lt;p&gt; element, which element's "click" event should be handled first? n bubbling the innermost element's event is handled first and then the outer: the &lt;p&gt; element's click event is handled first, then the &lt;div&gt; element's click event. 
+In capturing the outermost element's event is handled first and then the inner: the &lt;div&gt; element's click event will be handled first, then the &lt;p&gt; element's click event. 
+With the addEventListener() method you can specify the propagation type by using the "useCapture" parameter: 
+addEventListener(event, function, useCapture); 
+The default value is false, which will use the bubbling propagation, when the value is set to true, the event uses the capturing propagation. Only event bubbling model is supported by all the major browsers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is "prototype"in js? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The prototype property allows you to add new properties and methods to existing object . 
+All JavaScript objects inherit their properties and methods from their prototype called Object.prototype 
+In JavaScript you first create an object (there is no concept of class), then you can augment your own object or create new objects from it. It's not difficult, but a little foreign and hard to metabolize for somebody used to the classical way. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example: 
+//Define a functional object to hold persons in JavaScript 
+var Person = function(name) { 
+  this.name = name; 
+}; 
+//Add dynamically to the already defined object a new getter 
+Person.prototype.getName = function() { 
+  return this.name; 
+}; 
+//Create a new object of type Person 
+var john = new Person("John"); 
+//Try the getter 
+alert(john.getName()); 
+//If now I modify person, also John gets the updates 
+Person.prototype.sayMyName = function() { 
+  alert('Hello, my name is ' + this.getName()); 
+}; 
+//Call the new method on john 
+john.sayMyName(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoisting is JavaScript's default behavior of moving all declarations to the top of the current scope (to the top of the current script or the current function). 
+Hoisting: a variable can be used before it has been declared. 
+You have variables in use before you declare them, and that can cause confusion, To avoid confusion, declare your variables at the top of a every scope. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference between AngularJS and Jquery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Basically, jQuery is a great tool for you to manipulate and control DOM elements. If you only focus on DOM elements and no Data CRUD( create, read, update,and delete ), like building a website not web application, jQuery is the one of the top tools. (You can use AngularJS for this pur 
+pose as well.) 
+In jQuery, you design a page, and then you make it dynamic. But in AngularJS, you must start from the ground up with your architecture in mind. Instead of starting by thinking "I have this piece of the DOM and I want to make it do X", you have to start with what you want to accomplish, then go about designing your application, and then finally go about designing your view. 
+Always think in terms of architecture 
+First know that single-page applications are applications. They're not webpages. So we need to think like a server-side developer in addition to thinking like a client-side developer. We have to think about how to divide our application into individual, extensible, testable  
+Distinct model layer 
+In jQuery, the DOM is kind of like the model. But in AngularJS, we have a separate model layer that we can manage in any way we want, completely independently from the view. This helps for the data binding, maintains separation of concerns, and introduces far greater testability. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concept and Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Concept 
+Description 
+Template 
+HTML with additional markup 
+Directives 
+extend HTML with custom attributes and elements 
+Model 
+the data shown to the user in the view and with which the user interacts 
+Scope 
+context where the model is stored so that controllers,  
+directives and expressions can access it 
+Expressions 
+access variables and functions from the scope 
+Compiler 
+parses the template and instantiates directives and expressions 
+Filter 
+formats the value of an expression for display to the user 
+View 
+what the user sees (the DOM) 
+Data Binding 
+sync data between the model and the view 
+Data binding is the process that establishes a connection between the application UI and 
+business logic. when the data changes its value, the elements that are bound to the  
+data reflect changes automatically.  
+Controller 
+the business logic behind views 
+as a "brain" for a view: interact with view using the $scope; defines property  
+and method; 
+knows how to retrieve data from factory or service. 
+Injection 
+Creates and wires objects and functions. 
+The component can have the dependency passed to it where it is needed. 
+DI is a pattern which is often used in infrastructure components and which  
+ensures that one component does not directly create references to other 
+ components. Instead of direct instantiation, every component  
+will receive references to required other components like helpers, services, etc 
+.as parameters to their constructor. 
+Injector 
+dependency injection container 
+module 
+a container for the different parts of an app including controllers, services, 
+ filters, directives which configures the Injector.  
+Modules provide an excellent mechanism for cleanly dividing up our code 
+ into functional areas. 
+Service 
+reusable business logic independent of views 
+</t>
+  </si>
+  <si>
+    <t>buid-in directives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every controller has an associated $scope object. 
+A controller (constructor) function is responsible for setting model properties and functions. This can be done only through $scope. Whatever function or model you apply in View (html file), that is accessed in controller using scope. 
+Only methods defined on this $scope object are accessible from the HTML/view. Example - from ng-click, filters, etc. </t>
+  </si>
+  <si>
+    <t>$scope, comm between View and Controller</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">define the route associate controller with view, load different views to our angularjs application shell page. Route configured using $routeProvider. 
+For example, if we have a route named /customers, then we might want load "customerscontroller",the view might be load customers.html. </t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a "brain" for a view: interact with view using the $scope; defines property and method; knows how to retrieve data from factory or service. 
+Because the view is just a projection of the model, the controller is completely separated from the view and unaware of it. This makes testing a snap because it is easy to test your controller in isolation without the view and the related DOM/browser dependency. 
+Use controllers to: 
+• Set up the initial state of the $scope object. 
+• Add behavior to the $scope object. 
+Do not use controllers to: 
+• Manipulate DOM — Controllers should contain only business logic. Putting any presentation logic into Controllers significantly affects its testability. Angular has databinding for most cases and directives to encapsulate manual DOM manipulation. 
+• Format input — Use angular form controls instead. 
+• Filter output — Use angular filters instead. 
+• Share code or state across controllers — Use angular services instead. 
+• Manage the life-cycle of other components (for example, to create service instances). </t>
+  </si>
+  <si>
+    <t>Service vs. provider vs. factory</t>
+  </si>
+  <si>
+    <t>Services
+Syntax: module.service( 'serviceName', function );
+Result: When declaring serviceName as an injectable argument you will be provided with an instance of the function. In other words new FunctionYouPassedToService().
+Factories
+Syntax: module.factory( 'factoryName', function );
+Result: When declaring factoryName as an injectable argument you will be provided with the value that is returned by invoking the function reference passed to module.factory.
+Providers
+Syntax: module.provider( 'providerName', function );
+Result: When declaring providerName as an injectable argument you will be provided with (new ProviderFunction()).$get(). The constructor function is instantiated before the $get method is called - ProviderFunction is the function reference passed to module.provider.
+Providers have the advantage that they can be configured during the module configuration phase.</t>
+  </si>
+  <si>
+    <t>Value and Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constant and value provide a way to give more basic type of setting not specific to factory, services or other types of components in your app. such as title or version of your app. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$http </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$watch(watchExpression, listener, [objectEquality]); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$watches can be used to watch any value, and trigger a function call when that value changes. A $watch can be set up from any $scope by calling $scope.$watch() as shown below. 
+The listener callback to be executed whenever the watchExpression changes. 
+The watchExpression is called on every call to $digest() and should return the value that will be watched, the watch listener may change the model, after a watcher is registered with the scope, the listener fn is called asynchronously (via $evalAsync) to initialize the watcher. In rare cases, this is undesirable binfiniteecause the listener is called when the result of watchExpression didn't change. To detect this scenario within the listener fn, you can compare the newVal and oldVal. If these two values are identical (===) then the listener was called due to initialization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$digest(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop through all of the watchers of the current scope and its children. Because a watcher's listener can change the model, the $digest()keeps calling the watchers until no more listeners are firing. This means that it is possible to get into an infinite loop. This function will throw 'Maximum iteration limit exceeded.' if the number of iterations exceeds 10. 
+Usually, you don't call $digest() directly in controllers or in directives. Instead, you should call $apply() (typically from within a directive), which will force a $digest(). 
+If you want to be notified whenever $digest() is called, you can register a watchExpression function with $watch() with no listener. 
+In unit tests, you may need to call $digest() to simulate the scope life cycle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$apply([exp]); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is used to propagate any model changes through the system into the view from outside of the angular framework. (For example from browser DOM events, setTimeout, XHR or third party libraries).  
+it's a wrapper around $rootScope.$digest that evaluates any expression passed to it ,then calling $digest(). </t>
+  </si>
+  <si>
+    <t>Rootscope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Angular application has exactly one root scope, but may have several child scopes. evaluation of {{department}}prototypically inherits from root scope, as it is the only place where the department property is defined. 
+</t>
+  </si>
+  <si>
+    <t>Custom directives to access the DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In Angular, the only place where an application should access the DOM is within directives. This is important because artifacts that access the DOM are hard to test. If you need to access the DOM directly you should write a custom directive for this. 
+angular.module('moduleName') 
+    .directive('myDirective', function () { 
+    return { 
+        restrict: 'EA', //E = element, A = attribute, C = class, M = comment          
+        scope: { 
+            //@ reads the attribute value, = provides two-way binding, &amp; works with functions 
+            title: '@'         }, 
+        template: '&lt;div&gt;{{ myVal }}&lt;/div&gt;', 
+        templateUrl: 'mytemplate.html', 
+        controller: controllerFunction, //Embed a custom controller in the directive 
+        link: function ($scope, element, attrs) { } //DOM manipulation 
+    } 
+}); 
+restrict: Determines where a directive can be used (as an element, attribute, CSS class, or comment). 
+scope: Used to create a new child scope or an isolate scope. 
+template: Defines the content that should be output from the directive. Can include HTML, data binding expressions, and even other directives. 
+templateUrl: Provides the path to the template that should be used by the directive. It can optionally contain a DOM element id when templates are defined in &lt;script&gt; tags. 
+controller: Used to define the controller that will be associated with the directive template. 
+link: Function used for DOM manipulation tasks. </t>
+  </si>
+  <si>
+    <t>The compile() and link() functions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you need to do something more advanced inside your directive, something that you cannot do with an HTML template, you can use the compile() and link() functions instead. 
+The compile() and link() functions define how the directive is to modify the HTML that matched the directive. 
+When the directive is first compiled by AngularJS (first found in the HTML), the compile() function is called. The compile() function can then do any one-time configuration of the element needed. 
+The compile() function finishes by returning the link() function. The link() function is called every time the element is to be bound to data in the $scope object. 
+As mentioned, you add the compile() function to the directive definition object, and the compile() function has to return the link() function when executed. Here is how that looks: 
+&lt;div ng-controller="MyController" &gt; 
+    &lt;userinfo &gt;This will be replaced&lt;/userinfo&gt; 
+&lt;/div&gt; 
+&lt;script&gt; 
+    myapp = angular.module("myapp", []); 
+    myapp.directive('userinfo', function() { 
+        var directive = {};        directive.restrict = 'E'; /* restrict this directive to elements */ 
+        directive.compile = function(element, attributes) { 
+            element.css("border", "1px solid #cccccc"); 
+            var linkFunction = function($scope, element, attributes) { 
+                element.html("This is the new content: " + $scope.firstName); 
+                element.css("background-color", "#ffff00"); 
+            } 
+            return linkFunction; 
+        } 
+        return directive; 
+    }) 
+    myapp.controller("MyController", function($scope, $http) { 
+        $scope.cssClass = "notificationDiv"; 
+        $scope.firstName = "Jakob"; 
+        $scope.doClick = function() { 
+            console.log("doClick() called"); 
+        } 
+    }); 
+&lt;/script&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom directive include 3 kinds of scope: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.shared scope 
+Shared scope simply means that the directive works with the same scope that is already available for the DOM node where the directive appears without creating a new one 
+2.inherited scope 
+A new scope is created for our directive, but it inherits all the properties of the parent scope through JavaScript's prototypal inheritance; if a value is assigned to a property on the new directive's scope and the same property already exists in the parent, accessing the property value directly in the new scope will in fact override the parent's property value and any change to the property in the parent will not be propagated anymore to the child scope. 
+3.isolated scope: 
+sometimes when we create our own custom directive, we can only use it once within a given scope. We'd need to create a different controller each time in order to re-use such a directive, it is kind of waste of time and inefficiency, so what we want to be able to do is separate the scope inside a directive from the scope outside, and then map the outer scope to a directive's inner scope. We can do this by creating what we call an isolate scope 
+this type is requested when scope is an object {} in the definition object. The object of the scope property (called scope option) can be empty or can have some properties specified in the following ways: 
+One Way binding (read-only access):'@' 
+Two Way binding (read/write access):'=' 
+Method binding:'&amp;' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The $http service is a function which takes a single argument — a configuration object — that is used to generate an HTTP request and returns a promise with two $http specific methods: success and error. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 kinds of Dependency Injection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inline Array Annotation(preferred)  
+someModule.controller('MyController', ['$scope', 'greeter', function($scope, greeter) { 
+  // ... 
+}]); 
+$inject Property Annotation 
+var MyController = function($scope, greeter) { 
+  // ... 
+} 
+MyController.$inject = ['$scope', 'greeter']; 
+someModule.controller('MyController', MyController); 
+Implicit Annotation 
+someModule.controller('MyController', function($scope, greeter) { 
+  // ... 
+}); 
+Difference:   
+First two allow the minifiers to rename the function parameters and still be able to inject the right services.  
+Be careful when you use Implicit Annotation. If you plan to minify your code, your service names will get renamed and break your app. 
+Solution:       
+ng-annotate let you use implicit dependency annotations in your app and automatically add inline array annotations prior to minifying. If you decide to take this approach, you probably want to use ng-strict-di. 
+Ng-strict-di: 
+&lt;html ng-app="myApp" ng-strict-di&gt; 
+Strict mode throws an error whenever a service tries to use implicit annotations. </t>
+  </si>
+  <si>
+    <t>What are the differences between AngularJS (angular 1.x) and Angular (Angular 2.x and beyond)?</t>
+  </si>
+  <si>
+    <t>What is a component? Why would you use it?</t>
+  </si>
+  <si>
+    <t>What is the minimum definition of a component?</t>
+  </si>
+  <si>
+    <t>What is a module, and what does it contain?</t>
+  </si>
+  <si>
+    <t>What is a service, and when will you use it?</t>
+  </si>
+  <si>
+    <t>What is a promise? Explain it laymen's terms.</t>
+  </si>
+  <si>
+    <t>What are the lifecycle hooks for components and directives?</t>
+  </si>
+  <si>
+    <t>What are pipes? Give me an example.</t>
+  </si>
+  <si>
+    <t>What are the differences between reactive forms and template driven forms?</t>
+  </si>
+  <si>
+    <t>How do components communicate with each other?</t>
+  </si>
+  <si>
+    <t>How would you use http to load data from server?</t>
+  </si>
+  <si>
+    <t>How do you create routes?</t>
+  </si>
+  <si>
+    <t>How can you get the current state of a route?</t>
+  </si>
+  <si>
+    <t>How do you create two-way data binding?</t>
+  </si>
+  <si>
+    <t>How do you load external modules?</t>
+  </si>
+  <si>
+    <t>How would you display form validation errors?</t>
+  </si>
+  <si>
+    <t>Which lifecycle hook would you use to unsubscribe an observable?</t>
+  </si>
+  <si>
+    <t>How are services injected to your application?</t>
+  </si>
+  <si>
+    <t>How would you create route parameters and access them from a component?</t>
+  </si>
+  <si>
+    <t>Why would you use Angular instead of another framework, e.g., React?</t>
+  </si>
+  <si>
+    <t>What is the difference between an observable and a promise?</t>
+  </si>
+  <si>
+    <t>What is the difference between a component and a directive?</t>
+  </si>
+  <si>
+    <t>Why would you use typescript aka benefits of typescript?</t>
+  </si>
+  <si>
+    <t>Why different life cycle hooks are needed for a component/directive?</t>
+  </si>
+  <si>
+    <t>Why does angular use rxjs?</t>
+  </si>
+  <si>
+    <t>What is the purpose of using zone.js?</t>
+  </si>
+  <si>
+    <t>What is the difference between ngOnInit() and the constructor() of a component?</t>
+  </si>
+  <si>
+    <t>When will ngOnInit() be called? How would you make use of ngOnInit()?</t>
+  </si>
+  <si>
+    <t>What are the benefits of using formBuilder?</t>
+  </si>
+  <si>
+    <t>How will you protect a route for authorized user only?</t>
+  </si>
+  <si>
+    <t>What is a custom pipe and how will you use it?</t>
+  </si>
+  <si>
+    <t>What is a structural directive?</t>
+  </si>
+  <si>
+    <t>What is the difference between RouterModule.forRoot() vs RouterModule.forChild()? Why is it important?</t>
+  </si>
+  <si>
+    <t>What is the difference between a module's forRoot() and forChild() methods and why do you need it?</t>
+  </si>
+  <si>
+    <t>What's the difference between dirty, touched, and pristine on a form element?</t>
+  </si>
+  <si>
+    <t>What is an async pipe? What kind of data can be used with async pipe?</t>
+  </si>
+  <si>
+    <t>What is injectable? Give me some example.</t>
+  </si>
+  <si>
+    <t>What is a pure pipe?</t>
+  </si>
+  <si>
+    <t>How will you create two-way data binding in Angular?</t>
+  </si>
+  <si>
+    <t>How would you debug a typescript file?</t>
+  </si>
+  <si>
+    <t>How do you implement interface in typescript?</t>
+  </si>
+  <si>
+    <t>How would you call base class constructor from child class in typescript?</t>
+  </si>
+  <si>
+    <t>What is typescript language service?</t>
+  </si>
+  <si>
+    <t>How to declare a custom type?</t>
+  </si>
+  <si>
+    <t>what are some disadvantages of typescirpt?</t>
+  </si>
+  <si>
+    <t>Why would you use angular cli?</t>
+  </si>
+  <si>
+    <t>How would you run unit test?</t>
+  </si>
+  <si>
+    <t>How do you create application to use scss?</t>
+  </si>
+  <si>
+    <t>How to inject base href?</t>
+  </si>
+  <si>
+    <t>How would you extract webpack config from angular cli project?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block level elements normally start (and end) with a new line, when displayed in a browser. 
+Examples: &lt;div&gt;, &lt;p&gt;, &lt;ul&gt;, &lt;table&gt; 
+Inline elements are normally displayed without line breaks. 
+Examples: &lt;span&gt;,&lt;b&gt;, &lt;td&gt;, &lt;a&gt;, &lt;img&gt; 
+New in HTML5 
+New semantic elements like &lt;header&gt;, &lt;footer&gt;, &lt;article&gt;, and &lt;section&gt;. 
+New form controls like number, date, time, calendar, and range. 
+New graphic elements: &lt;svg&gt; and &lt;canvas&gt;. 
+New multimedia elements: &lt;audio&gt; and &lt;video&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HTML5 &lt;canvas&gt; element is used to draw graphics, on the fly, via scripting (usually JavaScript). A canvas is a rectangular area on an HTML page, and it is specified with the &lt;canvas&gt; element.The &lt;canvas&gt; element is only a container for graphics. You must use a script to actually draw the graphics. 
+What is SVG? 
+SVG stands for Scalable Vector Graphics 
+SVG is used to define graphics for the Web 
+SVG is a W3C recommendation 
+SVG Advantages: 
+SVG images can be created and edited with any text editor 
+SVG images can be searched, indexed, scripted, and compressed 
+SVG images are scalable 
+SVG images can be printed with high quality at any resolution 
+SVG images can be zoomed without degradation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With local storage, web applications can store data locally within the user's browser. 
+Before HTML5, application data had to be stored in cookies, included in every server request. Local storage is more secure, and large amounts of data can be stored locally, without affecting website performance. 
+Unlike cookies, the storage limit is far larger (at least 5MB) and information is never transferred to the server. 
+Local storage is per domain. All pages, from one domain, can store and access the same data. 
+HTML local storage provides two objects for storing data on the client: 
+window.localStorage - stores data with no expiration date 
+code.sessionStorage - stores data for one session (data is lost when the tab is closed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;header&gt; 
+&lt;nav&gt; 
+&lt;section&gt; 
+&lt;article&gt; 
+&lt;aside&gt; 
+&lt;figure&gt; 
+&lt;figcaption&gt; 
+&lt;footer&gt; 
+&lt;details&gt; 
+&lt;summary&gt; 
+&lt;mark&gt; 
+&lt;time&gt; 
+New attributes for &lt;input&gt;: 
+autocomplete 
+autofocus 
+form 
+formaction 
+formenctype 
+formmethod 
+formnovalidate 
+formtarget 
+height and width 
+list 
+min and max 
+multiple 
+pattern (regexp) 
+placeholder 
+required 
+step </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,17 +1080,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)_x0000_"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -482,7 +1174,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -502,11 +1194,92 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -525,6 +1298,147 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4097" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAioAAAGZCAIAAAAo5I2iAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAOqoSURBVHhe7N0H3NbT+wdwyV7ZUUpooJQyKsmISIREP2Rn+xnZe/3tlZ09srKyQtkJDSNtLSoSTVRkpP/7vq+77+/2VIR4ovPxen2d7znXuc51zrnm/dxPT5lZs2YtlpCQkJCQ8Pdi8cL/ExISEhIS/kak8JOQkJCQUApI4SchISEhoRSQwk9CQkJCQikghZ+EhISEhFJACj//WsyaNWvmzJmFl4S/Eo76559/LrwkJCTMH9IXr/+F+P7773v27NmrV6+pU6duttlmzZo1W2655QpjCwGGDRv2ztvvjJ8wvmzZsg0bNmzQoMHii/9T0yDmM3jw4JdffnnKlCnrr7/+DjvssM466xTG/i2QxIwbN2711VdfZpllCl2lDRpOpEqVKlGhQlfCPxCLaPihvh9//PH48eM5vjJF+Omnn3744Yc111yzatWqyy67bIH6nwb+/Zyzz3niySe069Wr16lTp2rVqsVQ6YIj69Kly80339y7d2+hUc9BBx3kdcUVVwyCEpg4ceKgQYOisHBlNWrUqFKlimuK0YUBdnTrrbdecMEFEX6uuuqqVq1aFcYWEGbMmDF8+PCxY8cuscQS1atXF96Ko/VXX331xRdfTJs2bfr06QiWX375cuXKlS9ffq4JB2kRT5o0iZ6HqmO11FJLmSW0CDBzXsTXX399//33uy9ZQuvWrXEuDJQeBJ4HHnjggw8+EOz/85//rLTSSoWBhH8chJ9FECNHjlQTUNxVV12V1Yk37GrttdfWZrcbb7zxU089VSD9B4LL3nXXXeN+69Sp89FHHxUGShvdu3ffYIMNQrDA2Wefzb0Whn8JzvH6669fbbXV3AiXuvTSS++1115ffvllYXjhwI8//njNNdcQz16ExkceeaQwsODQr1+/7bbbbskllxQkzjrrrG+//Tb6RWU17rHHHuuK1QE0eY011hACGzVq9PDDD4s0QVYMhZoQIoYRtWLFiuipfeXKlTfZZJOtttrqhBNOePvttwuks/Hoo49GHob/6aefXuj9u0AHBBtZSOE9j9NOOy1EWnnllR988MFCb8I/EIvoz364vDFjxnzzzTeTJ0+m3Mogfi0UnXmz0lGjRhVI/4EIVxXtsmXLSoqjXbpwyLfddtsnn3yiLdfedtttTznlFNmruBIEJeAKunbtKlV3I3Jw1c9bb70V0xcqOOEoyJiTaOQZ/QsK9v7pp5/irL6J6Bv9AsOhhx7qSMUnBDR5woQJanohRI/iJsiKMXr06Jdeeklx7GyVU+gxZAgDBgx45513lKEYXn311ayjMGGxxRz+d999p4E/SaLzb4D99unT5+STT95///1vuOEGRV5hIG+8IZJOZxKdCf9ELKLhJz5z0OA45OPS6sMOO+zAPA466CBpYIMGDYLynwgeKvtJeHG7dMHZvf/++yHMzjvv/MADD1xxxRW1a9eO0TmhQv3www+jHR/xT506dciQIdGzkKD4eDUWeOwByUT2QxfnEJ+8vfDCC5dffrm61qIKxO233/6YY46hujVr1txoo42cqlkxpQSyvGS99dY7+uij+ffDDz9c6YMeK5Hp/Dwyt7777rurMM4444x77rnnvPPOi86/AcLP3XffLSK+/vrrpJoyZUphYLHFzjzzzDvuuINIDz300N57713oTfgHouyFF15YaC5KkIk/8cQTUj/thg0bnnjiifR466233m677Ro3brzjjjtWrVpV4S9JjLySzWcfprNSWSQoldBkHz3rRylbB9kZl1Hi56ISSf7CrJVXXjmGMJeuahR/5v7FF19wsjivssoqha48TGeHJF9hhRXCufARfLRdmF7sbtBIcocOHapdvnz5Vq1arb766jEUwNwqJFFS8Edz/WkK+0cAcl57L7GXuUI2+vnnn9u+domfnOH24osvPvfcc3bhdcstt2zRooWNxOhc0a1bt/gIdJNNNsENcxl9xYoVXVBxwYSzM5TC20j0c1WOxRP/eVV+YqHDtzXX53KdQ/g4O42T1DNixAinRACdWX1jd5ibaC0ZjEvv2bNnjx49pOTlypVr0qRJnTp1svPEJM7QLJSZCmVQf7smYdVcYkybNm3gwIGmF5+MMuXZZ58lsHatWrV22203lGKPK9az6qqrKiJPO+00/U7G6k2bNhWN5lwLhg8f7lSjkthzzz2vuuqqXXbZJegdY//+/WfOnOmQZQkVKlTYfPPNkTn5ypUrW8WV6cyzyeUBjgsfKkoYejh48GAaksW2QK5c++JLRjHXvWdwmKE2KO3divRT1BF+7FpPlSpVLG2t0FXaXqlSJSrdqFEjnTTqs88+i2LOaLEMNmXLdIPAcV+FgfzVWNT9MlWyzVW9HUV8KGKntGJeZXrCHweLWgQxaNCgyLvp65FHHklxCwNFYFEtW7asV68eO0QTnoghde3addttt91www1VSLfeeqtOqtyrV68rr7yydevWTIKhNmvWTKrInvOcChDwNt54Yw7ijjvutKIEVmDYdNNNrfL888+zfC7sySefbNOmDYfLI9x+++0MuDB51iz0JJHeWoih9uvX79hjj+VxttlmG+Ual1GgmzWLOyZJ3C/+xT/7Ydjdu3c/66yz1B+2ts8++1x99dWiXWE4D0b78ssvy4ubN28uLyaJTFMhUhieGwRjOfJRRx1l+6Yceuihd9555yeffOK4jNqaVy7DaYdUPIi9nHrqqQJ8cCgBzkhuHpS33HKLhDcqAGfep0+fAlEevL+kgYeyERHl1VdfVQfIJODss8/mJUOGDDzRY489dvDBB7tER3fZZZc5SXWYexE8JNSOCJlk3/moJBQHCGKuk+Trq1WrZsjtcE+YX3PNNbwz2cjgEGI5cUV4OPfcc3fddVeattlmm7nra6+9VkgLVsDx3XjjjTVq1LApAcwrMerWrWu/OBeIZs3q3bs3tcmdWv6bGshIqF6PHrV78dX/Orp06aLoiYl0oNCbBw970kknZV5YnAvtfeONN8Qnh7nHHnuIB3pskNo7Gcf+1ltvidlOHoHdCZ95ZrNEFKmGG3TIdnfggQc6WJQxmsFdEOm4444TO+V8lJlUArC5jCjTFgGJudFGMcmszp07E8aKtJeQwgN9c8hOyWVlJ8wqFUluypYdfswFVvbBBx+o8Nw+69hpp53oAIcQowEaS82ofeQTtPq///0vDnP9iVrCH8aiG35oFc2Wu9H+uYYfvoxVhAFIoq+77jqdMiZpY3Suu+66zzzzjE6umY+OzmIwUW4lzywHGh/9TIWxrbbaavEKetjwOeecI7svdC22mKTs5ptvZkUx/frrr49+pqhWE4fiNcBCrBXmwacfcMAB0c/xZQbJc1llzm/B8S+ZnDyIUCHhLYzNhkw5COaEsoaLKZH5yjSZLk+BQDw77LDDCgNFsAr/FUxKgPHHka611loS2zfffDO+cyUaCQwFojweffTRWJrD4qFK1HmyexGoQDprlkxZWlDiu1LcVszi5kQsp8TDtm3bNkYJmX0PRUSxSvRTG2EApZOJ8FO9enVONig7deqkxg3KDJy7vITvCxpVEb8ZQ/vuu69gHFOOOOII7jto4N13383uWvixBeeZfejERxNVQaazMGHeKA4/UpYItBlkIYJfjMr077//fp1OO3rgkEMO0WPW/vvv71WJ5hCy757ZmiwEAfWTQhVrMlBmxMXplHyOVpQo8UVTse3CCy+Mb3OUgEhv4gUXXBCvhJRJ4JnZKZuSAUTwdm6sLPoFoQjSLpchlzABlY3IJ4/JiZUHpRKZCsOzIWUpvpeEP49F9Gc/HIHAo+EIqJ0klM+Vz9500020k+9jY+uss446g1tHRqHvu+8+jqxv376qBz08DnOKL5hhhZ4La9GihSxJYRHumz3LZOf8abmU7ZVXXqHKmESKp0fsufTSS2X94cuAo7nrrrtee+21eCVzlP9Dhw5VSImgwltm5G+//bZkTZ6uLYQIWsHZMxrck2Bw+eWXDx8+nL9QHnFzYYdqHXk3L6/97LPPao8ZM0b8kGDKiFmmDB2Mzgnr8puKP16AyxDJQDxwICS/5JJLHILgvcMOO1StWjX79MMe5Z7cmZIoeorhUviO2IuowzusvfbasVP5cvzAI0+Yg8MPtty6ApFPR5x9FEkGPpfTideOHTu6ZaWJNldFKv5OmWuWHidM1FCMTFQxKfvRi9GsPiBDiJE1nLMG4bWRkYGvV6YoUumJwCk5UDq3b98+BLBQ9nmOPEZ6ER+L6Y8rCxS3Y1/EcMihJ5Z75JFHZBvqBkWD88kTzh05VZjNLeQshnMTfoKAqPHRtKuMoyBqFhLiQOgn789Tx3ZIhYZWU2NhmDrJkxTEIquwilg8E1pCQmkcgcU2JZFXnFX87kKglReqSKhHdgVGo1KPzwOzz8o8yemV3cVJUkKmRAZtesJGNIAmx6cdFOCGG25gAmInwdq1ayf5YBrSr0svuTQ+rxY+3YWc0kUIQkceeaQkhmyQaULCggEtXAQhkFDowhHkEf4i2lxzljIzJGYZBJIsKV7QnHbaaZxF0Cjn33nnHalxfPjA2Z188slBxnKkcjoFMFOiE9iYyua2224LiwoIYBdffDF3mWVzcOKJJ4ZTYxJcYXRyyqeccgoLEVGKOYhhAo9yJ/vtEwvFh2+iphpFD1/AA0ad9Prrr9eqVUunJPTJJ5/Ug21+Xq4nvtUqFAm63Id2CbD2bCF+6qKLLuLHVY3EiESeAR999DE8DmK+Jk4SzOL09cfWSsBa0nxkrP2YY45xzo6Ut4oLUuJwEwXSX9YZTltqLJpyGVmnBCIKDnlAltKuueaaUg3SigcKxOgUlUluLcSOPTq5JzebX2qWIowji35Bxb2TX44Sawk2PGwc7OTJk4khiKLx6gyJHROF4aj5aAs5oxPsTsEnkCi2gkmg+MM3yU2IZ644ahfRH6AV6on33nsvJs6J4urn+OOPL1EwuQ4ZTDh9Fxd6S8H4dz38tTxDj9tRB+R55IC+YcOGMgmx36gsjZaKYVtssYVwqCc0P0Rdf/3147NTdUwWCAWee++9V9igogMGDAiVkDfErpHtvvvub7zxxrhx40Jg6ZFQZ4hgDz/8sB7nvO666waxiifKfdoYS4jTocmKs7jrNdZYgwDxuYIzUbbGXNmSHjlf1NOeV199NXkkhcQWUI0mLEAsotVPbL7wkgd7o2eewkx8KBH9IgGTjjyLpvJWOhnGoYcemiWDMi8WKCGVN6ke+HHpVQxJxKKq+PGnH6l7dOLGjyieDj/8cCVIfKzEjCVxbdu2lSkz74z5+PHjYyIzjh62h4B1CS0tW7bkl+VlMSSJk1eyriytJnZMZM8cmYYgt+WWW9ost84dhD+SwHJbOiXpuWn5HlPef//9tcqvxWtnka8YChT+Itp4kkpJoWq0qfhsE8NnnnlapNHmZbJ8VtGjdOPRMh9UDL575MiRGkIgMjTiEDljOj+lYM0T5uDKMiZ77LHH+eefzwEJQnxW9DuQSM8FD45Jw7qycodPWqWquwh342DduxPTzk7bFiDaGGZrIba0hinRaUpGQHJiyAycDw+efc8FCKMi1ECZqYQ24UXoDh06CFTBOWD14AkRljQILHRJX6ySBVpL4ODwn3766UzmYmR8AKuZP/3i32TCOZgXI7/7AqtomCcCRQ/svffeDzzwgFiuRKDt4oQAScOlNZUrVxbSqJmiKtTMkO3z5srlWEswFudEL+qh4jErhHTv2TcdaJT+tdZaK6JOdgjZdsSerbbaSjTSL8bIinTGJ4Fo5B+hjXLEMEz3LjoiI7BVtAmMOL4HRD28aoh29J8VUDw0mTwJCwqLaPhhSKHBQLn3228/ySCXBIINR5D98ENG3KZNm6gbApIpJQLzKLzn7faZZ57hCLg8Lpj9P//884WxvJ/yLJP3XdETzlSDljO/iDSUngXGx+hEghzp7M9bwCph/0JL7dq1w2OCgiwrgJg6izIlWwuiHT/f0vjss8/ETua67bbbchnxWSKTHjhwoLl6IhnUI2fkXPbYcw/5eOaDiiGumKIhOAnAEUdB/Ms+XldhWFGDS828Km6Zfy8BQzJNJZS2HF9Ofd555wknjzzyiEpCp3CunsvT5uA0wlnwEfXr148leAopQmw8d+75hjgUHGTiXHz2QUrFihUjuMbcOKVM1JzQRcEgQ/CMRrQde0gCXJtIsMMOO8gP+FZVBUcWQ/jHEpDRO3N1T5UqVahBFqTnhMSo+CIw79ix4y233ELrso9hlao33HCDWiFe5wUyz1qsIEbAjbssPleb0rpEDdekXyOTOdsv8OP777+/7IfYXi0ad20Ki2jdurWIst1225199tm0K/qlU7x8JAT45D+sbapdArYZq1hXtCsOeNnqTi+uhhiSNrmUNvmJIczEB6rUg0qzVrok6ke8VwfL8+g/2cjfrVu32CPhpT4ykjAop03zXZ8etWacTMICxFzsapECVeY3hZNzzz2XjwO5GJ9b/CGveFP8KQfLpO6Fl7x93nvvvaLXq6++yq74IHGIH8w8S2i2hQyFtejJ0l6NcCiG0EC0MwEys4doB00GSV8mjyE0EIsGYlbECeCChw0b9u677yojxI9wBMDwQJZ3zTXX8Ai2yfzUcy+++OKxxx7LmRY7voDcNmzS1siQbRlWWL5Q2TgfOa9Gbm+/lHyuEEEF7/Bi+Cs3b7zxxosvvji+d6TTdlRd8TMDsGiwLREkYteQObL42ErD2WbFJWCbbS2TMJuOf7YvgcFOo50hW9fcuEQnrBqgVBJnGxGV99prLxVAJCJBE/QZN8Ejy3hKgGwuItqZeBnWXnttDtQRXXXVVVtvvXUQDB06NP79gqApRsbBrkuEH8VTfMdPWziRGGlk4YcYIT9kyqmSjh9BBbj4UCdM6BIxPvzwQ4GHFkVFAgRAEyrhKCQKWcFdjOJLcezZFQRiFzqjysdHhJC9aTt8Vb6T/+KLL7yS0MmjVHKphyLpYXTqYIUp8aQyEaiAYFRONSletmrVSi6I0g0qm04++eT/+7//y3aRsECwiIYfmh1mRo9ZvtxzlVVWEWN4CvYQqVyGV155he8rvOTLCNYeH6kB07rrrrtk64xks802u+6665588snLLrssi1hhRZbLGXx+UT3RGf3RMMqVR3+0o5/rKZF2oSnu4TWiVgBelTEX58j4xxKZ7yDnvvvue+WVV5555pmnnXYau1KuSQbjozMH0qJFC+nz5ZdfzgLjI3WW/NBDDwlXwSED2w77502cQ9g2WPHzcZ/Hujxs+PrcnufY9ZzgC4TGoDRXSiu5VsqoF2MtGDlyZGTTkB2aZyYAZGtlDtfJhBfjYlRC0QlKn+hHmQmWNbjULPV2L8V7DBoLRcOxRyjq2bPn/fffL4466uOOO+7pp59Wo4hGEWCCBjIOgUzOEuA3sw/uMlFLgKMUhBTfERg4TSpB2hjNULyi01h2mf99oOoGZRjZR6lceXyim+1OA/KD/zscSpW1gWyZeKLXCSecwGWr/E4//XSaRsL//Oc/W265JfsKP05Cnp3mxJRiYBvLORarxM+fAoZiUUPZoVHFqNqFPSmL8BNf+RGS45MGd7H87F9xs3fCyGkkne3atTvxxBNPOukk1WebNm0ik1O23n333VdccQWjsBFXRgc6dOjQq1cvowkLCoto+Mm0lh6PHz+eAXAW+ew/93ujkqDMv3OF2b/5IaLwpKZ07979wQcfDK/EziNV5xoaN27MwDhNuXlW38zpLxBkPiiLCoyNawu78sxmocykDcjvXnjhhfgCGFHvu+++zCriE+qs0AHTY60wQmCH2267LY8gwEiZr7322jvuuEMEFYTkfcTmnTfaaKNTTz310UcflbaHhLLF7HtEGTbffPO11lpLw3GJ0BmBhgIr2iJH+AXSltjIXOEw44MjYktp77zzzkceeUTwe+CBB/iCiEAIuHhyamfhB/Ni/s4wDpP8UT1Uq1YtEm3enHOJnwPxgyQPVsEnEB/HgUCFwDk71eeeey77qV62HTcVJ0wSZ6vx3nvvxc+uLL3ddtvVrFlTg8zx0R+fmy2UCUzUYuGxopZU0XJPPPGE1XVaKPtSH43t0aOHczZkC/STPsgPQuv4WU5zTsXLHdDsVchgFSeDw5gxYyi5o46DkoQdfvjhkXnYUWwqm+sZBwv5M/5f+DEl+yqjeLD33nvz75y4XIemuUR5m3xCGK5SpUqQvfHGG+4ifsBpI0SKfmwj0mu8//77irm4I8gksYXsJKF+/fo424IaTlRjy+IcFYrPhBlvgwYN4lpdB2Lpl+goX7z++uvbt29Pwf773/9G6ikYC3jHHHMM42IX0UkBoqJKWFAo+L5FDXmfXAgAHNn555/PWsKQ+AgpJMtp1qyZzJdqikD6N910U2Qc0L333suD3HzzzRz9gQceyDjD5mknWxIYjF500UW0P8d9NhgMx+GZs9cii9UOWyoWieOIzmiHx8m8CZPr3Lkz/jvuuKMUT3KtINO/xhpryNoYGLFNB8zNiolNmjR59tlnP/jgA6M33XSTifXq1RNvcOPjJH177rknt4UbNG3aVCTjMT/++ONIop1P9r21DEJao0aNPsz/RipX6HxkkZzmLbfcEl83YLeHHHJI+BoLRSSDbKclgA/fHR+s8RpEInYMAX9kC1yALbz88suS/Q033NDhh4TmRiPgNWtEouAG+T7i8VCPP/64W5YrSJOVJhEYUGaCCZnODUP8lQWOwqjbzz5+iVN1yBqe0RkNs8J1WleaYiMCA88bJZfVYzSbBdrZ4XDBnTp1EvvVNJ98Murdd/tEv5xgq622spzp3KICSzIkuq+66qrcpXLQFYQ71sm9FvMPZOUjOEB3qjF06FDBkmLE1tBwu+rjkMeBFO9UwxKxSnRmbSCJDOyZZ55xaBiKPe6odu3aeIpw+MtXatWqRZEoqsO0U5ILAAKGIQREMqVGjRr2nn2lggFKhuRMyhSH4CJAv3POwhU0bNiQNlrIsceN4yP8xyjhnZ6SjroyVfbLBNBbUfCm5wI24VdZZRWqKyKGE8AfWSxns/Gj2YQFhrjLRQ0DBgyILxzPC+eddx4yOppV/WoFPZxClhezh9GjR3Nn2S+igvwr+1JA4NBDDzWRPRx11FHRw6Qfe+yxnBxF34Wl2ZdccomgolMYi5+jAubMUqdAWOw+oNiJk+qyyy6LXyxnP3vssUf0161bV3TRyU3wC9k3GsCKImh8ds8s47vm8fuqhuTsiLMVL7jgAltAUAKSblYaNIBh/MgaGPwZZ5zB1IOyd+/e2Y83ZJS8cPQXgx/MvqAs/kVgy8ARZN+cJnZ8r7dDhw7ZjRAyKG32nHPOic6KFSvGd8qBW8l+RG9rUbpl4M0vvvjiOG21UXHkC7jZzCfGr21a6NJLL41PF+1dBm2uMJB9V0XqUHGdisUqwcEJRciUHXHawA86n5yIs2aNHTs2+35/Bt5QUI9DE3356MLAHBCSu3XrRrDgVgwhp3jLzi07uoAtKFaodGFC/ovUWRg79thj9bjQbHWJBZ5BGVBZChKRMAUEG2cewYwyRyAXidu1a1d8LK6DwlA85XgI72ALY7PhBPQrWUIkPOWCuVXzMIvwQRlQLhefg7a4Hh8qBlwc8UIMjdiLQs2rJfK/7VYjKmbYddddQ/iEBYW5J6H/ejCP0Ll5peGqgVGjRsmLI42SS+6zzz4akqmDDjoorOutt97ibvjBCy+8UBkkX8ZN8sX+jzzySFV/fGoRFs60rBhmw4VlhqcRpT0yjZjimbm5LOFyW9FgqJiz5PigHwFPLXSpPGKWkKkzclX8w/ItzWvcfvvtbFJMskHujxfAVt632267xQ+rDAFiPvSzzz4j0jb5f5nm6KOPLuGqAuzz6quvdgKcNQ4YKsUqVarEgTJj4SeT36Yyr0TCOIoSGDJkSPbjhzp16hR7ClBGyE8jIZCxxmeevHnsNHado8tvNvMaxM76uftrrrlms802c4YydIVU8dfc8clKEEuT3yEHHwxd/Z133qkyQGMj2MaNWDf2ZRV71Kn44CJxdg5ex342lv6cdtpp8Usn6OOWaYspoYFWyQ7HFHE6ZLaWcO5sb7jhBnIGDeFbtWqlQs0+TgRxRcxzTYTcaaed5nq8zspdU4ngo/IAt0YwuiFsCM/kjIwkQAGCmLKFAhAJn/xgTpNDCTPgJglo3759y5Yt6YYj5bIFVCe85ZZb0qU4ar7+oosuuvLKK+Vw2npch42vu+668QNIPfK2s846i8A5vvnbD8HIH4s6xlCGgFnqm4xeKGUmxeeg3bp1aybAhBVbGAqlxLMjyeguu+wSkoip22+/vapIXQhqLKPHHXec/K9EvpLwJ/G/j3EXKfC8Tz/99MCBA8NzKbF/+uknbb5AvKHlMnpG/uCDD/JQ7J/rocoxV4auBuJnJVPcCqegU8LYp0+fHj16MFeunA30798/PoXgiLkDNL169Xru2eemfDWFa+MHab9Ozrpz587v5n9vjguoXbs2I5k4ceKLL76IITMzd8cdd9TJpFkjhpa49dZbVQmPPPII81A87bDDDiwk9gIzZsxQP7366quYM297yZwUTJ069b333iPM+PHjORSeTqVl3TAtbl3x5GRwZt7xMY7tzCtOB5jox/l/6l8JRVTctt56a/ZfbPw2JfdEwGVwzQJJYaAIDu3hhx8mAyfVokWL7Hc8M3zwwQdSe4fPJ6rw7E68v//++zkRG8E2vv4EKifXxL9wgnvttVfxP68gsVB0qlzJgMNLL710+OGHUwk3wvnK8bNAK8I9//zzWNEB+QfmluPf3QJ9oBXOnMxPPfUUkYySOX5kAjTHLRDY0q4ABzdCJThoF12vXj2m1717dzWcGCDA0BM3ayJtxPO1115TSdimGEPO7IvsgfhQSMHEszsu2mtd4YcaZMLPCYrx+uuvC/DqJ3pulnNWmmAueSJhxMViRBLmeB0OPXQjxCZb165dySBFsJf4cX0JOLo333xTceysqLFVpDWOqDhcYaXKxC3URlTDUAjJ4h+BXTezorS25gpo6fvvv+9SWJy2nizegH0Z6tmzpyMVYPbdd99izc8wZcoUTGi4O2LFcQLEsy49tygbf+eddz799FOjEddr1qz5Kweb8MewiIYfoFicZuElbwnhKzWoILeCgH16lRxBkAVMhKCM3DDAICOGZa+e5mZeGENs0UD0AFYxsZhVrB6SxPQbb7zxzDPPZFfcd4cOHWRwBDAR/2zFDDGEM4dSvFaGkA1nc+c63epGS2z8N2FFz7muCLlTmznTcvNim505DvOiCSYheSw011OF6C+x3IzvZpRd4n9HLWoKOfGvunHBt9xyi1ie3VeAP8IhYxJsvWbn5jCjp4QA8MMPPxT7dK+eVo8l4po0irkF7BFPjWKtKAEEOASy0/hN4BxTtIlhVon9loD9mpI73CLK7JpKiF0MBCZqmIVsXqvYRZDNawsljjfY6skJNG965/YrskGcgwayOSkNYaJh6NfPJ+EPY9ENP/843HDDDaof4UcWdv311xf/ey0J84n+/frfdNNNU6dNbdiwoWRfeiuLV4KEFShJhZ/sk7qEhIS/FL+WHSQsVJg2bZrYo/H9999rR2fC78Krr7161913PfrooyeddFKbNm1Uk2+88UbEniZNmrRr1y7FnoSEvw0p/PxjwDOWL19+6aWXXjmPQm/C70G1atV23nnnjfL/npjqZ6211qpUqdImm2xy0EEH3XzzzSX+FdqEhIS/FOnDt38Mhg4d2qNHj4kTJ66++upNmzbNfsSdMP+YMWPGhAkTxowZ89lnn6kgy5Qps+qqq66//vpVqlRJdU9Cwt+MFH7+Sfg5/6Pmuf64NeH3In7cnQ4zIaG0kMJPQkJCQkIpIP3sJyEhISGhFJDCT0JCQkJCKSCFn4SEhISEUkAKPwkJCQkJpYAUfhISEhISSgEp/CQkJCQklAJS+ElISEhIKAWk8JOQkJCQUApI4SchISEhoRSQwk9CQkJCQikghZ+EhISEhFJACj8JCQkJCaWAFH4SEhISEkoBKfwkJCQkJJQCUvhJSEhISCgFpPCTkJCQkFAKSOEnISEhIaEUkMJPQkJCQkIpIIWfhISEhIRSQAo/CQkJCQmlgBR+EhISEhJKASn8JCQkJCSUAlL4SUhISEgoBaTwk5CQkJBQCkjhJyEhISGhFJDCT0JCQkJCKSCFn4SEhISEUkAKPwkJCQkJpYAUfhISEhISSgEp/CQkJCQklAJS+ElISEhIKAWk8JOQkJCQUApI4SchISEhoRSQwk9CQkJCQikghZ+EhISEhFJACj8JCQkJCaWAFH4SEhISEkoBKfwkJCQkJJQCUvhJSEhISCgFpPCTkJCQkFAKSOEnISEhIaEUkMJPQkJCQkIpIIWfhISEhIRSQAo/CQkJCQmlgBR+EhISEhJKASn8JCQkJCSUAlL4SUhISEgoBaTwk5CQkJBQCkjhJyEhISGhFJDCT0JCQkJCKSCFn4SEhISEUkAKPwkJCQkJpYAys2bNKjRnY8aMGT///LN+KFOmTKF3kcTii/+p8OwYC63SwJ8U/q9GKB4F0yDq0ksvvcgq208//fTDDz9o5G1uUTe6hL8OBe2atdjPs35mcUsttVRhoJQwl/AzefJk9qDBey4QSwgmcy6kv7gzIyvuL0GTYV7984PcQqbO3lkJPpkYngsq/PwZaecHc+WvEwovCyXITEKntMQSS6y88sply5YtDCxi+Pbbb6dOnUrZIu2b/1tDGfeeNTLM2TP/+ANzy+TNaVbOrv7U0oHfwcHCs8rEurm3P700YFJozeEcFhTmlHOBSP6bsERud7MWm/nzzBXzKAyUEuay5yz8FGT90wgmcy40rxMv7v9f26NIlnnN/XWYYmI2VyM684MFFHdG+w8j45ytuEBQLH+JRgkUyx/tBSjGnwdhSMXnLrnkksLPQl6u/XUQfqZNmxaXGGdSGPgtxJTiRoY5e+YfIcC8OM8VxVP+PH590V+M5iLP/05sPqX9dWTcYIHsqFiqOSWMngUi+W8iFtKYOXPmSiuttPzyy0d/aWEue544cSLhoh2yZll8Bv0xFEDwK74jW8KUaMfc4nYxsv6skWv/PKs4/Mxrbgkgm5NmTv757kJPdC4QYFjMU3vOk5x/ZCccPKOdNXRGI0M2lCGjKUE8J7e/B5aLlF/4WWWVVRbZ8DN9+nTVT4nb+XWbgrisHHHeBRfas5Fdpc5M64oJioHYUFxHtOM1G/XUE+0Yis5iCUtOyRVEc5FHI2MVPSVeQU90RjsbspHi/tz/fhl+MuZ/BsWSwJ9kOKdIJXriNeuMPUZ7rkAJhZfZ+PUpGWIVT6ssDOFn7vod28s9/X/2Tn+xQyNFyHXMcSKB/03J08RrRlw8Ggia6M8aeRWbvUp+6Rida6MYuflFS8RrwKs7gBgK+mgDuwqaP49suUDxKr8XISRkPLPGnMiGopFBDw7xLIH8tNzjb0BhySIUBhZV/O8Q4h5mK3NB4X95PDFKez3jTnP4JU2MZtBTaM2BbCg/r9BmAhCdmdpkUkH0hHgBo0GZ+x+LnRsy/hqBEq+BOTu95tkXNlsYFeJmr5h7nT3x9yF/cNHIPWbzKeEc/gCy6XnB/wedhVa+HZT5Gf9rzAsI5kRh7LeQ22jRfRUmlx5yKlJozsakSZN++ukn55IbMpi/1ows+vPnVrhviJ5oBKKf+pYtWzbrQeNVaQXaRj3jVTsuWyIcSu81ps/8aeaPP/2ox2sMxdwc00ifZ+b+09Afo1kjL0VODEvYlMYSSyyRnzfLq078rWitWE6/HjBLj9fg8Adg9eAQO/rxxx+9RqfXAtHvAVbmaiyzzDLSFq/ffvtt9jEp5KlKIjsKm9LIVg9WGQFEO7vxvxqxKGFIEh++xbEvgoif/UTbmUTZEIdT6MnfkYPSiBOLHqNeo1M7dEw/JQev2k417jqbMieyIY1oL7300iussAIDmTZtmleIRYM+eoIYjScBLLTccstphFoiCOJATNFAnDXyI7mheM16IDaioTN25zUIPLUR6LeQBv2JTs9o5FjMP3J+Ljf351k/azk67fAYGlbJMc0v/Xs5ZzI7T8DQpYAeJuzEtH/IQxssmk35K5BdosZC+uFb8VcPPOd1FpmRFN7zkcPN6QlkWw0VyW4xPzbrp5m5YODEvaGJBgSBHo3gYGippZbC2et3333nhnKLzRYMk1A+/XF5OktwMDejcdOhVdoaOFMLSwT/Gd/N0L942YK6exbDrEKraFRniXZGtuQSuf80Qu0EyXw8z8lczHyubAOOOKZAtpc4DT3f56ERDGOuZzDU0K8R+zXF1jBxFPq1OQvtGTNmYBKUwSGsMfgEqwJm9xcvFzSQG/+l8L8J9CYSyY4W5Z/90Oos/DiNaMSRejqlOBlXRlclHxqhxoZCbzXCTDz1Axow3dwgwCGeoB+incFodJqSWZxOoL14ZlM0MjlDNq8ayy67rFlko1G5BfJkGWVAZ6GVB+bZE4cYjSnxCiFJeO2g1GmntDcEI63+kNAsxEEW9Hkec1lUZ0YWyHqCiQOMtrXAa2Eved+XMcn15BE9ntEZT1M04uIM5U32ew2uX0929QiQ2UKJ6RliacLEKhnitZi4xMRiBHNP3Bb28GMIfmUzhmI0FN1+IsKHr7dDMMTBhep49QxloqOOUpvKugb0XhHLtkKN0MRlOKNQa+1vvvnGRKOG0GvQPG40NCOmaKMM8XIbmDUraNDrnD59uiunTIhJRdTwwiGVxC2+dx6yhRieJgZwi1eN6MleY7no1DA9EhwCWzE2lU2fTyAOYTTsi5xOePDgwW+88Yb+rbbaqnr16siwtZAnxMRArBWHQx5tDZQazkR6i96B2HJ0eo0pJfj8Coq3M/+zArEckQiziH/1IPvZj9Pw1I7DiYaTifsNLxZKTq/i4uDHH35caumlypUrFxw4OAzNgmKGGnMi+rO13AX+H3zwwVtvvbXqqqvusssu6667LgmtmDHBUztmWSLan3/+effu3SdMmEAtN9tsM/2heIaKEcQB3CDr4dPLLJ7TBxOpK0kwsTsEdmSziHNbysc5Zmso4+A0bJlFm6gnGP4umIWhhu0Hz1iLPPqxxZxgeubCX8f/tpWD6UGG3qyhQ4e+8847xN5+++2rVq06atSo119/nTerXbv2xhtvzFEE25iVNYJVCRiKRhAEZXQW9+Qo5kBQetrUwhB+yl544YWF5mzwlcVKk+12ThgK5QiaL7/88sMPP3wvj379+vXt23fkyJH0xqFzLpGqIHPQrkpdENX9J598gvLdd98dMGDAV199Ravip9Amenql0L1793711VeHDRvG9tiY5UIP8Bw/fjxf/Oabb44ZM8briiuuqD/k8aTBGi67R48epNJYYYUV11hjDdMpmVE0n376KVVAMHHiRMvhT9UwKVbu4BaNaGeNQLzG0qaQhLVg++STT3799dcVKlTQ41SDMj8jh+K2uXkeBURn4SUPMjtJZM8///xFF11k1xtssEH9+vXJGbEtyKKRn13oMYWe0bYwIf22SaonnnjihRdeMN2BGCoxK+A1O4G54leG5gfBnwyRghR6FzG4lEiqtJ2GZ7Q93V300FWGyay6devGUtw4mxKNzEWz5FJL8mV9+vRhJoMGDaJpq622Wqic6cEE5jzhrDN7skoZSceOHa+66iqJToMGDTbaaCPGSMIgiCnhIqJhIdfHvqjl008/bWlOlsC5TSH5pWOOhQLFbUBJ1MJLviCg8wMHDuzZs6d+WqqTJrNxkYY34NDBfkU+YqCnSChLsC2BElsuhp7M6tmIEw6T8Wo0nmhKTIz+YsmjB1DiwxU8+uijDocfa9iw4aabbsrdnXnmmU899ZSz2mGHHZyVnSK2ekyEwio45f+fW7Uo2GtkyA3nEQSFl3kgppPQcYV7LEX82fAT+h0N7uzaa6995plnnHXnzp2fe+65rl27vv3226zFPuVQnvSY5ThlaiSuPPjggzfeeONdd92l8eyzz/bq1WvIkCFBjCbIKF/79u3vv/9+MYaWb7LJJvQvopoTfOyxx/7v//6PG3WjLKdmzZphdSFeaGSnTp2uuOIKwogHtKFx48ZkwEFyxwtb/aabburSpcvo0aNZGrhCOodJ8LHBQLbl3OZnQ3/Wk5HZwogRI9q1a0c8fmHrrbdmPBbNGGpkxNpxyNFpdc+MIKYgoKChLpT4xRdfNNSoUSOZpp4IKhqB4BCOSUMPK/r4448duMNxJuxKbnvkkUe+9NJLTrhu3bqrr756rBgcirkV2jGScye51+JnNLL274JZFnVHKfzE9uMKsqOI83GPrkmCdfPNN3fo0EGqJNWjqOuttx6tQEarXeg555zD7pgJ3ZaX6MxUK1hFI4Cnp06NYho6ptaxhGCGQ4sWLTbccMP4cY5rIkxMKW6YQsFYLtsXurbYYosmTZoYCrWMT4+Ll4gdZT1QPArZlqWGF1xwwSOPPKJE2Hzzza1iRwS77rrr7rnnHjGSffEzr732miBUo0aNKlWqZGpczDOegWjjX2JIIzrdhc1qjxs3jtVoUE49aIIgQ/GsaOcYzW54xuG4DpciUrK+XXfdtVatWmKnTelXJjZt2tTBxk2VED7H65cwGgSe0RNTYih6olFC1AyGomFT5Il2aWHuIv4m4ggC9u9pV+oY2dnYsWMFD7pSr149Gbd66IEHHuCIb731Vqaix32oMNiSkEC3FOyuQUZQqVIl2Rbic889V4rn+MJ+WNpHH30k35HjUDU3x4EaFX6mTZsmvAkbXDx3/9lnn1HQOF9Pc91reF40nK+n9BArgUo/SfDkyvVjNXz4cOWXiRGcNBgAgYEkWOW3m9u71XGwCxxCTm1PU4xa105drR2ts8461apVsxaGBFbYIQsOgmi8aluR0psVlaJ+04MMrJVNJIAeC+GpwcL1aDuTEBUxxYqNY2IWzrfffrtg8/jjjxvFn4S25szVTwIPSj0Z82BlRXxiv7mhMosttfRS+mPX+nHAKk4yNq5TwzNhwcJtusopU6awJqqu4pc3KAucPBhyZYb69+9Pgb/44ov41MFduFYIDu7LnboyDbPiWo3SOs+4dzqJW2hXzIqG0VBLc+OuPUOB6YPXIAYNfIImgCFKZObmCGYttnjON+Y8j3XDG2DuGXob/Z4gpL3yyisS4vLly+NjUzLF//73v2KPdFOoE5aEnEmTJqFEZjpTsqgGMYIzm9LDUrCNKEKN9VtaT1iEJ/5eLUFOBE6YySgBsfXqHMgc+o+5tk3FaYS0GnGAuAW9fuvGimEyJmprWCsOFoR2lNGPDAcgsyUitzCKGFvLZeeJ0ujMn3I1ExuPHcUsq8S6nkY98+ssjPiD4ScOK7Znw572HEcszVdmiu0PPfTQww8/fMYZZ1SoUEFkuv7661VFDsUxiQSi0Z133unoBX8NBYpc5oQTTlCNsqvLLrtMRoMh5mhiOaBkIhyFMKQzPuKLIa+uP6bEicesUCkNl+dJEmHGdboz14eDuBXEFFRP3JyLJIkpGGJLO716hkIgEK7QG0LpaQmdYUJoDLGKs846y1EcdNBBFStWJEYoBFgdpYk68adPVid2KKXdcTGYxNI6tR2CKBK6FfvyjDaG5Iyl9dtXaGEckSfjdBeKSNHdimjUfFLas88++7TTTpPeqgItapVMBqJazuqZxwmgiTCpE5DZKTFMiWMH/BMWIBypk3e8cfh6nDYN+eCDD9yau3bvo0aNeu+994Ie3AjimOgVvavU6b7wocagkb/SHGdDgN5tIqbqOk3Ug0+eZc5LRkhDoJ8iISZG5j09AWU0TNTJUdKu0Eyisv0ll1oy9wWzPJlamhbFKAFIFXKGwAiYJ5n32GOPrbfeWvRV26n/+Ie11lqLWbVv357ruPvuu6+99lrKrPpBHKyovS3EK7bUmF3kdpu3F+cmB8WfPJGf2UtsOWRGIPy88cYbKi3GEhZqFFlcAeQ2md8vhlaMyERynVa3Ke3sGKMBwUdPvIIh0ENOHMy1iulheoZC5hkzZljaQuBsY2kZoeM1kYRowng1bBxBrBXPhROFCPyHYaslDtR5yfqrVq2qTSEaNGiw5ppr3nDDDcodIWeTTTbRo2QRbJzRzjvvfOWVV9apUyeIa9asSUdpmFROqr7NNtu4A6ogpwtFUaxI8fSwEOf71ltvqWzootUVSRSFhbg5r24obg6ZUIG/QkSVg4yhbrHFFq5WnkgSl1q9enXqyE2jdLtk0OasKZ8p+KhgGjVqpFZwuwikn88++6wpzZs3p3YqKvWZXW+33XbSMdMJIDWzFr/AkEyk0xTacnXr1mVLTOj1118n7UYbbaRStAWzSGt3Tz/9NJmdjH5Cfvrpp127dhV3cd577731xCEjpqnOhF6Kqc6BtOPGjbNNJ+ycHR0+TvKuu+4Scc2y6Jlnnmmtli1bklbcVapWzoOQroPYKOWVhhyye9lpp50idjpPu1YpeopYmEhLSaV4aty4MdnIQyocwFoJCwrO0/lruAKOSYM2OnnXxByoFoLevXtTLZq/9tprUwaaSbVcB3BJXimzcEWXeKv4akBoDm5m4cw833nnnQEDBshL3LueWNoTTHzyySfxdNem03m6TYHJQHl22203YgQlWDSsD2evPXr0YKcTJ05ESTPZWigbO/IkuXWZCUUiFQLMmSRzoGnvv/8+VkyG+chHr776ahpu+0cdddQhhxyiM7/FxYlENpQOynRWjC0zdz5kMH3HHXfk2Y0uvfQy9vLEE4/bOytA/Pzzz1tdssh47QI3piRdo+qEx0rebKdGOagnnnhiwICBrVrtJaXmoDCUPTMQeyEY42VukydPZoMOCjeHbwjPOM8M4TPBUYBXlC7Xfm3T2fKfOPCH5lqFhE899RTn06pVKyGfPOuuuy7bdEoclFuwX6Ki33LLLQ3hFvxxXqjtkXAlwPPaP/DOztTz10FL6Bb6E088EUOBwcXIiVyDsOHcMTn00EMNidL333+/4zv33HO90h6Zi8PVox4SPBA7ynr16hl1lN27dyfPFVdc4dV97Lrrro67du3a/Kx+rlN8MrTXXnu5Ko19993XPZHnyy8KwlNKSRPzMNqkSRNzNXhP0uLw8ssvUzt2SJVj0euuuy53BLNm3XHHHRy0u9cJrpNtxEfbhKRntWrVojdYkYFaoPGKSXzXAI2yjCrQ/l122YVC063jjjsOpch3zDHHrLfeesHZmdgXG7CoWeI0O+FEJHQk16lqEfkocfDRg8YsYBhehw4dauNh6gF23q5dO0fhbC+99NJM1wMminDDhg1zwvYubcTW0p999tktt9xSv379sAeUGuz2wQcfdJUIxBvBUsxjA4TRCBqHr3hl1S4Rcuc/f3BHnq6JyuFvL4smKFUcRZwGhPaCHj7U+SCT+4v6jn2fffaRjWnzhvo567Zt27oLXrhZs2Ya8huBhIdlWXT1yCOPLF++PBUyBCIQDeSwrIIzdaW0DRs2ZFxGkfGndEObHsZPGR977DFJJCs44YQTSKVH/DvwwAPpM+euStCDiVXMQkN1Xagk5rLLLuOL2RGNwlmawuStKPDgc++992666aaZYGyK86W0/IYno1hjjTVYaNj7JZdcEmS8h2ORHlmF5wk/g6dXJ0ntzznnHCYQVgn8zMEHHyyHo5n4dOvWDU/JmU7GG6pu79tvv32YIbfAg8fcAAl5oTGjx/AkSyyxZJs2bf773/8KXcyhV69epjiB3Xff3ULBDb1YxfT4KKMEC49nUZYSMvCTevjM2Kzwf8011xA7OytJAHu0U6PO1q2Jeccff7yAZ2v77befLct6eY9ISYETOO2001yrq3ezYYmZakG0Q7ucFUlKFwX3+meAi2ecezSCtQbDEJN5qPXXXz9SgIkTJ8ivIxmX7/DCKAWJH3/60ZFp0GCZu7nUSB6HzCxPihhplzyO6utBgI8r0c8a9WDlqiC+K+LVotg6aK9koG16TGfSeiLtcuXCkn49iAEHYpNhhx12OPnkk5kZqSQmyogohhgPMtI+99xzzNh0MnuVYN5zzz2DBg0KGoaBDCuvjoKe6RRfb7vtNrLx4CYapfQdOnQQA2IWu0KsEUeKLSYOwS4i+dUPOKDxRIyGy6CRJ510kmBAlYVPWedPM38iWHwNyUSnrU1fo9qLT05IRWttmeUzANsRnxgYH8dahJyLL75YJ9msHp8BMgbEXAnfQQALkV/0IiSRQkLPhAWFOM+4aLdDbTg+zkVq4sy5Eg7aJUqHmQlKl+LJ7tBw8fSW05H3SLO23XZb3vD222+/9dZbaRSnpiZ2ffHtMq4NE/pGh3MLz7Y+DCkqBSBAMCeSuwb9WU/IaTp90/noo49ywfygLO2www6TwHGXF1xwwUsvvcS9at94443KBaHu2GOPRaOssTvbtChWyhfZjARo8803Z0rkxJwlUjxbs26YieWoJasRQjwluLw2E3BEFrUdMusUPxgvDry2p0PQ2a9fPwZCABOVFPfcfY9+wUmqGi6FZ+c05FsW5aOYzE8//ag2uvnmm52GHbER/gTzZ599VlRo3rw5d8GlSArtTsaALOwLN4izyhA7tQthiaG5LzWZPFU2IIFwVgwwCEjIa1lXdBS6BCdnwhJfffVVzIVSOSh75FTD2HEusdZCiAUQfsA+c6o32+nQLYkSUGhDng5Fok1dvv56qiOmkcikb/IFJ6tdZvZvILkqGka92AbPqCd8ruSLHqhn0YciigeMyom7qoj/+JOBEoQkniQJ9+2VpckKqbhb5OvdWfChoNmnxojB0nvuuafai52oQu68804KYTQ+bdAw13Y0VCryGlWRnM4UK8qDBCFDlECwjIYTMMS0vBJPVKNtL7zwwn333XfQQQfZLJWiqU4gNFWPWZG+OcZYK5hoQDiFcAcCz9VXX82QHn744fbt28s3BVpbwHPE8BHytauuusoG0TvAjh072o5X1utwdOLgFgQPfkq8d0SckQAp4VULYq5OIi2jdS9uwRSWeeqpp0on9UdlaSLbJjOe5CdnJmrCgoKboqV0g+uh86HAdMDJy6LkYTIPComSOw6rkSU88sgjVEgBJAi5YtfK1+vp0qULZcaE3+TjuFHlRaglv6wQMZ2aWVQjFDIa9FDDU1uDloaiesalo6Sx8TUi/CmkatvqCinemaaRingaffv2JQl/LWAQQ84kErB6nIUBhQVuSn9shRPG7lVdQg81gAzhNPLqlvuYXcSyKA6cOG6sUoF4/vnni0y4WdeOrBgCU+bzzjvP3mk709DTf0B/ZFWrVr3wwgujjrQcD8BOEXAv4WcoeYMGDUQCW7NTo2KAk3eAXAETc868CoFxFshtJ9xLMcL6PHGQRmMiwBCVwPFFXGmi2u6tt94is3jDfaHXkGXKcY8++mgmaUecm5RC/HPRTNJhopdcWjF8b361hRR/Sri4+ww0oNCaPeQgnIIjpsQuj17mb6LwEbYeBGYhRuMZjYyPUUCmTWM4TVanLd2gu5JuCscUqWw4ej43rCJY4WM6GgpnVA9KYJyctQjEaaKX6VAyo2gIZiFyMmYqqy6hiO3atWMbRkki09TAOfSJlco71llnHanWzjvvbAoZxNdiGksQA9tQOEov5NSvX59gdevWPfTQQ63ufGwqTB0xSrMQxPSQrRjRYwk0HAeDHDFiBKU85ZRTWEvkd0TVQMMwYmmzHAUhi3lqYOI0ZKNemY2IEvTaIiUOb775piDETkzUzyNItSzqRmzE1hg8J4g5+wyGnpBbIOGPwsl7ugsnSTNlDDRKp5OXsxty7GPHjqXMVNpdqG/iIx0qhNItyKC/+OIL6Yj7itSN+u2///6sQAooVRo5cmQUOnwuGokFGu5su+2202ndkMHqcZs4RyOuOGiiQc4gjjSLzqgALMc/CjySobfffjso6ZIUkFSVKlXC+cEHH1R28/s0MzSfFomshJf9KH1MCZUGHKwSCkyGaAPdY3qqQIZAUVu02L1evXp6pFZCEUMjBo+hh71oW4h677XXXupFlI4OK6vE5yI4RIiyigbBbMreY4POStLJcskvTNqXXVhijz32wBaZPIBXQUkYuzALB68aCDQ8I5xrgNKTL2Kn2VnJdOOsTDckK41gz/QUSaI4YmpAADxFcfLIlUUdu3MUcUoQTBZa/PHwU7yx2GrhJQ+jriQujJYwEr7bIVapsu4GG6wXkVxsF/AjNqDxpEZcMGJPBRO/jIOC15DpKCkKhlIh6YardYXCj6tFhiZWdJ34ICMDtpaIUWqkrI4fulButocPSViyqzVXP/0zxasckHodcMABF110UXw0ERxw1sg2S01DjRitWTEaT8g2Fa8BTMwyRHEtKs6xEP02SPkQk9+rJUIkPSV0yBAaT6wsKszIwvbZZ5+2bduqV+RNUVwaDTnjEzMN/CmoV6tnW8DKQhxZBD+yeTo0O8JBherppvg+jfyMxQT7uDWC8RROwAmjj5PXWULghD8Jl+V2XIqLc7bOWbBxC1SIn+KwnL/MjCKF8oDrcGWTJ0/WpiRMjw6EKYkxoXKmK5s8tV00GmoQahkhxG3GReMPGliF5hTfcjQQx5ApNI1x6ZcmqjAk8nKa1q1by+cQTJgwgYqyZXUY7y98nnbaaUZpL1dLPAKwODRbbbWV3M4UXpWEGrSdNoYC22Ms7TVWjwqJDqM36tDsmsxRFDqNeLUXQqIJgVE6EOqNjyE8kek05NUx2k6cUtBzGtWrVw8Cl2I7GgzZAVoRpWPEPF4loyizewkOntEgqiWknvjYL0N2Vi1atFDiMGQEuZ+mTphgeuzUKqIOtpYg8yGHHCJBtGt1nuzhsMMO49ZshEmaUlgrfhSxUOKPh5+479iho4nTibad2z8CFuLiB/QfEJ9HcVW8f7Vq1SMGOLX+/ftrULillsx9VOXCaK1OTKQYSgp6kBUTwOqEJTqqlndnCKQtRsNTc6yymxCJJsUF0LmwOrdCgA033FC/hOXGG2+kx1tuuaUMIrQZTVDK2lTWrJo8fPr9999/9tln01dShTWiBw2gW6GIGYJVdiBQ3KMNDidUhPKBfuLp1AOY64y1Yl0NyDjotCjxtB944AF7Ub8rv6666qo777wzMi82Y1QjDgf4FCeQW77oI0rQiNvUduCe+IcYFJ0kFgoxQgA90QA02sEhdyjpk7e/AE7VRciN3I5ki+YoHVTeKs477rjjnXfe4YloMsrQJVfPnblBlF4pAA48nR6vmIRKcMRZJkGd3KMeSuIZBO4xpni6Xw2IhllZT6CESsQrfWvQoMGee+6pnBIgmzZtqkTwShhKdcwxx0TmZDuffvqpwv3hhx/GmcPt1q2b6dJ8+7UdZRCHYEj4sV92KgbwLXrwsYonsWl1CPDjj9+T2SjYRWwHK512qod4ObststzojLPyGvKbjrlZOHtmiu06SKURs6LHXGcS62q7C6MmOnDIzyuw9YxVQCPaxHOJzkeJAwL2Lrvs4gSEHLcZHEwUDmN1S9SvX/+SSy45+eSTN910U2FP2cQVqGixygSLX/tdOPEHw09E1LiM2GRxI9wizXZzYSEqcSei2l177bXdh5hh1Ak+/vjj6mW3tcqquS/mO8HHHnssPgUSJzbYYANnHeEnvJuko3bt2lJ48cN0py850gi103AxKEMwerB4mcWnTZ3m8ryi0V+zZk26LvKpaldbbTWe2upki4LMFkyXeUkixLkzzzyzffv2Bx10kHwETeZ2gz8g1hlKrB2dgUwMTzAxXgkZO4oMVOEsCmqsueaa4SDIw9E4t1grvqyiYXqoKc7IYtSJCZOCrqOQAckiW7VqJSqjQYwMTQZT7MK6wSo4EJ6Tip/DeRX+ZWF8EBqR2ynFscu5qHtM8YwGIIN41YhOyPV6xP9nk0UjP/4LFDNMCBQflPaM72bQCqfEyXpS14033pi2v/vuuxLhzTbbTBHvpowCSobD+qJi4KxlbEajCBg0aJCiRINDl88FDX0bNmyYKTSEvsUncqHeGjoppwb1CGuitOg1LIdzEHuCVx5AwNBm5lLy++67j10/8cQTnTp10m7Xrh3TY8XkOfzww/XcfvvthCH2+++/bzppJaziq6BFh+3F6ptvvjnvQR6sHnroIVpKWnwwIYMjYuBRKqEfNWo0OUPVcSO2/sqVK9tIBAmrFKtctONpCuS7c0DMJKXI2QaRmR7GRYBIpnktC+VcWf53RcQACxmtVq2a08iCRyyRwQ0S297ZINkOPfRQya6D4hgfzOPcc8+1a2YeFxFRTSO2QAaGf/XVVzuT+HZx9+7dHZ1RW5hzuYUNfzD8FEfU7KriXLy6BkHl1VdfVaNQtY4PdHRq6mhtPt2p7bjjjqpL5/7WW2+dfvrpTpzH79q1qyJD2eGqZEn7778/rWJa/DW2iE2kT7QwnC9/LUdwbejdHBqe1EI5UWZrkig5ddrU4BDqsu6669atWzc3tNhiomD8MMn0CD8oMTHXWlhRcYb6yiuvyMtYC4ISaoQMop1Bj2dGA87E4cRBiT233HLLbbfd1q9fPxtXr1hC8hLfp6SsVapUYT+yP6Mqm5tuuokqB59iA/C0ELZmaRNvxIgRUsjrr79eCmnIpii3IccYE5WV9957r+2EBwkmptuydaVa2vRexB04cOCHH35IrV977TWdzZo1E7PNiiv2BEuYOOf2//dqu3nVyDQkayTMPxwa/PjTj6GB1Nixc3PUOJTWRW+99dZyZHcRpQA1ZjiGuG9ktEJS7GZHjRrVuXNnGsIdC1eulVeVcXPugwcPvvzyy5999lk3LqF+/fXXY+lQFW6d4WhI+2gXJixCFaKHemRGF+rBRkzcdtttmSrdlhU9//zzfAIxhg4dSgmpt3WtKDGVsJtO7FAbsVCjd+/e5LcpZFIr2quzXr16YhUH8vnnn1966aWnnnqq6ZwGmTt06MBT2zXHwqIJ0LFjR6GO4bzwwgsKLJFS7KHhFgqGob1hF5gH8iedU1FkrEZD8sezk99GnHmMmgteSU5gZYowI2BfeeWVzmT48OEEe/TRR1HKbpl2TPG0RByR1zi0b7/9VqdrklXzNkzejqzlgsQzx2UvFgqnhD4EwISErsZF2DjDpwPxeSkPKR4XEy/MH7797+gzOAWHDurcecGoFCnI+FOpkMZRRx0VPF1q5CPxSrn32msvaRrmEmr8nSYH99///jfsB+JTAjBr991379Gjh8NFH19r1o+DuXocd1iCW5cr6SGJDEuPNOSll14yUbLg/pTw/O8NN9zgblzhFVdcQUFdPK8aoUi0Ywk4jB07tmXLlnpkkR9//LFbZzxegfD2gkO8nn/++ejtJVKe+lvWlzbiaUWxNiKBWhiNAEzjvTbZvgmzt7T9enU4sTriOCJx9M78PwBB1SSAJ5xwQlhFwNIINKQ5DBjna665JuSxEYrIFOmiV9yIyvvEYTJXkQY9bT7yyCODBkjOBbATluz1pJNOIh4y8caRBg1zCiZ0um3bti4LgUtRV+l0QfEBKYEvvvhiPYgvuOACWbbD5x3cCK2IZzHciCdVCeUJRfLUHwa2aIJDdA6BvHnlUHjP2xftopM77LCDoxZOOG6z5Lmhpcqgp556So/D/7//+z934dbkEKHtCguRCRn1CA8FG2ywgUSEyqHBjVsPlQvNZCyh3nTpnnvuwdnNnnPOOVEfB2ivgljDs0uXLmi4QtFCzxFHHCFSulBLS2vy5LnVQ6OoVnzJUxS0nH7ixdAaa6whWtCN+EzikUceQcbq9dAQDTGMvkW5FggLAocgl0Uv6ijWozPbr5ROniekIVBbxIEcdNBBwpIeRsdm9ZCfVJyGTrEk268aTonGS8QV1KlTh/47Oq4MT+Zz3HHHhUk6xmyWhDJ+K8glSrL12KZgrEc8i7OShdsXK3bOtpCfl9tUWCsaASlkDrZKHNzog04Gy8Z1ijdKLg2Hduyxx5LHFpCFAeZ0KN+GaHgyUlqHSeliLv/kaPxouvAyb5gcdx+MNGzVUfLXzs7TiUiadtppJ2GJRtJ4SslhYe50nKxbpBbUFB8HxxtuuOGGBx98sBPk5vRzpm73vffeQ8/lNWjQwO0uUXaJ6d/mfo9n77331oMGpRjAimToEjq1qsyCSIjdK6WRR+jceeedEdAAVoqerrdu3Zp5IHMTkhfXZl2ZCDEonE7rko2RH3DAAVYkJMOQ0xmif2xyq0ZbSbjwpIu2z03TwubNm8soSe4Vh83qbdZ0x6YrrLiCcpA6iiXxa4OY0Bvc7De+M6OHVQtaxHaSjlFV7vQUeaIpUVu0aMEjsBk7IqGlOSNbcwgWsmubOuSQQxyLXTtbkujBs1KlSoTEk3iCtzCjwVzdhQuqWbMmDu7LEkSKjbtBpyEWCl0M3imZPmDAAJfoQOSYKE0n2JD8v30QfEjuihGHbsSzGCVUC4EeeyePWYXeRQwuzqFFO0zJsYB2NNwgBev3Yb8vvvyCMjhqt+/K3BRP5Db33HNPrtbhU0KBiqviKLkzE6mHaw2jw5n6ub5TTjmFc9SJg3unZs6fPrsCNisa4clJuVaaKRThjA81sJxZaCitRd0+Vy41rFixIo8WSQm15BYtjSy+UWYV6kejxCqmgblZIoq0FWdbk4bqP/HEE5mk9J/rV5wdf/zxBJAgosHWulSO06CWZMbNdtgIU6LSFrUWPiSxcctZ1NJ62Ajv36pVq9Axi/br18/cxo0bk9N0h69kUUMwE3xq1KhhoqWxYsXci36VE+/Rt29fKaAk1fHyBgSzzZDK4ThAbPWjb9OmDfmJihX+kdTaNT46XZOzMj3ENsUWsNWw3zgrN+UQEPCc7iLONspZBDZig/pJiI9V+I39999fsoiVIWKjgdCoQLTjSX/wyXeXGgqf2heDl4mQ4L4LXXMDgmjwHbFJB0el3IG2ThfjCqmgW3cctN8x6Yfg7IgdgQxCUsOpsSjE3KVRr6Y7HcKooN2fMzVEsLKLl/3q66/M8moKnu7MKydIDB6QalJo/E3HCgeKhUxO5EbJhrk7I4bpnmQwSquIEZ/V0kirmxjfSAl1N0pxGSFJ7EUMsFltMuMZbAUwKzJXZmYi48SEduJJyPhoEb2nCEGfnCGpWAiG2oAPP+IMpTY4MCRKTzbBFRlifOQvVncUXsljijbjt3qoLALM7Q6B3cUdSfGUQXIL50YGcoolzgF/ihtLOzFHYbro5ZXeG4rr8EoeVsQBmc6QWD62cfIEIKrV3RQOLgLDnHL8EphAcRsZ/jblzHGLoUUN1DU8FzgNz5wqzP6JGlXUdnGfffrZ2M/HOvn4UYHjooEckB4n73ZQ4iPpYW5SKP3uAiVDCyujjbSINtINd+qyjILrw58KIQv3jVKJjyHlp5AI3Cl6OoaGVvDRGvw4BQsD4VJlRTSZ1tGxYK6fwjBADHHzSnmkYt/PyP3wHI06Dx9SyZbC9jt06HDttddK+M477zwbD3+iYQgHekISUzC0/YgxzA1bZ4WnzRKYtrM+6k21SOsobAGxudwU88FWkNDPO+FADEIidra8lrO1nCOVpxrS4zyR2aBtWsuB2529YwhWRM++QDJhlGfAzVpkRuDcgMk4fNzILxo5K69MmGyIOQpSkS07K3xM0bYd4rkjt2O6dZ2JKRYlnkVxcICEJ7ldW9EoSSgAsXOKlUecpCfQgQjhpYiCihfD0VCLkDL3I565uJECgsY+7dk+HZMt2XmMOhraEEegHZ2xnKe5uXvL+ymnSQnQON+gR4BbTKSUaFwkmOvWJXcWpUxMCH1ouSd6N2cKBKWGp3v16gpjXzhTFzIzDDz1uGMc9LvFyCaIpBNMRGMjEZMsSkU0gh6l4zJKHluwEG60lhjmCmYxHZml27Vr99BDD9H49u3bK93s3TbDKmw8988Al81ZOD4RFwlvd6YTRg9W2KInfOhNnIAewqiK0FtIZ2xQm316YmUhU+IcSGvjjiXEs7Qp5oY8no7XinoIYy+MRMgvs3hOD+IQdNo1Spyta60Qhqg4aMfTUfxPf+ZQJDSAiYWcHgeEW2FsEYMroJzR/t/RzX51LK545s8zy6+Z+3Vsh++cKYZDcx2eRk3HRNvduRETKUY47iXLLrnk0rnfXHbjTps+uFA362kiLY0LtQq/Zl3qAYhNQYCJZ1yNZxg4eiuGwhsNkwm9RUY2Pa5VG3/9JpqFuU6jU7+ZOm16QauNGkJpUUyILdMSU2VRwgM5dZpoI54QfELDPU2MucTA2aa8IrBuaLsVjeKjgUbbilyKISfGEHSSxEmGsVNsu0ODvsxiZVZbfTXcHEIsgafjJYwUDYEDD/uKLeAQh2+5WNQUZOQ00SqGnIzrMzGCHJkZDiaI4/ospx8Qh4HjgG1sh8ycQJwDev1E1Y8GcAvdIAkaDZxDNqMacZjgNfZiqBQx9/BDbiLOOVQCsRNHjNLenKBTo7X2NvOn3E/Yfvwp9y1Gp59x8wRkOk2MA3KOXqmOtka8mohAmyUYcp35S8ldGG7OFx+K4hl2FfAaIpmujaFRTLxGDw4aCIIeN69BYxRCyNDjnMbMyu0CJRfsv5DZayhTLASm6MTH6rmN5z/9C9MiZPRfccUVV111lWrj6quvbtKkCZqYHlMgt/zs9MSrodCemK6T8DHkfDRCv6OfPNFjinYclFsom/u+aG7LOMQ5mKKtEbNMibONJYzmNpv/I616LK3HISy1dE4GzGNuCIZ+ibJLLLlU7pu7sbTR3E7yumE0ntED2WuQaVvIk2AiqHaeapEDn8LBRTsOLdo5zFos/gCoW3BZ7j13rfkfX0PoretDoKHHXPeSHW9cSu5y88YqnYzbx0e/WRq5/tmXEjerzb4wZwWWC2ULspjl6TV83KyfZwmNGsHKaEjo1bpBD3h6hjIjQKmNPzJ8NAhmCJknL6zHmZiCIPZiSvAPCZF51Q61sVNnRduDBjf95sZ+EeuMdUMqDSdmFmigJE8ICXGG2aJOWJucCKInZEAW/IGZ48/74Y/eUAQG/LUtEbPQ44+GSHh6ReM1Dg1ZHLIpWSP4kzA4ZKNezdUwC08cPHXGycS6OCMIMp1B4BWThTH8eHWOcViFrnkj952KMrmdxIGaCyZ6Go2DC0o9aGI0GwqyQBBgEv3xzNhaAo1ZQemJAIKni9Fw+ohJntFkgmlnzGM0COIWIRpxr7FiAE3sMWZlz4yPZ+zFXK/BJ3qs6OnVM/Dxxx/37NlTntWoUSPPmBJD+ATDeDWXXnq1neBJmfRTrCALpY9ZCDyzVwiCbHqhN98PKHVmZhCdIXOMesbRmY5Ag3/JFUD5uA4OPCbiqRNBTIRYqLgRZCUQBNlyMJ8q96+E7btfDWfrmR1Orj1b/XK3MNsZGfIMBKV+CDJM4jxB26zc2S6WuzuJlCnhnthLxsdE01GCy0UfyxVkyF8xApdOTuCIxUIctKMfDeJYOqbozMmUlyq3dH65vFA55toxFItqW9dr0Gij54j0BFkGnPWESGjMDYFN9GrIukEZW0CJQL82MVAawtlohIdYXSOmI4i9xBNZjldeDEAMwTNoDKHRsK4hTGLUE9AE0AQrTPQHq5gYPVlDfxwjhrGXoNQwqh8Z6IyGIZ3BOWQIkTS86jRqok4IymhQA5cYr6WF3H4KzYSEhISEvx3FEWI+8etTwqv/Xp5/P1L4SUhISEgoBfyisE1ISEhISPh7kMJPQkJCQkIpIIWfhISEhIRSQAo/CQkJCQmlgNL/6sHMmTPjl9Tid+gKvb8fOEyZMuX7/B8Kii8oJyQkJCQstCj96mfQoMH77rvvjjvu+MILLxS65oAYOXXqVNHlx9n/tu6cGDp06DHHHNOqVaunn346viafkJCQkLDQovTDz/jxX/bt27d///7D8n8+ZK4YMmRIu3bt2rZt27Vr13mVa+PHj+/Tp0+vXr369ev3U9FfkUpISEhIWAixUPzsZ4nZ/3bTvPDJJ5/cd999Tz311MCBAwtdc6DM7L/MuHTR33pISEhISFg4sRB99eBXfvCzxRZbnHPOOQcddFDz5s3nFVpUPPEPTqTwk5CQkLDwY37Dz5gxY4YNGxY/U/n2228HDRqkIomhOTF69Oj4UzfaX3311UcffTQ1/4ca54rF8//SkcZy+X/FGfMhQ4ZMmTIlP1jAmmuuefDBB59wwgm1atUqdOUh3iAeMWKE9korrRRV1Jyfzk3P/zkfUhXeExISEhJKG3P5c3NzQmFxzTXX3HfffSIEX68Queqqq3r27Pn1119XqVIl/r39AC9/ww03XHzxxbfeeuuAAQNEgk6dOrVv336ttdbaePbf8iuBjz/+uHPnztOmTatbt+7QoUNPPfXUu+66q2/fvssuu2zVqlUjMokx5HzzzTdXy/9l9eh85513cL7gggvuvvtuUgmQ77//vkjTpEmThg0bxgdxgtkjjzxyxhlnXHvttc8999zw4cNJArmFExIWYkyaNIld0FiGIxt74IEHunfvPiP/l9nin17OILdjjPT8rbfeKl++/IorrkjV33vvvQ022GBeXwH94YcfmGrXrl1feumlDz74AAeWVcxW/yuvvCLtk9W9+uqrGIY5V8j/ndBAr169nnnmGROJhMnDDz+M54/5v3n4mx+nJyTkQKV+EyqYXXbZBTHlXnvttQWGUC+BR7ChykHWv3//5s2b6zdKI41ChIH4G9VzxQsvvIBtMF9l9h8xhE022eSJJ57IaFbO/23ayy+/XAWmh3XVr19fz5JLLhlGoqGQ0vi///u/7/J/iOGbb74566yzMGRXlStXJhL6Ro0affjhh3muCQkLL2RXMi26TZ/322+/nEkstpjMiUpL+wpE+T8Ufckll8QfsAGJ1zHHHFOpUiVRIf68/Vzx/PPPV69enW3GJ97LL7/8ueeey15ilL3vvPPOrOa444678sorI+QgXn/99W+77TYBBo3ELv7C9FFHHXX99ddvuOGGaBggQ+MTvs//veqEhF/HfIUfidiee+5JvZQdO+2006OPPiova9CggZ569eq98cYbaHj8Qw45RA/VVyeNHj36oYce2myzzfSIRtddd12wmhNZ+BF7TjzxRKmWGCPI6WEDLAGNzvhrhpdeeqnXzz//3JBXIcoqn3766dNPPx3RqFy5cueddx7bQKYqYkJkYGxelVDbb789mrZt20Z8SkhYaKGUqVixInUFsYSqx6sE6+qrr1blo1EVqezFAFGkcePG++yzTxaHWFOPHj2CVQlI4O68886NNtpot912M/2ggw5igCzltNNOY+kIRo4cue2222IinIh/LL1Fixbiih45XKdOnWbOnDlx4sQjjjhCD+uWZdaoUWPXXXcVL4NGRIy/PZiQ8CuYr/BDy1u3bk2x2EBWOjz22GNUlt7z8l7ffvttgQdNRIiAqBAFEHX3qjaXPd11110PPPDArbfe+tprr+kUvSK9OvPMM+m0HrEhNJvGR8nfvXv30P4IY6+//vpS+T8xd88993gNsAp2qJ/qM4/JkyfvuOOObOPee+9lb/EnNB588EFMZGoDBw6MWQkJCyd69+4d3rxmzZoPP/ywkPDcc89tvvnmeuR8ffv2RdOlS5f4VKBdu3Zjx45Vvjz11FNbbLGFHpUKDmgo/4wZM5QjIhbEhweIi03g2muvNaVq1arB1pBYooeBH3300ZZWYz3xxBPBuUmTJnrwtGh8DL7vvvtyCyxOmtisWTM9ksVYPSHhVzBfXz3gzX/I/zmsddddl45GJ9ug+rQ5XtUWX3zxheSrTp060QNiRnwPjR57FY1o8+GHH37ooYcee+yxV111FXvIPqCrXbu2LE8D8QYbbKCRrZsh/j7SZ599pl+FVPzzJPmXMKY/PoXr168fk9DfoUOHAw888OCDD7a0yKdn6tSpRM1PSkhYSCFzYp8anPt+++0nnChWDjjgALo9atQoNiWjkrp99dVX6hg2RflXXHHFPffcMzJFo6zpxx9/vOWWW4yCop/dPf7442wWsagm2Nxxxx0XXnjhiy++aIq0T5jRkMZFXGnYsOG5555raSVXq1at2KxOs4QflhgexOrKJlav3hKZLMScJazpmz4Jv4n5DT+gkZlEgCV4jaH4tHf55ZePCBGIIf3xrxWIELvssovESoq00047xRcEoi4xKp/KzckjPpLWb4noKYag5Rm1TvQA4rCZWFSMUf5j3qdPn4fyuP3225mrLVSsWJGh5iclJCykoLqR23Hr0QP0lkXQcAYiWsR3PgWA+LAaWAGjYAjskSVi8sILLyj6H3jggU6dOj322GOCBw7Dhg0TJ/bZZ5+jjjrqoosueuWVV8xFHN9WRRBp35prrpn9LBbiOzvWjT8NHoYmDS2W0BROgC1/8sknQZCQMC/MV/ih61GghH8PUHTmoSeMRKqF7Msvv5w4cWIQgFkIaGGElhYtWtx///335dGxY8dTTjlFoSOW0Hujxf+gTlZURWTKEAod6i7AfPvtt/nuHNT+MkEN3MxiBmyVACeccIII1KNHj27dunm+9NJL1157rUAYsxISFk5Q49D24g8A4oeaGgyEbkeqFwqfH/+fhRoVJBCcd95599xzT+fOnZ988knh57///a8S5/LLL7/77rsnTJgg/AhLZ555pqAV5mwuhmGAXovzv3g1FIIFsaeULj+eg6EY1Vk8NyFhTsyXflDl0CSqFjoHEiUBQ3/0bLLJJtWqVZMZPfHEE2PHjqWCY8aMofRswPTQZiq+xhprrL766mJV+fLlZUk6DZWIMVDCnLLXyM4kXEKLUGetcePGEUPsYV0iX5YebrjhhltvvbWG8EYwbfWW5/bbb+9Zrly5YJiQsHAi0/liJx6RhlEwBNV/fPjcv3//4cOHB4HR0aNHexoN82zYsOGhhx7asmXLvfbaS7mj9H/11VcZi1Lmuuuuu/nmm//zn/80adKEkZqembnpGswqPo4LxG/+Sf4YryXCqBl78UfZih4WJ+wx0sxXJCTMFfMVfugxvddQcGQ1SiRBXnV6ja++UGKaffTRR5999tmtW7e+5JJL5G50uviDtRIQsWI0tDkwadIkTz2R+kn6otAJSuFk33331bj++uv3339/9c0uu+xy7733UndyYkgqAeaII45gY7K8Bg0aHHjggcgOzkMBZG5CwsIMplQi94LMRrh4o0KLZG7UqFG33377oEGDRIJrrrnm8ccfRyA+TZs2LYiLgRvjijC2zDLLIHv33XdvvfVWVsNOYy2rRBzq3r07Ex4yeMj48ePvuuuuO++8U6cETm4XzMnQr1+/yy677J133pH8Pffcc8xNPwuNr2InJPwK5iv8LLnkkvHdAc/IkkDtEilSFDH6JVmnnXYaj9+lS5errrpqypQpjRs3jk+ig3KukChF8V78g5z4xNm6YQ9ojFpihRVW0LPyyisLb23btpWFvfHGG7fddptK6LDDDtt2222Fq0xIOd1FF120xRZbsM8HH3zwpptu6tixIwv5lX+vISFhIYEYELW+wBA9oEe/nohDm2666THHHLPSSivJvVq0aKG+ufDCC7/66ivBgyGE7ZRABC0JGZM58cQT27Rpc+qppwoehhQ68VNViGwPhJMWu+c4//e//x0wYED9+vXPOOMMdieAsUqGhuGzzz4rC5RuKqTefvvtupvWvfrqqzfaaKPgkJAwL8zXv3pAz2i8EKLmqFOnDoWLTjag6FHRr7nmmnpWW201mRGTEJAaNWp07bXXbr311nIxlkA7S/x7ORlEGgw32WST3XffnVpHpzDjKZzsuOOO2pam6DVr1mQG8fNPEWjnnXeuXbt2hQoVttlmm7POOks0IgYZ0MS3tEW1zTbbrGnTpiyhUqVK4hBuSiKlUoTMhISFFqJIr169NFq2bJl9m3TEiBG9e/feYIMNhI34If/mm28uM1OdjBkzhqFJwoyqSBjCUUcdpTaKicVYNY9vvvlGBBo+fDjmBx544MyZM4UrMaxq1aqGOnfuPHr0aOkjkxk5cuTHH3/M7pjS5ZdfXrduXUxEuNdee03cQr/HHntMnTq1b9++5cqV22qrrc4/7/yddtop1kpI+DXQufmB8KOa+TH/C88ZFODUThAqvM+B6667jm2whG7duhW65oYZM2aU+CU1PHEu7pSOyc4KL0WIfDDaTAjNXOUxhLLwkpCw0EMh8t5773Xv3j1+GS4gzLz00kv6mUyhK/+10sGDBz/zzDMqD69SMXYt8RJdgmCuGDdunPjRtWvXTz/91KsA89Zbb8WvneqJf+Xk4IMPtuK7777bpUsXsbDYAJlnfA97u+22E+2GDBmiBnr99dexLVAkJPwW5jf8zA/kZeeee+6VV175wgsv0MXDDz88fifuyCOPLDahhISEBYXJkyd/8cUXhZf8L3HXrl2b0amZFDGF3t8Jcct0TFq3bi3tK/T+EiyagaPZcsstBw0aVOhNSPg9mK+f/cwnhg0bdtttt51xxhn77rtvmzZt7rrrrq+++ko5f8oppyiACkQJCQkLCNOmTbvzzjt33nnnpk2btm3bdo899th777379+9fp06do4466g9/wqzK+eyzzzTUVdlPg0pg5syZ8XUkBVP8wkNCwu/Fggw/W2211emnn968efPVV1+9UqVKu+66q0ro1ltvrV69eoEiISFhwUEMEB4++eSTV1555Z577nn22WdVPI0bN77gggt22mmn+PbaH8CSSy654oorLrHEEiuvvHLx7/QUo2zZsssttxzK7DcoEhJ+L8qogArNBYQZM2YwCaq/7LLLxvflEhIS/gow3ilTpnz44YeDBg1SgqywwgpSvS222CK+CvSHoawRzz744INGjRpts8028VWjEvj555/fycOK8f2gwkBCwnxjwYefhISERQSC0B+usRISUvhJSEhISCgFpMwlISEhIaEUkMJPQkJCQkIpIIWfhISEhIRSQAo/CQkJCQmlgBR+EhISEhJKASn8JCQkJCSUAlL4SUhISEgoBaTf+0lISFjYwU199NFHAwYM2GijjWrVqlWmTJlRo0Z5rVChQu3atZdccskCXcI/Cqn6SUhIWNgxderUW2+99aijjrrlllviTx536tTpsMMOu+iii8aOHRs0Cf84pPDzG/juu+/69OnTt2/fn4v+FnhCQsJvQsny4+y/0/8nwQw/+eSTr776StETf+tIY+LEiSNGjPAsECX805DCz6+Bll9zzTU77LDDjTfemP5tq4SE+cfMmTO7du16+umnP/HEEz/88EOh94+ibNmySy+9tMYyyyzDEsuUKROv8Tf48yQJ/zzMr0v9+uuvJ02aVHjJ/5EP+UjhZQ6olL/44oto0zzpiSQoXucEFz958mT843X69OkUN9oByc748ePj795nUIuYks2CKVOmZH+gfk6QdsKECfMiiD88jEPhfTbkVs8///y0adOGDRsm+TK9hGwJCQlzBbPt2LHj9ddf/+677woShd4/CvEm8j/BJmtEfwo//1yUvfDCCwvNeUP5TI0eeuih8uXLCzy33XbbHXfc8c477xhae+21Iw0JjBs37qmnngrisWPHLrHEEnIf9KuvvvoGG2xQIPolPvroo/PPP//DDz+sWbMmnldffbWAVK1aNUomFL344ovXXnvtgw8+2KNHDxFo/fXXjx8zCmlXXnnlk08+WalSJe2bbrrpnnvueeWVV4SQChUqFP/z73qefvpp5QuR3njjDVZRuXLlTGZx5YEHHujQocPDDz/crVs38WattdaKP443ZMgQgr355pu2L4i+//77vXr1st+KFSvG3ISEvw6SHo6bblM5mt+9e/dBgwbJuuIv8RSI8pBaffzxxz179hw6dOiqq666/PLLv/fee8OHD2d0v+73caP/vXv3/uCDDz7//HNGsdJKKxXGFlvs008/ffvtt/v27UsGPIv/qA8n0KdPH3ZhOVkdsjFjxuDmNQhwY7NsSibKYAUJQrIs2Rsj4iXWWWcdNqWNySqrrBKzpHeWI8zgwYMlrLxN9ANX8Oyzz/IVG2200Z577klU1mo6nq1atSr+AxMkYbOSRQ5k5ZVXtnT0W/Stt97ySkjJcb9+/exoueWWi9GE0gFf/5v46quvmjZtirhu3brFfzuOYfDpBaL8H6I/4YQTir+FIjaUK1dOgx8vEM0BHOQvAgY1EjkQH3300eyNvgqNxYFk2WWXveCCC0Q1s5hi1apVdW622Wbx14UDavNjjjmGwMFcsDnjjDOKjRBDwsTHx1T/oosuiv4sh2rWrBkzNkrdS/y9Ikr/6KOP5hknJPy14IWZ28Ybb/zII49Qe06Tr9Rz6623cuIFolmztCVeW2yxBV1levvvv/8NN9yAjHUIQgWiuYF9XXPNNSiZFd1mp+edd56YZ0ggefzxxxs3bhzemXM/9NBDuf6YCKyAqbZo0eK555474IADeHk02223ndcgkHGW+APHW2+99ejRo8UGbOvVq/fSSy/93//9H/9w2mmnhTGKlyeddFKVKlUEV5GjVq1amGR/L1zA2H333fHZa6+9vv76az2IvW666aZiVdCAZLdhw4Y42JQzufvuu3mSGCKzWHXEEUe8+uqre++9t0RW8hpDCaWF+Qo/X3755R577JHXosWoxWWXXUZ1wvtTptBy2crFF18soWADp59+utyEZxef0FCmSy+9NFjNiccee4z65nkvJg86+OCD1Sj67733XtxEOyU8jaGLVJxWMT+jwo9qKWZRQeUL9dptt928CjY333wzGmpNTia05ZZbGn399deVZdTOcp06dWK38PzzzxOb2Si87r///uB5zjnnSMQmT5585513sgc9rJQYBIvgl5DwV0O5z13SPYGHxnL3EQzU7gKS0gGN2oKqqyT0U2yel4EEGdt57bXXgtWcEAlkaRF46Pw222xDw0UjJkPz8YyldUoKo9znzTn3mN6+fXs9wCRVY8qsKMg22GADVobg5ZdfFmOi8iD/5ptvfvLJJ4slAwcOjPzVopGntmvXThYotu2www5B3Lx5c14lUlIxRqWFoXKqZcuWCDwj/GDoVfbZv3//nEyzZrFWkujcJ4/gdtVVV0UyahRP0oYAzueZZ56JiQmlhfkKP+rr1q1buzM31717dz3yIx6f+vL1t99+ux7FbI0aNdCceOKJYRtoHnjgAddMNYNGRfz000/z9Zz+U089FXojDwpdp69CTuQ7H3/8cZ06dcStTONBDEPGHnDGqkGDBl7lXO+//34QqFrors769evTOamW+Mcai/XsiiuuQECJQ62LMXHixDZt2hil/XJPPYTZfvvt9UjxgiYh4e+B8CPS0D0+9MILL5TkSbziE2zRIlL+N998M2LPfvvtx7NTeCFkvfXW00Pz33rrrWBVAgqCM888E81KK6101llnYfXZZ58pPsJNSwfj07ATTjgBT51WiQ8YrDtu3Dg0N910U4Qu5cu1114rF/RcY4019JxxxhmyOhGFmcesQw45RHQJu2bym2yyiU6xh5XJKeNnrtbSaXc8AMO0EVsO13HLLbeYOH78+Cz8BKtTTz3VKy8R5u+4xMLy5cvzMAo7EG84EAGpa9euCO666674MENZRqQXXnhh+vTp+hNKEfP11QO3GN8dUPFIZDTkNaKFVIKeRY4zYMAAKZU0bdttt428Rj/9iyuPjKxz587KXoXUvvvuq4i+5JJLBCpVf9C3bduWWuCp3adPH/ZAPlqi2FJIXX755SzQkIUMZVmeJVQ/GiA6Yitpou4CmHBCC8Uqpdh1112nErryyit79eqFEgFD0iC/0orNNG3aVP6lHtdJ8viSwrRp0xBoYPIr355ISFjgyD4NZiznnnuuNF8ORL0pJxNQ9xhSjosc4s3xxx+vnhAM1AT777+/Ib6bL6a3Tz/19NlnnX3++efL3q6++ur4edKQIUPQ7LnnnuLQRhttpL5h2iwRPXMQD2rVqiUy4alTnFAqSTTNjZ/4sj4xhrGfc845lt54443ZdXwcMmrUKKGC8Cqn+PxNgJSYhl3rD2O3tEhz1FFHiRnxBR+dhx9++MEHHyzc2oiqaPfdd2d9ElDxRhwiG5rwNlmDVcZH688++6x1t9pqq6233trhMHy1oK3Z7LBhwxBwRFY3S6iTOu+yyy7hQBJKEfMVfjLnW/yTGAoRFiJIePLUNFLelH2SBma5b9MlXF4pFlOhptKcKlWqRLpkNDgUf1jMAHDT37FjR3mQyEHRFTEWlc4Ih5FhoSz+YSnQ5tDUyZMnR4CZMWOGxIcB48PYKDoCRrX00ksbEtXU6Sr0+GknjSQwhY7vJlgiVoEQMiHhb0M4XL47DI0HZzjakjZOnPYq9/WrAASA3IS8U44PoBgIepQPPvTg5VdcLvYwgQsuuOD11183a8KECShlkCXMR+Uhfmhw3MWGLBoJCXy6rM4rGfBnRJK/CCc8Q9gvqcJXiBnaGjI5YmhABAANWWxUcqAKiWxPFIxRIFh8dD927FgETB5iKBCUOsPe4yjUQM2aNdtpp52aN29+6KGHKst0KrA8ycmE2bX4VOJnugmlhfkKP5nndc1hEqAz+uNJ1+kWpx95WSASE1Mi/LRq1Yr3f/HFF5VBnueddx4COk2VjdLX3Jw89JtFseRW6npVizhxxRVXiBOsaP3118cwdBpZsV5+8sknGEZtRNVw1j7ppJOuv/56HCIBxM3S4p94prRCLyw98MADXbp08SptZIRh8JiHbJaInoSEvxlhX4GwPqrImUqMqK5XyllMEwmTdFCMYUfqCdkbzb/ooouuueaaFi1afP3115GZcfqh3hnwD1bsK2w2kOl/GB2aIItIU9yTpW4hKhSbp+VCvOJOPINPiagQgY0/QSDYBP8S0I8VnhFjyPz555+rCFU84miFChWYeYSxDCW2nFCKmK/wQ6VCFSBLT6gXZKqvplF50Oxu3bqF4hrt27cvFc9ohKhq1aoJHmogOV18sTLTqmJ1NxqpELYi0CmnnHLGGWecdtppSnJVM4aYx8SBAwcOHz48ZlE4IQQfSZl8rXLlyqHQNWvWPPLII08//fSzzz77xBNPPPnkkyVHYlv37t0laBZSWjVp0oRUWSwMe2Bysd+sPyHhb0ax2w21Z4+edDu+FzNy5MiJRb/5H6rLYMP0xBsZmwTr/PPPP/bYY+OjNsUKDibGlAyrrLLKuuuuqzF69OisZIFPP/1UxLJi/GApDN9CxTYbEAlCgGKxCRwNndFvevSABDEIin+NDxPhU2OdddZRZmELMVQM3BimzUaMqV+//iOPPPL44497durU6aGHHurYseNee+1liKUH8Vz5JJQK5iv8UMRwvsXpEhUEr1Fic/e77747f33//fdz8bfddtsRRxzB3ZvC0YdGzhUq6+BQrBb16tU75JBDzLrwwguPOuoohYvE7ZJLLmnfvv3gwYMRZKov2h1wwAExZN1XXnlFkNPjKff5z3/+Q+eIcfjhh6tsFFJywBtuuIE5mbtq/tcU2JVi6MYbb1StW06kYZxRw9H7iJGK+uOOO+7uu+/Ofp02IeEvRZbnFYO5hftmNcyqUaNGqvxBgwap3akx1e3cuTPni4B/z0y1BKpXr77hhhtqvPDCCzfddNPYsWOZ3ieffKLoFwZ4cJzxpO0R1fr379+hQwcWUbdu3e22205PRCY2CBpAqhDMM9ZdaaWVIvmTIPbu3XtK/ne6SVUceAJSUhvRYJ5du3bVwIFgzzzzzMorrxxf7CZhTMwW4nw8dWo4q1133XX55ZcfMWLE+PHjt9lmm5122klCSdrGjRtHZMIh5oLXhIUChQv5VdDs+E6zyoMaRWefPn3i016KEj0DBgzYf//9w2yiVFcPaSjGM5o5wWDiR0riR6ErD0W0ACYAGMqAkqUZFYTiKzTxU5wYBRHlrLPOyoRUhmNSGJsN2V98KcgW7Cg6ia1aiq/byRBfffXV4CCNUooFjVLsnXfeif6EhL8UVDRSH4lXoWvWLA5aD7ce329Woxx88MGihZ4GDRrss88+kVEB04tfYJgrXn755S222AKZuoGDljhuueWW1113nQDGdqRxzAHPnXfeWZs5oNx4443vvffemH7zzTfrERWeffbZ6FGp8Pg69957b0anR04Zpkc8FdVpp50mXxw6dGiY7RVXXBETA6+99lr8KKhSpUrHHHOMjYRP2G+//YRABLzBnnvuqWePPfaIL14TzCuD7devn1diI9Yj79x8883VfM2aNdtqq61OOeUUuSYC0ZQvst8uXbp4TVgYMF//6gH/HnlQq1ataHkEGBnKqFGjqEubNm04dD00XsYRPx2lrLRZ0JJhUUT6lH0/rQQI8eWXXyrqW7ZsGR8mBKjR9ttvT71o+eqrr871S2oYW9OmTYUcKkj1JW777rsv+1xrrbXwad68+RlnnIHG3GAiBZNYNWzYkCWvscYaVtl6661VOUxOyU9sr6ussgqllNldfPHFUi0J3frrr88g40ev8sSISWItCXfccUdJVjBPSPjrwIk/99xz3377LYcbXzeFXr168dS0/bDDDvOk3qKImMEFK19EI0WAbImX577btm0bv9IwJ2g4nmKGcuHjjz+OLyPoYSxsRwHE5IcPH/7BBx+89957htj1VVddxb4irbSWACY+/ec//8FKD6vRM2zYMHZEBjWZqMNkMGGkkydPZoA2YjvMNmIVq8zLkoP4RGxOxkbeffddtZe5Asw555wTMZgPsXFyMka2qUoTgFFaPYIuYYjNqIcMGYKMJLYm8Cj11EA8xkcffdStWzdkolTInFDqmN+/96PYV33z1Fmpoeb94osvhCIqHgEpg6FcZCtbVvksOBlVQ0T9NCdQqvqVxqJX1NclQLOnTZumwe9nHyIzAJx79ux56qmnXn311abLj2hqcSVUDMGS/J6sK2MS0PnVV1+JQPEtIDZA4CjsMhAAirefkPCXQoLF4dLGHXbYIXOXHOsrr7yyzjrrSO0zVfzmm28Eid69e8ve+NbLLruM165Zs+ZLL70U/4zIvCDtGzBgwMiRI3GQiok9lStXDltmUP379xd+DOkUmYpTw3HjxmHOZHbZZRdGoYcV9+nTB33t2rXFlcyQZahCpl3Uq1dPv/BD/vHjx0vj4sdIxRBxWbQnzvgoyESLGGKkH374oeBUrVo1NQ3fQnLhx1HIILOvUPM8gwcPHjhwoJCMiYxTsbX22mvbFP+QyZzViAmliwX55+ZcPDMQA+L3ihW5N910k/RHIXzjjTcWq++fh9RGpcLkjj766Pbt22dqmpCwSIGf5XOzipy5sQhxS6Ui54uMKiFh4cSCDD933XXX8ccfL2+KH5bEl+432mijW265Jf7tgAUIJXbr1q2lOQcddNCtt96aPhBLWAQxffr0Bx544PXXX69ateqGG26oiH/wwQfjh7LXXXddmzZt4rOyhISFE/P1zbf5hAp9//33Vx3Hx9AaBx988D333LPAYw+IN8qpcuXKVa5ceYlf/gPACQmLCH744Yf+/fs/9thjl112mTzshBNOEHtYxOmnn77ffvul2JOwkGNBVj8wZcqUcePGTZo0qUyZMgr/ddddt8RX1xYU1FgjRoz48ssv5X3xxYeEhEUNrECq9/7773/wwQfxten4ck2dOnXS5wEJCz8WcPhJSEj4+zFz5szvv/9+8cUXTz8ETfgHIYWfhISEhIRSwIL82U9CQkJCQsJ8IoWfhISEhIRSQAo/CQkJCQmlgBR+EhISEhJKASn8JCQkJCSUAlL4SUhISEgoBSzs4Sd9LzwhISHhX4mF+vd+hg8f/sQTT6y11lqtWrVK/3hiQkJCwr8JC2/1Iy4++eSTZ5999gUXXPDRRx8VehMSEhIS/hVYqD98m5n/q71lypT5Of+HdRMSEhIS/jVYeMOPqBP/bKIGRGdCQkJCwr8D8xt+fvzxx59++qnwMh8orlf+cO0S1Q/8mT+p8MMPP8QfSy2GvZT4oRey6dOnF14SEhISEv5ilL3wwgsLzXlDGOjUqVPXrl0rVKjAcT/22GMPPPDAkCFDVlxxxdVXX724NOHE33nnnXvvvRfNV199tdxyy3Xv3v2hhx5aYYUV1llnnQLRHBDb3njjjbvvvvuZZ54ZPHgwJmuttZaQ8+abb7766quWaNGihRDSoUOHl19+eckllyxfvnyJgDR27FjiWahz586jRo1addVVV155ZYKJfC+99NJtt902adKk6tWrm4t4zJgxt99++8CBA6tVqxb/QvDHH3+M+fvvv6+HqHmWCQkJCQl/JRQBv4mpU6futttuyy677B577LH99ttnf8h9k0026datW4Fo1qxvv/1WMIu//c71L7300ptttpmog/6CCy4oEM2Br7/++vzzz49oEeGhcePGn3zyiaGLL77YKw5WF3JySy62GP5nn312lC8gNIpJ2267rSELRSzceOON77jjDjRGzz33XD21a9d+++230QtIt9xyi72sscYaL774oh5kl1xyiYlo+vXrl+eakJCQkPDXYr4+fFOdlC1b9rvvvlOdfPDBB/vss8+BBx4oYAwYMOCuu+4aNmwYGo5eSXHjjTdOmTJFiOLQd9ppp0GDBn322Wc8PgSrOaE8uv7667/55ptDDz30iiuuaNeuHf6YGyKfJw4iR926ddu2bbveeuvhr/bSEx/N9ezZ86STTsKkTp06gp+IteWWWyqhLr300qefflpA0l+uXDn1Tf/+/dErg/r06WMvEyZMeO+99/RoG7IW5ukv1yUkJCT8TcgHod8Aj7/vvvsiXnvttcUb0eiHH37g6Jdaaqnll1/+3nvvRTN8+HCOHk3Lli0///xzPRMnThQP0IBaJPj07dt34MCBwlLv3r3FFZ1qEbOUI1GdZBCxrrrqKkOqqDPPPFORpLNjx46VK1cWC0844QQRS7115JFHoqlZs6a4GBNHjBixyy676FRFoYEWLVp4Pf744/F88803N9poIyIpd1q1aqX0+eqrr7bZZhuB6tprrw0OCQkJCQl/Neb3qwfctOcmm2wiDi2xxBJLLrlks2bN1CgCgOrBUL9+/UaOHLnccsvtt99+opSe1VZbjX9fccUVlSnxI5bOnTsbxeE/eShQpk2btummm4oomJx33nk33XTT+++/H6WS8ICbxpprrrn33nvHr52KE1tttRWGY8aMIYNI89prr+lXMCmPNGCDDTZAo6EsExQJEENev//++w8//NCsLbbYonz58gLe2LFjBcVRo0atscYam222WZ5BQkJCQsJfjvkKPyKBikdjlVVWyX7woyiJH9XEj1smTJgwY8YMPn311VfPjxegUhHlYvrUqVO5fiFB3YN+8uTJerbccst27drx/gKJmubggw++//77VVfoI+apVLJF86XUUhp6NCZNmiR4eM1+MhSIb2xj8sUXX2iojfRY2uvQoUNFsrZt26qNvPbq1UvgHDduXI0aNTbeeOP87ISEhISEvxzzFX7Ej4gx0Y6G2FDcLxoJCYoYFUb0BNCoZhRJ2q1bt+7Wrdsrr7zStWvXl1566YorrhCr1FLHHnvsvffee/zxx2+44YaDBg26+OKL1Sjo46c7pkccAsTiWbRxXnbZZSMaffPNN9EZiIlZ/SS0iE+jR4+29MCBAytUqKB022677YRPMe+dd94RHYUoITA/OyEhISHhL8f8fvgW4Naz8KO2EBW4+IhA66677sorr6yeiJ/nB3h80SijWXvttZs0abL11lvXr19/q622qlKlStRPQsiuu+564403CkLrrLPOqFGjVCr6Y1YJRCgyhHOlSpWiZOnRo8eXX36ZH88R4KAhzFSrVk2jYsWKah2NO+64o0+fPsQQacSkcuXKdenSRUQU1YSf3OSEhISEhL8F8xV+FAfx8xjFTRQWoBEFUHywtskmmzRq1EijQ4cOt91224ABA26//fYzzjhDXcK5Z7PmxJAhQ+6+++633357+PDhip6pU6fqVNZ4BmdLZNMJEIWUoenTpwsw++yzjxJHFLn00ktN/+CDDy666CJhTOdxxx0X32RTY+2www6C3Lvvvovb5ptvTqTq1auLf2PHju3Xr1/dunXjexMJCQkJCX8P5vfDN9BQ8UQDeHBtYSlig3rihBNOUGR8/vnnxxxzjFB07LHHqn6UKYvnEbPmxJNPPnn44Ydvt912qiIThZ/mzZtvuummhiLmCTPZB3rZcjNmzIjRPffcU5ATYG666aYGDRrEd74t2q5du4MOOig/KQe1Tnx5QSMqIZVT/LYQ7LzzzukHPwkJCQl/J+brXz0QaYYNGzZhwoTddtuNf4+fvqg/+vbty6cfcMAB66+/vp7KlSvXrl17+eWXFxtWW2010UhsUNYIHi1btsy+mTYnVFF4LrnkkkqoI4444sQTT6xataoQ8uWXXw4ePNjEvfbaC0OUJFEkffHFF7vvvnuTJk28rrDCCltssYWJ5MFklVVWEclOPfVUUpUrVy74A6niyw7xvbv4iZHpaq9q1aqJlPExXUJCQkLC34P5/Xs/Y8eOnThxYsWKFbMvtnH3I0aM8OS447OyDCIEz77eeuu9++67O+6443ffffdop0db7tWyMDwH1Dfjxo0TpQSPChUqFHoXW+zrr79WP6244orxuz7R+dlnnwlL6667bomv2E2bNo2Qgtbaa69tSqG3COT/5JNPqlSpkn3FQDGnR2WG/9JLLx2dCQkJCQl/Axbkn5sbM2aMIkmZsvHGG8+cObNLly5XXHGFCqlp06Y333xz9erVC3QJCQkJCYs8FmT46dix4ymnnPLzzz/Hz1H69+//zTffKGhuv/32Vq1a/cqPfxISEhISFjUsyJBQuXLlGjVqfP/9973yUADtvPPOd999d4o9CQkJCQklsCCrn/iFm6FDh3766afizRprrFG3bt0qVaoUhhMSEhISEmZjQYafhISEhISE+UT6TCwhISEhoRSQwk9CQkJCQikghZ+EhISEhFJACj8JCQkJCaWAFH4SEhISEkoBKfwkJCQkJJQCUvhJSEhISCgFpPCTkJCQkFAKSOEnISEhIaEU8A/4Vw++/PLLXr16rbnmmptvvnn8ce6EhISEhH86Fvbq5/vvv7/88stbtmx56qmnDhs2rNCbkJCQkPAPx8IefhRnyy677BprrOH5448/FnoTEhISEv7hmN8P337++ee/6I8m/PDDD2SY84+NWrFMHpMmTerdu/fKK6+8xRZb/OaHb2bNnDlzTjKrxB/YzvDTTz8tscQShZeEhISEhL8XZS+88MJCc97g01944YWePXtWqlRJEOrevXvnzp1HjhypKJnzz1oPGTLk8ccf79KlC8rVV1994MCBTz311AorrJD9ietifP3110888US3bt1WXXXVNddcs9C72GK9evW6//77BZL11ltvypQpQ4cOXW655aye/clt6Nev33PPPff2229///33mEfI+fTTTx955JFBgwYhNkWPwPP888/36NGjYsWKIa0qSg8y4pUvXz7HKyEhISHhb4bK4zcxbdq0vfbai6c+4YQTjj766HDZq622WtOmTdUlBaI87rnnntq1a0ckEAAOOOCAOnXqiD3XXXddgeKXGDFixI477ihOoBw/fnx0TpgwoWXLlqLXWWedJXhcccUV4kSrVq0QB8G333578cUXV69eXfmiPBJX9t9/f3HOkDBTdYOqgtntt98exK+//nrdunXFpw4dOghUesStjTfe2MS77roraBISEhIS/mbM1+dp3+Xx5Zdf3nrrrXfffXflypW323a7SZMmvfzyyx07dvz888+DTNFz+umn9+/ff8MNNzzssMNWWmmlBx98kK8XvSZOnBg0JbDWWmvVqFFDOHnyyScHDBigR7wRMFRaSq4NNthAz5gxY0wfNWqUUskrockg/FhXUDzwwAMFkocffviqq66aPn06hksuteTkyZPfe++94Pbaa6+RQUhTwH3xxRc6vQ4ePHiZZZYRpbwmJCQkJPz9mN8f54glnlz2GWec8cwzzzz08ENHHXUUv//YY48JFYaEh5tuukmc2H777cWkm2++uVOnTkqlsnmICmh++uknQUsUEZA0ZsyYsfzyy++6664KKeFt6NChaAw999xzKqGdd95ZxWNu/IRGaLGcxvPPP3/eeedVrVpVofPoo4/ef//9vXr12mKLLZ566ilxa/31199ll12QjR071nLYjhw5Mn6MJLzpNPTRRx957rTTTltvvbVGQkJCQsLfj/kKP4svvjgPrrHZZpuddNJJa6+9doUKFQ444ABhQ7wRSAwpej788EOhYr/99tt0002XXXbZWrVqtW3bduWVV+b6y5Urh6Zr164HHXSQziOPPHL//fe/+uqrBZV69eptueWWRvv06eMpOA0ZMsRyIoq5M2fO1AliSXym984773z11VeGRKZP8hBjvE6dOlUgJGqDBg2WW265ESNGqHWIpwxad911cVMADR8+PAISPo0bN57rj6MSEhISEv4GzFf4EQx++OEHDTWQAig6V1hhhaWWWiqrTjj377//ftVVV41CJyBgiAcayDzVH926dXv66afVTK+++urbb7/92WeflS9ffrfddkPQu3fvL7/8Ep8xY8YIV/Xr1zdF6IovxVkrwk9Eu3fffbdhw4Ybb7xxnTp1UL788ss6I67UrFlTXMFEOQU6Ue6zzz4kHz16tBUHDhyo6kKGOCEhISGhVDBf4Sd+TKQhSEQDxKRoxzO+BaAd8SagZNGjgvnmm2+87rHHHh06dLj99tvvuOMOz7PPPlsVpX+bbbYRMNQrYtJbb701fvz4Zs2abb/99oZwi4CXrYunp0DYqFGjHXfcUeypW7fuzjvv3Lx5c6/IqlWrJrSIhT169HjppZes3qRJkz333FMYUwm9+uprYlLlypWURMEwISEhIeHvx3yFn6hdIGJMtIUfiJDjVSBRskyZMmXUqFFBAF6jbIrP0BQrRxxxRNu2bQ877DBPUSe+CS0S1KpV68cff7ztttsURnqaNm2qQNHIwo9wEr92quryrFGjRseOHRVSnTt3fuqpp5544olOnTq1adOGPIokC6HpkofAFt98W3nlldVbd911J55bbdUofeU6ISEhoRQxX+GHTweNrAQJRASKqLDpppvWq1dPaaK+6dat29SpU7n+Sy65ZNq0aaJXlCzzgoiidhFm1CsKlCpVqmy22WYxZMUIYGKGCKTRuHHjypUrDx48uH379v369cP522+//eKLL0iy7LLL5icttvnmm6+//voffvjhyJEj0WMocOqcNGnS+++/L/AohkSjIE5ISEhI+PsxX+En+/n/5MmTIwaAzsD06dO9Ki8OOeQQZcegQYNat24tfihx3nzzTVFB6EIWs+YKBDvuuGOULOiFIgEmhsQ2i2osvfTSEYdatGhx4oknimpXXnlls2bN4psLCqmTTjpp9OjR+UmL6dlqq60sinPDhg1XW2215ZZbbocddoifS6255pqKreIPCRMSEhIS/mbMlwtefvnl11tvvRVXXFGEyP51HKWGCqNChQpVq1aNnpYtW1566aWCB7//2WefCQCnnnpqfFYWz19BzZo1VSSWELf233//7DdyVE6WXmmllQSk1VdfXQ8BjjzyyDvuuGO33XZTG1koSh8lTvZPMJiy3XbbmVW7dm1RJ1e7lSmjZ+utt0YjgFWsWDEoExISEhJKBfP7b77179//o48+UjREjQJff/31W2+99dNPPzVq1CgCQ4YePXoIEkqQ3r1777TTTlOnTn3ooYf222+/wvA8IJBgqIoSt7KP0eDTTz/t06ePgFS/fv34d3QCEydOHD58+Pjx45dYYgmxp3r16vHVuMC4ceN69uxJMNVP1k8wsUqplH7wk5CQkFC6WJB/72fSpElffvml8kJJJCwJV9ddd13Hjh3jawLxyz0JCQkJCQmwIMPP/ffff+WVV66yyirrrbfejz/++P77748cObJs2bI333zzoYcemn1ql5CQkJCQsCDDz3PPPXf22WcPHDiw8J7/CsA+++xzxBFHxL96kJCQkJCQEFiQ4WfGjBlDhw7t06fPxx9/vPjii1eoUKFx48a1a9cuDCckJCQkJMzGggw/GX766acyZcpkv6yakJCQkJBQAn9J+ElISEhISPh1pF+9TEhISEgoBaTwk5BQypiVR+ElIWGRQQo/CaWM5HnjX+UovCQk/PVYSIwu/ewnISEhIaEUkKqfhISEhIRSQAo/CQkJCQmlgBR+EhISEhJKASn8JCQkJCSUAlL4SUhISEgoBaTwk5CQkJBQCkjhJyEhISGhFJDCT0JCQkJCKSCFn4SEhISEUkAKPwkJCQkJpYAUfhISEhISSgEp/CQkJCQklAJS+ElISEhIKAWk8JOQkJCQUApI4SchISEhoRSQwk9CQkJCQikghZ+EhISEhFJACj8JCQkJCaWAFH4SEhISEkoBKfwkJCQkJJQCUvhJSEhISCgFpPCTkJCQkFAKSOEnISEhIaEUkMJPQkJCQkIpIIWfhISEhIRSQAo/CQkJCQmlgBR+EhISEhJKASn8JCQkJCSUAlL4SUhISEgoBaTwk5CQkJBQCkjhJyEhISGhFJDCT0JCQkJCKSCFn4SEhISEUkCZWbNmFZqzMW3atJkzZ2oYKpNH9P8xzMl/riheZT6nLCTIJP9nib2QwOk5t7Jlyy633HKLL76IJkPff//9jBkz4igKXQkJfyVo2rLLLrv00ksX3ksJJTXe68SJE3/88cfMGIoDQ8LfCef/7z782ODPP/+85JJLrrbaaoJQYWARw/Tp07/55puwuH/9pSeUIkK7PBndyiuvvMIKKxQGSglzSbgmT578008/hZSFrgWB+TeqbN15yfCH7bOYczR+HfNzAhmrEsS/S8g5F5oXW4ih6P9dq2TIeP6x6X8eIYCniifCD2NYZKuf7777burUqcXXmvAXwSEXK/+idtr2m+16xRVXXG655aK/tDCXC5g0aVJx+Amr+MP49QuOVTyLV+GPil9z8PZLNhlblL++RKCYLGv/5tySYsxjSkZWPDSfSwSKF0LvNeuZ6/SgmR/OCzPIn4WfVVZZJYUfBxJ3+i+43BLI9LkEsp3+dfuNJUKA7HiL2yUa/2Jk58DoypUrV+rhZ54GT9C4jGj8YQS3eSEIgjJDsXKA1zIFh5xD8RAUt38Fc50yn3MDJZbOhAnoLx6KBmSdv4l5zcr6c+vNliEQ/f9oZBv5d2znjyEOAUq0/2UIBS6BwthfiTjMeBYvqiHjyY76X3nmc0XxgZQu5hLw48M3DUPZVf3VyGtFIUmJjBhCOXLfgyDjbEGWWGKJsmXLFiT038//G/p14Fxo5TE/p2+K1cGKMnSNkMozI/AakusMnl6j32v0/CYyDhYy0UKeSy+9tM4ff/wxzyZ/DosthiBeTYm5/1zELux6qaWWSh++xYWGav0LLjdQJv9fwHVnhpMpcKg6o47O/OCCxmzvYcVYKLyHNnnCrBYRxLF7wkorrbTwVj9/M+JEihtxTKGai5fNuXht0MkjF/R4tmL9DyLSbBR68jyjgUmgmCDagegB7bCbWEjsibCXNTAhjGfEpOjRMLrsssua8sMPP+SY5DtzHGG2bIXXIkRnEEdb7FlxxRWXX355phImamluGv8yuWVzW8hPzSHHdDYKXcX45brRxiFeExL+QpTJWRCEAudseQ6EMgcKs/IodM2jEwpdeRS6fqnkOf+QN6t8X8G+GFSQaXiNobn6jYS/Gr/wYoFSqX4CdLHYm/O2XHB0hpqi+eabb77//nuvOaUu+ilRNEpux9vsHSDANiZGylOCGIEeKOYZS5hIGMmCRgwByhkzZkhdM4VGI2B4kvDrr78OVsUMA8E2Gp4xl2V6YrXkEkvO+H7G0KFDJ0yYUL58+UqVKsV3VEIME6dMmYIMvYlgRxmT+Ufx0qUFq8dROLFU/cSNFCvGPx3ul5baEXOLXKowMPvqNex9+vTpsWvQaQgog2d0/hqQzHFUwaTwkkemWhYyFH5AI/xACcw5/V8D+8pOeGGofuZy0KUbfugHaFARVc63337LMnl5ikKVFRaObNVVV1UccPEqjExXQsNKbifeyuT6MWQA+ND4fO//ELOyi8l2rQGmEEnDcoQx3dKEWWaZZVbJwxQmpAflwIEDJ02aVK9evQoVKhDbSYail2CLYcY/mHtFoy3SjBw58uyzz37ttdf23HPP888/f8MNN/z888/79u3LhmvUqGGhYBuzsrnRmCuMFlp5FFPmJPvbLzoQ69pyCj//yvBjL+zU5bKOCRMmStVC2cAG48mWy5Urp404VFrDa1hNgdGvAMkvj2rOudGDsyd5FGEMk2+JZI4pxWlnU0K2aP/LYF+xO0jhpyRCb+gElYVXXnnlvvvuGzNmTAQhwvC/G2ywwaabbrrjjjtusskm6KlRzC3eSCZ5nLUnUDvhgSVoC2P2aIgKxopYBb2nV88YioZIM2LEiDvvvLN3795ijwBjaPXVV69evfrOO+/cvHlzQQiZ0dNPP12cOOaYY0455RSrBKuAKfjHM16j3+vPM/P/5Q2PQX700UdHH330e++917Rp07vuumuNNda4+uqrO3bsuOaaa+K8xx57EJ4JiUPBJBgWPzPmUNyO0awxL7K/B1YkRlx3Cj9xI6Ew2TX9Q5HthdExDcnTjTfe+Prrr9Nbm2WG7trTaJs2bY499lgNJ8CCwgPM+nlWcVAJPYFQ0XjGEtFpoRLKk9FEI5ajZnwuZ8LFsR2hKCiDVVAGson/MsRmPSH97Kck4lwcEOWAoUOHPv300x988MGoUaMorkgzevToLl26XHLJJWqCzp07h8qG1zbdRBomVPD7ETwMlVksx03MeP7550899dRnnnkmPh/DjUaagpL2R1qEXmesnpclB20MhRz28+6776pvonPIkCFPPPHExRdffM8993z11Vd4Ko8mTpxorS+++II8lB5b8ljCqycaPRaNqImJpxV/mpn7MI1gRtFEP2S7w9/enQPrxRaBIknamNmVuRaKiehjeqiafdGzOBOdyEIko16z00tIWFAIjQoF05YqsRq2IzOjw19++eXYsWPZiIZ0kCrSXvkHtTQlNysfeyhtfDk4tJqielL4MCKNsFadOKCh4Z7RYxaeXoMhYM42b7nllhNOOEFeawgHlIBPsAXGoh1TCp+dJPxlKHvhhRcWmrPBwcVNQ+4O/i5Q01hOgx5o09eXX36ZVh111FGKid12261x48YUa9y4ceqDXr16VahQYbPNNqNwoGjgkRFTzXDiIpb+sovn/kGXQYMGtWvX7rXXXlt33XX33ntvBJIga4XeI6Cd5polMBAgkJcrp/H0W/XTtWtXGrztttueffbZrVu3rlWrFibsCnM1We3atbHFUP9//vOfqlWr4oAhthFsIlpooAmZ4xVzlASIfIRhCKsCm22qrrbaaqtKlSqptOxum222UWyFlWJillCnYSiExA1bo2DU0+pKxvyRLI3AmRBJ26hbDgTlXD9G/6sRchIsNlXoXcTgUuJjZG2n4fkvOIrYArWkb5KnV199VTZZvnz5I444olWrVjR5u+22a9as2dZbb62mD+0NtQxjiVe24HAg9ERsUEuFtWo7tNB29HrCeLHiCryaq9/cn2fmPgNcYfkVPuz34Zlnnvnmm29WWbfK3vvsjSaM3SgnwFL0eGLIrHDmOv4115Eh24tdO8NolxYWovADsZync3Hx7733nvDDKSvP99hjjxo1atSrV2/77benJe+//74KmpuuU6dO5cqVzZo2bZowQMtVS2PGjKGLVCrvXH/+9NNPO3bs+NJLL+GJm6cookHvp0yZoojp2bNnnz59zKL09JvmhcaHPDqp8scff/ziiy+qgVq0aHH88cdvuOGGjRo1ouuqMUuLgsKSBpHWXnttnAUMi5OzR48eVlxjjTWEzG7duo0cOTIsxJP2U4L47Fs++MYbb8jLYnUb/+yzz+LDvdVWW42c6NdZZx0GTEKr2I7IZy30dq0ymzBhgk2xH9yA8A7B6ODBg7G1R2sZtcqHH36ICeLc+eR/8oS5ncYsjb8NlrNoCj//7vDz9dff0Gf6v956651zzjnyyC222GLLLbdkNRRYDcQu6KdzoJYm0gdPWvrMM898/vnnbEcKFT6B+WDFxuktBdaJ0irDhg1jBcKG/FKBpc06MIy5yq8hg4d0erST2BMTzVJ+mU4A07ElQO/evRldyIwgOMd2/jWwqWgsvOGHzwopM1n/HmTLhVZF9eOYmjRpwhF/8803/DUFVWoIFcIGl12lShVplABz1llnXXHFFZ07d37++eefe+65fv36YSJIKA5uuOGGW2+9lS7ijJKu9+/fH0+cGcMll1yi1BBFQKgQDKxlbngEYAxe6TSPL27VrVt3l112EZCorIUUYTT44IMP3mijjQQb3B5//HFxCH8rXnTRRZZmYIqnK6+88pFHHhEJrCI4xc+uuF2nTeaLL7747rvvfuGFFwQ5fJiBnFFklSoqbh566CG7sClFlTJL47TTTnv77bcdyAMPPHDdddfZlLMaPXo0Cxf82BgTEixvvPFGV2yDlhBiEdx2222WcG41a9bMBZ98+IE4+azx98ByKfz8u8MPK/v6668i/NDMffbZp0KFCm4cjLKj4cOHM5NHH31UPGCwrJvq6rzqqqvuuuuu6dOnN23alImxIK8XXHDBww8/zEwoPGOUkFF4a91+++2XX345DnzCpZdeet999yF46623lEpCHSY33nQj+3LOpOIE2LLwxnWYftNNN6mK2JFox6JZ6+abb85CGRfO4FI889v6xyPbyMIQfuYZ2/PHnjv3wvvfCIvGunFS2uxTXgPUSCIjAqmB5DWU6ZNPPvEUMkUj/lpKtdNOO9Fs6kV9KTG/ttZaawkqwU1JRPtBY/z48QMGDBDVNt54Y4ooUHHQ4ofwgDhCYE6gvBUFtCVQQt0pp5xy3HHH0XJOnN7vuOOOhkgobACpEBObMShceP/LLrssajIhQVgVA8QtWRiyrl27Xn311YoSkuBG+O7du4t2GMYHCMTAhPWS1gnoQWmz8ruInQIY4dkeE+rUqZNX1ZW44rV9+/bqNguJjqpD0ciZjBs3jgWGdeEW0C5+TUhYIMjbTeE3taVlynQuXpoo3jz77LNK9ooVK4oiX3/99WuvvSYvpP8oZWCCB3oZmNgzefJk6RdDo8xspEaNGpK/66+//p577mH7TJVZsREMzz//fMkZDgykb9++QtE777zD/C3BY4SGL7vssuuvv778Tw9bw3bw4MEWql+/PjuyKDKmuniZf1vps7Bh7udbum4owk8g6yESveSOhR/uVUFAPwzRWponnPDgamfKLYXhc4Uo/po6SpGOOeYY3t8U9HvssQftV5HQPAmOWWoICiqfMmu11VYbOnSo8GMJLtty1g37CasAcQ5lFBxUXPa07bbbIiakUEez0eBjirkiX8xq3Lix5OvJJ5/cb7/9DIlhpiMQCe68807GJjEkZFRvRx99dOwOQ2yZrtUjW4mr8RQ+NYz+97//lVqSh1nqwVmAsUTPnj2FIhFRSJY2omGu8UGlw7F3NMHKMyHhL0KoWYSfKE0OP/zwo/KIbwEIP/vuu++KK67Imqgu02PjEkGRqXr16vvvv7+Q8OCDDz700EOU9qmnnjLEXm655RaVDWNhsIzFdNbKHKpWraoS6tKli1X0SLOefvrpqVOnHnvssbJGU4jRpk0bfBQ9DIHhcxHStWuvvVb8kwWee+65nIOoVvi11WQjfxl+LfyE04+evwFzrkWAQmsOGMpGZfHURf3B13O+HTt2VFbTM8XHsGHDaJ6QwO2GQ5cHSZ1ovDadU/RIixQijz32mGfwZCRm8fUsJ3oYD4SEprdt2/aAAw6oU6cOpRfwIuEyijiq+6A0PWyvfPny7dq1E/kUbYcddph1dbIuko8ePVpR4rV58+YMRjCrVasWy2R4OhHk9pmPQF6xjQa2rFSjadOmbFjW1qJFCydAZvFMqmhIWidSyhwFsyZNmjBdVte6dWtDGLLMkA3PaCQk/BUIu4g27WUgVBf0g/RIf7Vq1ZQjGqofQUj9IXf0Wrt2bTVKFEbffvvtxhtvzMYZtSjFQEQa0UX6GPrM3uVwxx9/PD3fZptt9tlnnypVqlhRfGIRTJUTQIYto2Bo8YWdcAuCjXRw4MCBONSrV0/AI2fYWk74efqhhD+FhcjvxGVnyFRWw1C4SGmRWMLJ0tH46hrPLvZMnz5dNiSH4sQPPvhg1YkQYgoEW8Thr+mZIh0fbWWTrEogadas2X/+8x8FRDhuowwg6CEEyJtMrketc/PNNz/wwAP33nuvOERN4yMvNGoUNhCzQuDYBZnlWWQwqmpRxwQB2/v888+J5JVdCZnffPNN7DGKm0yGQGbJ5opMlmOBYT/sSoAxkTyGAGf9Qp2qCB9sTVeW6cQkdzSzww9Ep2dCwgJEqFY8oVKlShdccMHdd9/doUMHBqv+aNCgAY2tUKHCDjvsgEzCNHjw4M8++4yRMpOtt95akJCosUfT1T2KITa+6667KvpHjBihMwLVMsss40nbLREfVAghoe1sIeyIlwhvwBYYGmNnAriJN2zw6quvFrEUSS+//DJ6pkQeRpF7pvjz1+DXwk+cfuHlb4Hl4r5j6dCVgFdP/WKPYlmNTHuopuSI137kkUeUIAoRCc4hhxxy6KGHym5MyYJBxA8NWkUdqR1WnTt3PvXUU2U9fP1BBx2kLpEWBX2snglQLI+22kgsqVu3rtAVZQqbIRXZQvXxjwbi4ulk0IhODTTRhqCPUQhpNfREI0Y9ixv5QJP7oqqdZtLGaEQXbJ2PZ4Sl4JPb2OxiLiHhrwNVpMkQ2igJ4+732GMPjl4g2XnnnWVdooI4oXY3+sUXX/Ts2fOVV1755JNP1Do77bSTWUJFnllOb2Vs1Fg9JD7Jt2rUqLHRRhvR7bB0C2l4amvEomQIi4gn5CXKiQQcyEUXXbTnnnuyfZFMKvl///d/zJl1RKlkVrKUvwhzDz/5+8rh7zz3bK1s6eihIhJ8uQzIkujN008/3bVrVw1pS5MmTeRKd9xxh2ikiHn88cdvu+22K664Qo2CCb0UEoItPp54litXDkP6/dRTT8W3XO6///7bb7/9vPPOq1WrVtCYFWLkpxYUN+TxlGpFBUNBo8EwrIUso9HD6YcGa0Be2wv/qpBOKRh61ZuI6FUpJqTZI4bCW9RhpgfPjK1nQHvWz7MWL5P7ZpFXxsYscbaEtchvm/qViZJEfFZaaSVixzcXAGW2u4SEvw7slHKGsmmoY4QQqh4xI28NOduRxlWrVo0OSwqffPJJisq6119/faOUmfaazjzjNyheffVVIapLly4sd++99450EAE+6IvNBLyyiGhkQzJO5iCwYb7bbrvdd999zz333AknnCBX69Gjh0SWHRnyjIkxK2HBYu7hZ6ECfZLscKPKi7ffflvxLj2R+3DcEqgNNtjg888/HzduHErqIo1SRz/22GMUSI8wE8WBoYgEH374Ya9evcaPH8+/h8oq2JVKjOTZZ5/t379/zPIKbKYYhsAswoAivUOHDvE1m5o1a5KHXZnl1aJMi9bGLE/t4Amh0xEwLA1en3/+eZnXp59++v77719//fXDhg2LicEh2tEIeC2zeO73w51PvAZzlsYI9QirEroxY8bceuutb775pvD26KOPPvHEE4biKHIckl0l/JUIHYusyyvNHDlyZPzwhq0NHDiQJTJYZGuuueZWW22Fsk+fPn379mWV22yzjVfhypAaxXQThwwZouhh9ayGxcX32eh88PdkArjF0tGJSei5RC0aipvevXtPmDCBDX788cdvvPEGy91ss83q168fuWB8Hh58Ev46zLP6KbRKA6GvnpTDqwzlyiuvlKG0bNly9913j2/3U8dLL71UFU9UIYfeoOzWrZtqXT2kjhk9erQeFQbF0lDj16lTR0Pe1KpVqzPPPHPFFVek7noEqv32269x48YCm2JID+WLoIV5JgwVD9195plnWrduTZiDDz5YzUTFd9lll7322kuEMzFcv3TMXG1O32vUHDhghTOpvBrVz34EUbYk8Jxxxhk2iFunTp0iQghynmAKegcSVxOhi6XhENyCs80aEpv1OAqsNITJQw891OuJJ54YH5TbCGkjJUxI+EtBMylz2LLYc+655x544IEU8pBDDmFBEjgGzumLDWywdu3aNJxNbbrppuJB5FIMnM1ut912zOHYY4/Vv/3223tl9WxWHsmWwy5YhLlhp99++118aodD/OioSpUq8QUHhQ6G7du3R/D444+zZZ6EUZ999tkMtmrVqltssYVZrCm4BfOEBY65h5+4v1IENaK1sp4qVdajmjTsvffek/hwmqLIMcccQ3XEjHLlyimMaCelVIOjHDBggGKIE2/evDmFRg+4SZfM2nbbbaPiHjVqlHL+sMMO23XXXc1SD/H+HLQgt0L+Txssv/zyVJ/agVft+NUBo/RSgSJ7UgZVq1bt+OOPv+yyy1Q/woAVFRxWlKCR30ZWWWUVtZQ0LYQJVgp/Bim/w9zrnnvuKfA0aNAAgbyMPHi2bduWhOYul/+qqCcbw83TK5r4CkN8WKeHnaDRDxo4OxYWfsQRR0gP1UAyRzHbBhETwznEBr0mJPxFoGkMgWLTRrqqEb8wDhRSMqT4CCVkpGKPuELnKblG/FiIubGsjTfe+KKLLtp3330p82effaZCUjxxC6Ja2BTTYAiMNOyFOSy//HIWtSI7MmSVSpUqHXXUUY0aNfIq0VT9oCSVFbmXp556Suxp2LDhWWedJbARG2dAk8zkL8JcAntcqoahOP2/B5Zz5SEPfeKgaaoynKJQTZ1cv+RFCsPFU5qoUeiZIRNV8aKCuFK9enVhZsSIEa+88oq2LIlHDv6KfYprUxxx3bp1qXL8WwZiz0YbbYQSEyWUMLPDDjtw0LnKadZiSy2d+4cIDX3wwQdim8OxKAkFFYkSkei3cocwkiyFPLHFEhqM7J133vmw74frVll3m222YQyWth31lhXRSLJYQk7Hy5QxCzGT0M8GiPrCCy+oiiJA2ppRDTFSKP3kk0/sbuLEiVtuuSUm8UOdQYMG9ejRQ7tZs2aVK1d2aFZkva+99trQoUPZHpHUVaeeeqoDvPHGG3EWQQlpdYcTJ/93woqWJgD7F00jYC+CoMn0x1Fohz5H+5+LkN/9smIKKUdkd0ySThpy0cyHvVBadifSsKAo4ql9165d6bnCnaWjjwOhIUweH1FHium4TGEdplesWNFC4gfTk/bFL2BYBQ1DE+FUS1tvvTUO4V4swZQ0Nt98c1ENmR6yWahChQrySOsa9YqeANq5Lf0rYC9OxhMcYITqUsRCFH4gVgw35PqdjpCTO6p8ZAoasgG/6YkYIjhFNaBhIp9rChUXP+JjXGSRB8UUNFQZTzrtFWVwNssrwzCKrSlegydDsgTKoNEJaJgNhLICGdibnuAvj/P64w8/Tps+DU3M1YnMKuowouJppxBigDCG0kRTXIceyR1hYjmbMupkWJTdBTG29oKzNotyPno8vQpXwVbF9t///pehssbrr7+e7SHAM9sO4mj8PQix7TGFn39Z+AGX60Ljfj1pplvWrw1BE/qcN+hcSocAcla0+OJR9ASlUU8mQ+czGwmYFZ8/sw76b1EqzbJiaWFMPxqGpjNomFWwdezmotEZ3IBIYftoMnP4m+3ir0NYnCek8FMSsWKoDhk0IqLoj8742YZOPSFkBnpJd/WHd/YqYJjy3bffzfw5F0gyGroVNLFWcKOjNB6N17AKo8GE4urJm0bOfnRaOozKM8TQ9lQqlV0i988ToKfcOrX1/Dwzxzz46KTxWFkUDQFCZmxZFx7a2HpFaYgknhQlVg9zDSbm4oBevza7Iq22VTzZ4R133PH0009vuummtWvXVm+p8wYPHozmggsuOOmkkywhdIXklsiefxssZ3WbdTsR2gsDixj+leEnEPcbVuapnV26V6C9oc/6KUAGxgIIMIlZMVEPBfb0ai5V19ZvSkSaMDENE8Nk9ISRaphFEhw08PeMJfTggCCcgM5YVPvfBDuKo4Z/bfj5Y7NKwOqZBniGkunRoCvZIUJGDwgMIbAFr6GRGno0dJoeZIaCibnUzjP0L3q0Qy9jUZ1ZQz8y7UySbHWN6DddI+tHo1MPBJlXnRCULCE6YwrZLMG6ELCWPI/CNmNikGXcPKPfrODJ8ISWa6+9tn379jELscaGG2649957H3zwweuuu27kiToh4xOvfwwh2G8iW0XDFIKl8PNvDT/FGqUdu4u2PYbCg3a8UmAIs0LsGQSZqmhAcadZwSeUmebrjCGswuR1mus1ZoGG/lC58BVeZy02q8xiv5AqKBdmELLQmg/YTmzKaSyk4WfSpEnuQyNkjc7fBbNik9lrNH4XzKIHmb5mCM5z7Y8hz0LXbCCOzozAMxo5nZvjBDIC7XjqgfxgSQRlEGTEnsWLBlnWDmijCbJAYSA/lNEjyPjr0Y4pmZHEZXkNgowMhg0b1qNHj4+GfjRpwiRhrOI6Fbfddtsdd9xRnST25Bcv2HM2y/MPI5hkKPEaiOWiHRvx5B1Wyf+52Ohf1OAusvAT5zPXo/tnIXYR23Gz0c796wFz21luqEhhokEx4jVDWCsEgUb0oMz986D52fnx/9lLrBidYSMa8xIDcqP/KGR+ICQv7HoeQBMn4MT+zR++FU/MPOMfQLF4xUziBAsvecRoqGO0oxGUGtEZPRrFnYFox6h2TNTOeMZQvGY0gegEnWAUsiWyIWT6tT29Rjteoyc6A9EfBDEE8QraxWTxmicp9EcN5FVyHZ/gLZv/eiup9HiVY8oHY/oCQbZ0wGZL9IDVIWsj8CRnqn7irFwHaGf3Eq/R/gchxI6NhPwaEKOB6C9uQEY/JzLNyZBxLm5EO5Bbcg6GejzDGAMZ52z6nLMWTpQQcq5GlyE25cnwV1xxRQ6hMFBK+J+WZ1D9KGNDyj9zAebG9D/MZ07ZAhnbeJ0r0GTr/jplhmLirB18csO/E/MzcV6r/OFFi4GJABMR6If8dzF0SixoHkdPTZlcsT2HGIWXP4QS0+fKzSoBo/Ekw5L5v2K5iFc/GnEm2eFAEPwTkd1v4X22ZUWjxGgJMq/FPQH9gcL7PBSseG5GHz3Z3GhknjpPlYN2fnZhetZYmFEspLZd/IrYMerJCWRfUi9F5EQpNGdj4sSJwo+7ye4j+ucfscNocy7av4sV4oxyrhOj8/fiDzCZT4HnRPEW5oViGo1ieeZn+q8juLlE0IgwE3eBs7AUNMWrlJDh9yL3DzDMZoZPhkJXHsVLRDvULIWf4vATnRDtP3kvpYV5iR392eicZHoKrV+ieFYgKLOe7HVODiVmxWsJsmIaKB6dk+HCg5CN8MWIoTmRDXEFLC6+61SKKHn38PXXX+skX6TJhd7fj9wxzIbXOW89XudEdqAl2sXImMwn/hiHeUm4kMPWQnLXV3yDWRBysxpcv9HsnLNZfx74ZCh05ZEtkTUEQgUZMRbxD9/AdUR+kDUKwwmlDepaaC3EoDAZCl2zDS2TXztM/ocfflD9LIzhh2ScQhjAnz/3BcIk4XchO3PPqH4yGCp2bX/p1cx59VlPJkC4WlAAlRB10UF82TdLBQLF7YSEPwl2FxoVBhilRXwKUoqYS/hJSEj4OyH6LrKhN2FRRgo/CQkJCQmlgJRzJSQkJCSUAlL4SUhISEgoBaTwk5CQkJBQClgows/M/L9vVnj5izEr/494Fl4SEhLmwA8//PBt/g8B/wH8lP9DiIWXhIRfRemHn5EjRx577LEHHnhgjx49Cl3zwJ9Xa7bx6KOPtmnTJv7QYaE3ISFhNvr169e2bdsTTjhhwIABha78v8I+P99R+uijj84666yTTz65T58+ha6EhHmj9MPPxx9//Nhjjz3++OPvvvtuoWsOTJky5ZZbbmnXrt0rr7wSvzL5xyCtw6Fz585PPvlk/EXqhISEYvTv3/+RRx655557xCGvkydPvv32248//ngm85v53/Dhw++44w6m+t577xW6EhLmjdIPP2XKlFlq9t+hip45Iau69tprqbVAFX9+7Y/h59l/nmdR/iXHhIRfQdhj9hn1mDFjrr/++jvvvPPZZ58dN25c0MwLYcjmhpUlJPw6ForwE5HgV+LBeuut17p1653yWHXVVQu9vx9l8/8ItMavhLqEhEUZbIQlekrRvFasWPHQQw9t1arVLrvsstZaawXNvGDiEvk/1ZNyu4T5wfxqyYQJE7744ovCy2KLffnll7/y4dWkSZM+/fTTaP/www8mfpf/i9fzQnysvPTsP5WN/uuvv86PFEDvlf+nnXZas2bNGIYeDJFlSdbEiRNJGO05IY9DoLFs/o/valhlfj7LTkgoLfz44480/KuvvorX6dOnKz5+paowyu6iPW3aNBZKyeP112EJE0tYHMS/yLLGGmuceOKJZ555ZtOmTSN1K8Y333wzefJkrqDEWsXG9fnnn3/yySdEKrwnJMxG2QsvvLDQnDe+//77a6+99rHHHitfvjyTUIx36NDh7bffluOss846xUo5duzYhx9++JprrvEcNWrUMsss07lz55tuukn82GCDDQpEv8To0aOfeuop2tmoUSNxwkIq/Z49e2K+2mqrxT8JzpY6duz4+uuviz01atSg3I8//nj79u3LlSun59Zbb73xxhu7devGRCVrxX+5nXm8+OKL1113nen9+vUbP358r169hg4duv7667ds2dL0Al1CwkKGESNGXH755e+++y7DobTnn38+Axw8eLAsbd111y0Q5dG/f/9bbrnlhhtueOaZZ+I7Akzjueeeq1+//korrVQgmgMzZ87s0aPHPffcc/vtt7OmLl26MKWaNWtaFx/Bj4HUrl1bZLrvvvv0qGmqVasWMcncQYMGmcgPmGtUDNtss82YPyGlhi1atNhiiy0I8/TTT5Oc5ZrLV8TSCQkFUNbfhNJhp512on8bb7xx1apVCzPzhTnVLBDNmiXeHHbYYVHEBCpXrhwGIMgViObASy+9tPbaa6OpXr06+vy8HIS6k08+Of757d69e2+44YYEOO6446i+WNWmTRs0devWbdiwYdDDKqus0q5du6lTpwZnZnDOOeesueaaheHFFiPMiiuuqLH99tsLe0GWkLAQgsuuUKGCep0fZwuhwLD55puLSQWiWbPee++9rbbaqjCW/+kLR89S5G1vvfVWgWgO/PDDD5LCSpUqFablceSRRxp64YUXIqt78MEHvUraatWqZfSYY45Rx+Rnz5LSMb2YFWjevLnc0YpSRqvfddddyJ599llbMLrbbrsNGTIk5iYkZJivD98UIiussAJqyRf3LbdSo4gWkp077rhDbEAjKqhC7r//fsSCjXzt4osvlv6oP6jjr3wWjCY+UlChS6BeeeUViZvwoOKRXsmeDClo2AMBPLFS6esR5/r27Tt8+HDplYLJlClTpjzxxBPdu3fPM17sySefvPnmm1U8rVu3ZjCdOnXadNNN4w+rkDb9dDRhYQY9BymUYFOvXj1lyqmnnsr6xBtGx/TQqFR0vvPOO5tssolCpGvXrv/5z3/GjBnDUmRa89Jwo0LLueee++mnnzZr1uzee+99/vnnH3300WOPPdZo/BV2jXiKf/EhwfTp0+NzDjXT//3f/zE9GaGSq1u3bh07djzrrLOWXHJJUQ1zFRLzZM7sV8Tafffdr7/+eu7C3ISEX4C6/Ca4dR4c8UYbbUTXo5MNCADLLLNMZDr9+/dXG6FhD5y7Hs+HHnpI3BIzKKIe1kLvRQiVvqE+ffropL5RoBx99NFhOSB6NW7cWOcuu+yi1vn4448lfV5PP/10oyzhpJNOYgyYX3rppT/++KNOwUY1JtSpeBgevVexmdKyZUuWkOeaSxV32GEHndtuu22qfhIWZjC0+DBg3333HTVqlJ6JEycefvjhetZbb70ogEQOIWr11VeXpeUnzZJdHXXUUWg22GCDgQMHCiE9e/Z8+OGHWdxjjz0mxnz11VeTJ0/ec8890ey8887BuRiII9uLDzZGjhwpRIUYzEo2KcJ53XLLLdVnMSXDSy+9tMoqq4hYrHK//fbDhP1m1peQUALzVf2gi6/80+k6depEp4xs5ZVXDtfvdcCAAfRMT6NGjZiEHs+aNWsKUUJC/FHxZ5555oADDhDJ9t9//zZt2lx11VWmy63i6wAYZp8G1K9fX4TQGDZsmHQMK0y8BmdqLbZJtfBX18fn0RLAddddlzCsy1Nmx0RFR0GoSpUqCKBWrVrRNgWT6ExIWAhBh6P+aNCgQfywZ7XVVqPA9FYMYFb0X5aGhhVsscUW+UmLScgiC9QvEnz//fdXXnklc2N0cPDBBz/11FPDhw+fMGECg2rYsGGJHyNBGFoGfECDPLG0XNCrudtss02e5H9gzmhmzJhx5513inaMtEmTJpn1JSSUwHyFn2KNpFLRoI6cuGf0fP311xFLiv+CHkUMK9Lwyh5q1KihDKf0VatWVfQY1R/8M84BxJ4myrmQFVNmIECErmjHj52IYUVBS9FmVEQMAtAffBISFnJkqj6nxrKU8PLxizgsRZoVQxB5Fav57rvvMJHSyRoVUhtuuKFAxUzGjh0rRZPJ/eYXqQGHMovnJAl5xLyw5ZVWWilywWIQTKJJYEVVmPNHH30053fqEhIC81v9ZI2sDbw5pQx1jw/ZlPaUPkaBriNAFp0tW7Z84oknOnfu/Pjjj2ucc845Sy21lDgRmoo4P6mA+MrpiiuuSKHZUongFMA569fwqoFYw0RmKRQFn0DIE+2skZCwMCO0uhhskGJLtuJ34KZPn15ME/aIZtq0aWhOP/105hb/0scjjzyy2267MQ2j7CX77YhiZAYeDTGm7OI5hmEvLCgSvrn+3oXRmLXZZps1b95c5qfYevjhh2M0IaEEfl/1o5G1gaOn69Gj5K9QoYJMp0uXLip0PbT/7bffZhvZR2fUsVatWhtttJEaqE6dOvGtGGYQKvvWW2998sknGvDSSy8xGI3GjRvLs7LQkplZJkZmLXqiHUOY16tXT6bG9rJ/veqVV155N/9P+6AkfHQmJCyEoMahyfEMhLEIABF+GjRowOP37dv31VdfDYIvv/yyZ8+e0Ubjuc4669StW5fRsdBq1aqxQTVQfCD22muv9erVK0/7P2TW+r918xYWUYcxYqKRWWgxCMOscDjkkENuu+22vfbaS5l14403Fv/zcQkJGeYr/EQ9oSGWZF47Gorx+H3PTTbZZNddd9W47777zjjjjPvvv//444+/8MILBYBQytycuYGCxj+v+9BDD+2///7XXHPNxRdffNJJJw0aNGj99dc/8MADaTOC7/P/JHYU/rjFr5GSigAawNjC3nQiWHPNNffbb7/ll1+ejbVr1+7yyy8/99xzjz322P79+6NREsWiCQkLJ4QZwUaj+OMEtqBfTxQfwo8ciy2cc845DOeWW25hQY8++qghJlA8sRhrrbXWnnvuqXISqMQJc030lDgaZWJsyirW8orPpMm532YV7aSVws/JJ58sdxw2bNhRRx116qmntm/f/uyzz45vaUtGzQ1fUalSpdatW6+xxhofffQRc54zziUkzG/1E9+5DI0MaEd+JLp4IjjmmGPatGlD/yQ+Rx99NDNYdtll46OAeM4VlJWZLbPMMg0bNhw+fPiZZ555wQUXDBkyRI52+umnN2rUCA3NBo0wyOw1k6G401rIPFu2bNm2bVvpntyQhVx11VUVK1aMX5Iw8VdESkgoddDPUNFio4sShMlEJxuRVAkGI0eOPO200wSDfv36xfdI2WMY5pxgMjIz9OXLlx86dOhll10mP/OMr8+ZiABiLY0IJ1aUAnrdcsstza1ataqwd+2112rL7Ri7uGUKDmgkghrbbLPNcccdx7SlgI8//nhK+BJKYL7+1YP4CQ01kjRRvswe1D0bbLCBAiV+b1Sm06RJk6jNK1eufMkllzRv3vzFri9+P+P7ffbZZ9NNN81PKgk29sP3PzTbpdlFF12EntZWqFDhiCOOOO+883baaadYi1pL5ZQye+yxB5MLy5SObbfddjvssEP83JWQzGO11Vbbfffda9eubaLgt+2228oQGSRI9NiJbFGAJKe5OORFSEhY6MCJ03kJU6tWrbLvp9FwdU+zZs0YwgorrEDJa9SoIUVTajAc/eoYUefNN98UWg477LDVV189JpYAza9fvz4TqFWrlvysevXqTI91M2eWNW3aNBakh13jJpljgIgliGGPZhlliVZZf/319St0NtlkE0MqpI033ljmRySzcPa0nC0QNb5PlJAQKPy85DfBEqZOnVquXLnMZZs4btw4ylr8K9kl8OSTTx588MEo1eY0stD7Sxil7kIINfX6/+2dB3hUZfP2z6aHFrqEDiIC0ov0qnRFelFfBAFBEBBRin8UAcVQFEFFpStFwQLSqwjSkV5DJxACgYQkpCe7+/12ZzlfSBDjK5LwOveVa6/nPGeecnbnnnvm7G6WYj8mJiZ79uymyAkiIyPDwsJgo2wAM8QPs5QftGMg5ERpkCJXlxPoDekY6kWb5ZiHtnwWXKHItMCZ0ZuUn0/jkJojx+1/3pEWSMWwYcM+/vjjGjVqrFix4h7cNAFreBR2CGAW/GKscJDUMzQ0FJUCYmBCmAV5iQPSQ0ygWoKncghiY2IjIiPgXaqPxSoU6ZWf9OD48eP79u3LnTs3pQ/Tbtmy5Ysvvjhx4sSzzz47bdo0/fi/QnF/QfTfu3cvvINcVBvI1eLFi+fPn0+mOHLkSPlkqctUoch8uJ/yM3fu3IEDB1InlShRgmnl62lVqlSZPn16rVq1xEahUNwvREREvP322yR5lPKQjrL+2rVrFCI9evQYM2ZMyhJEociESNd7P+mEpFrx8fFBQUGU5GXKlOnSpQvzy//LUSgU9xcoDcID48LDw0NCQiBg5cqVhw4dShYo32pQKDIz7mf1A2JiYsi/QkNDIUaePHn8/f31LRaF4h8F2hMcHAz1fHx8IF2RO/+PtUKRaXGf5UehUCgUivTgjk+XKRQKhULxYKDyo1AoFIoMgMqPQqFQKDIAKj8KhUKhyACo/CgUCoUiA6Dyo1AoFIoMgMqPQqFQKDIAKj8Kxb8R+oU/RYZDv3aqUPy7AOV37NixatWq8uXLt2vXTv8viSKjkPHVz/Xr17/88suAgICzZ8+6uv4MCQkJS5cuHTFixLZt2+S3sBQKRTqRlJS0aNGiDz/8cMqUKfJTxQpFhiDj5WfLli2vvfbayJEjV65w/NZvenDp0qWhQ4dOmDBh/vz55i8KQ6qLFy/KjxArFIp7QH7Ix2KxyM8HKxQZgoyXn4IFC9avX79OnTqlS5d2df0ZsmXL1qhRo7p169aoUUN+fS4qKmrcuHE9e/ZEzMRGoVDcFWiP/ECw3nhXZCzSKz82my1lopSYmJicnOw6SAMsMXAdOH+Z9B6OXrNmzc8///yjjz5q2Lih9LBWyltqlDUpD0GBAgUCAgImTpz43HPPyQ/ab9y4cebMmZs3b967d290dLSYKRQPL6AMJDI9Xw6lfVekpAnG9y5r5KyDZimYRQ4XGhqaltepepg8xgnX8W3Qf+vWrYSEBDlMOYpV0u4H+9jYWHMDHErDBKfuHWS45LSjAKfuMVCReZCu3/vh5fz6669//vlnf39/UqcffviBWH/w4EFyqEceecT8nV2AP/36669z5sxZsmQJDponT541a9bMnTs3R44cf/R/4ENCQpj50KFD+fLlY/6IiIhZs2YtX768RIkS+N8CJ44ePcoM5i8Hx8XFrVu3bvv27YUKFUKKaEyYMAEbpIhFAwMDIVKxYsXM3wVXKB46XL58edq0aaRTZcuWpT19+vRly5adP38eIuTNm9dl5ERwcDAMgjVbt27lLBF5xowZGzZsKFeu3F1/3Bo6r1+/fvfu3dCtU6dOuXPnvnHjBpxlFPJTvnx5qY1QuyNHjjAtXD527BgzYwnZIyMjMSYgME/p0qXlPh5KQM+XX37JWDq3bds2ZcqU7Nmzs1UJCBA2LCwsf/785pYOHDhA0gmXS5UqtXbtWmhOuBCOE0bYHrP9+OOPQUFBOXPm5JSMAnCc2djY4sWLiRusQhCwWCycYgmepdmzZ69cufLUqVNsONVzpchcwFn/FDdv3mzZsqWXlxfVRqNGjVwjDQP/Xr16tcvImfu8++67vORyFoeoVq0aMkB7zJgxLqM0gDl+fn7YTJ48mUMcnWk5bNu2bcq16tatu2XLFjwemwsXLlSpUoXOSZMm4fdMLjYmWrVqdfLkSef0CsVDiV27dhUuXNjX17djx47CCEGzZs2IyC4ju/306dMwxXXOMLJmzdqgQQNCPPjtt99cRneCymDo0KEYV65c+dy5c/RMnTpVVET0gB5oRUqXMnYXL178s88+IyNEq4SYTZs2JTI4p3RsA7LTyVTM/8Ybb9B+9tlne/fu7Rh8G2wVVZAhqB1i1rhxY/gr6kIP/SSggwcPNlUKoIjIiXBffuDVdcIJ5qSTU4SFXr16ye0QwcCBAx0rKTIr0iU/OBzCI68oHvniiy++9NJLIjMdOnQQfyJXwnels3Xr1uhQ+/btSUycgwwOZaq0IFvJ6ZcTG9ydw8OHD5PuySiSGty3Xbt2ZF7QA1G5cuUKNmfPnq1YsSIGuBc82bNnDy4IUbFBlnB95hSPVCgeUuzYsUNSN4C39+/f/+mnn6adJUsW2CRx/9q1az179qSTqqJfv37E5SeffNI5wsiVK9emTZtkqrQYOXIkNg0bNrx+/Tr0efTRR1ECiEMhJQaUMnCZDQwZMgRiQnkOkUNJAYcPHw7XOItGYozezJs3DwNUBM3DYNCgQXJThN22aNFi2LBhiCjSSGffvn1l81999RWTkNSSfcJ0zPbt2wedAwICMIPIo0aN+uCDD9q0aYNN1apVqZYYtXDhwnz58nF1PCHjxo0jEH3xxRdIJou+8847np6elHQsN3HiRBZatGiR42IUmRXpkp/w8PAuXbrgTPifvKI43Pjx4729vXEvqmB6qDZIprDBz7CnJzo6mlQIVSAfoY6mBxnbuXMnLrt3717Kc8m8Nm/eXNDf8cPAqBeHSEutWrU4rFChwrfffktPfHw8HKAH98WYnosXL9asWZOePn36UKfTs3Xr1scff5z9fPrppxwqFA87YIrIDyJx9OhRes6cOUMGRg9qsXv3bnogCAEXXkyfPt05yEENoWqJEiUOHjxID9nh1i1bIR0TImkS+ons2KBnSFSTJk1oE7KpbJxz2I8fP16yZEnY9N1330kPeOuttzB7+eWX4T45otx2Gzt2LKfCwsLINeUs+sE8I0aMYGNw/8033xSGEhNQC3p8fHwoZeiZO3eu3OWrW7fuunXrkFI62WHOnDkLFixIiOBQ0KlTJ8wkPX17pKP0qVSpErWOnBUQJUiFOcXlmBeiyORI10cPeDnxKhplypShoKZBetK8eXMchbxD3hHFZZETmID3k5vQQ5uMhiKaZVApen766afnn3++W7duXbt2pfH+++/jmo6qxd2xDXIcmRm3pgHr5K4CNKhXrx7eHBMTQ/VDD5D9YCz3fBmCyLEQ3GC3ThOF4iEGziyejEg88cQTNFCdp556ClcnjYMOuDoiBBHKlSvXunVr5yCjaNGi9evXp8FwSgq5J/H8C8/DOCHd8uXLOctwHk+fPk3F88svv5DwDR48WKgEjh07RnCHXIGBgUuWLCHjXLx4McLGKUolKiRSPYnya9euJe6zH6QOe+aBhhQi7AqwGcomCM5AYgJ05hH78+fP04MlNrCeXTVr1owCjk7miYiIYHtUUQsWLPjmm2/YwK1btzhFbcSKaBVlFskuZR+iy1blWWI2CiZiBbpFhKF6k1UUmRnpkh88Hm+mgaJID8BZcTh3N3eRDap4pChv3rwp3yTE+zGhgUfymJCQgBl5EIURLos9Z02nF9VhIVnLMfntDzXgjubbodKTSmOYUE6xkAxXKB5q4OHi5OYdbECQFb5I7L569SrtIkWKpLQRHiFOJukoLAj6pHqQjgadcgpFOXToEA1OUVrREMAm4jidAQEBr7zySt++fXv37v3jjz9yitngL5Qn+ySzRC1OnDiBSjEV9VCdOnWwYXLZAwYpIwYsJmGlIXLCJFhiQ6HmPO/gPtpDIygoiPqsf//+r776ap8+fTZs2EAndRsDmzZrilJyvZs3bx40aBDStXTpUs4SK9hqr1692DZiyUD0adtv2xzzKjIr0iU/eAneTMPUAwA3nELhytHwLYiB4wIxAJxnLAbycUwqdJIvQBlEAT569Gi8nJpGJkeNZIhjVmdDZgbMLKwzNyANJEdsWAXQiU+LpULxUMMkQkqYKRpujwJJcCfgmkwBkofBKVQHOowcOXLNmjUwTkhHDYSxcI1aBBWhSDp8+DBFUmRkpHMCxyoMh9EUVcT0Dh06ULgMGDCAUum1117z9/fHpmLFihQ3LA2dV61aBfuqV68uQgIBZZ/SlgagjWTSkHshwnrTEmAgF4JKdenShaV5JGigQyhNjx49GMiuaFPcDBkypHDhwux80qRJcisyX75848aNmzNnDorFM7Nly5Zx74+Tok2ROZEu+cFFxI14lAYQDtCQx1KlSlEUh4WF7d+/33neAap7si2GC5EKFizYuHHjBg0akCXRoISn02QOHsyjuYTZAOiKuGlK/QPmxmjgl8xAfiSWCsVDDdP/U/qz8AhXF3mQD+lQfxw5csR53lGdnDt3jgZMEY2hKHnqqadq165dr169hg0byqd4GMspCPjBBx+MGTPGx8fn119/nTFjBrkg/dQWLIR0dezYceLEifPmzZs/f/7UqVORKEK/fDa6ZMmSaBJTzZw5c9myZQhDkyZNRFcEnEL/jh8/7jo2jJMnTxIfaCB4PCJdPGKWktRy7wT5oY6ZPHkyWjJ37txp06axOoWObJuzrVq1+vjjj2fNmiVvg61YsUKiByGoe/fuXMjYsWN59vbs2SPPhiJzIr2RWlwEj5GcBfB6A9xUsq0KFSrIxzG/+uorfGXnzp34x9tvvy16IEy4K5jQVCDAnJIipQRLyLqmpfDQrHUKFSqE42JGikdmFBgYyDxOQ4Xi4YbwSwA18HwgtxPq1q1brlw5EvxRo0YtXbp069atQ4cOXbBgAafghXAkLaCGsAlSQ5yXX36ZIiMqKgp1Wb16NaeqVKlCfEeKEADYtGnTpm3btq1bt27Hjh3h4eEyCZA3bIKDg5EZlEw+MQRYF53w9va+fPkytRf6sXnzZmICm2R4ixYtxFK4zGZSXiAaxkWdP39+9OjRS5YsYSC6uHHjxn379ok0co1siUekBZrzPFDosGFqQXY4ffp0Nrlr1y4kmW0QE8wvCyoyIxy+/GfAveSD1yRQN27ckE5efklV5BNrYPv27eY3deS2AKkWLo5nkEOJTVpQvIvx+PHjOSRdKlOmDIeDBw/GL8WG5MsxqWHgeRwGBQWhdhz269cPp6QHeRswYIDYAOr0yMhI51CF4qEEYVTejSeHc3XZ7ZMmTaKHYgU94JB0cOHChYULF6aTJA+i0ZBv0RUtWpQUUEalAmSRr+NUrlyZQE/PqlWrHnvsMXpKlChBuKfn2LFjTZs2pUcg2SdahaVzDgegXteuXeln6SFDhsTHx0s/tH3nnXfYDPtEhJwTuFCzZk25UQZmz56NRpJBopfSI0Byypcv7xpwGwjMoUOHOAvlOWSg+XYXPVwRqikbZlEpwogq7733ninYikyIdP3XA9wLNyU/atOmTePGjcUXSV7wUXy9W7dulMD0QIOqVavmypWLjAbmDB8+vGXLlngzHtC5c2ccyDlZauA6Z86cyZs3LwpXtmxZpr1w4QL9rVu3ZjYpbqAZG6De79ixY5EiRZifIewemxo1agjxSpUqxdKsBfGkX/apUDyMIIifO3eOYIrPyyffQGhoKCl/7dq1ifvkdhQZlB0oh6+vL3Sg//3338+dOzfpP1l/9+7dRcBSAb6EhIRQM9WpUweGEqwxLliwIJkllIF00JCBSAXr0sMeOItWwVBCvHx8ALD64cOHKUQKFCgwbNiw0rf/ZyM7oWCS70K88cYbkin6+/u3b98eKa1evbqQmuUuXboEbblAhM051IHixYtTHhUrVgxSszdYz9Jt27Zt2LChfG6b/dOfLVs2VOqll14i7yR6sCh6wxB2RRyoX7/+66+/TmhK+aEMRaYDL1t6cPXq1aNHj6b8LicacOrUKTrRD1fXbVB0y/fXyODwEjKgpUuXyqm0oHxGS06ePHnr1i0OmfbKlStwLGX5gs1pJ2hwiA3zszS1vBgI0B62BGnNREyheEiBM6MQZHjCCwEp4MGDB+EXWZqrywmMyc+io6NpBwQEwGtURL6jfVfcvHnzwIEDQUFBUEl6qB6OHz/++++/p+KUCB4MvXbtGjauXifOnj0rBQf6kTIIIJzyJaEnn3ySgSxBQklDyGuC64LCkNq8yZEK7J+wwHVdv3495fWSjDIhTDe/JGuCoIE9c8rXmxSZHOmVn/SAF55aB4+hKscPkBy5yduoUSNY5DJSKBT3CajOiRMntm/fThlBcEeuJk2aJF9WlVtSLrv7DRRl9+7dnTt3ZiEqj1TJJXLy5ptvcoqqRf5VgUJxV9xP+Zk1a5afnx+1f+3atatVq0bdY3pnqmRNoVD8fURERAwaNMjb27tw4cINGjSQ928A7cOHD7uM/gGsX79ebqn5+vp+9NFHqaoihHDgwIGcLVu2rPlOj0KRFvfzM8qlSpWi5KdBCY/3u7u7N2vW7Isvvmjbtq3c7VUoFPcRPj4+lSpVKl68eHh4+K5du6iBihYtSuifMmWKyMM/hBs3bgQHB+fJk2fixIn9+/dP9SYrZM+RI4eHhwfJqL71orgH/vDTmf8FKHGCgoICAwMvX77MId5ZpUoVuRWgUCj+CcTHx590IjY21tPTs0iRIrVq1UKWXKf/GVy7dm3Dhg2oi/wLrrQ4cuTIpk2b2EyLFi3kc60KRVrcT/lRKBQKhSKd0H8QoFAoFIoMgMqPQqFQKDIAKj8KhUKhyACo/CgUCoUiA6Dyo1AoFIoMgMqPQqFQKDIAKj8KhUKhyACo/CgUCoUiA/Dv+tqpzWY7fvz4kSNHSpYsWbVqVU/njyfeG6dOndq+fXvx4sXr16/v4fw9FYVCoVD8ffy7qp/ExMRZs2b17t37gw8+kN/9vTfQ5pkzZ/bv33/UqFH6o/EKhUJxH/Hvkh+qn4iIiNjY2PDw8ATnzxXfG9hfv349Pj7+xo0b6bFXKBSZH3CZCEAy6jpWZBD+de/9yH/n9fDwSM8/4cYmd+7cNHx8fPTOm0LxP4ALFy68+eabw4cPP3/+vKtLkUFIr/xQByQnJ7sOnHel6HEd3G9YrVZX6zbS9vx3SM+bPalgqpT+b1bFA0ZKxoGkpCRX625Ixce/Rk/n73652rfx3xEcqqatKuLi4lJdyz+HP+XpokWLPvvss5UrV964ccPVlQ4wrVZL9x3u7733nqv5x+CpX7du3a+//lqkSBEi+MaNGxcsWHDx4sVChQql/W/q5BTz589fsWIFdUbOnDkPHjy4fv16Grly5XJZ3InQ0NAffvjhypUrxYoVCwkJwTm2bdvGtI888oicXbZs2fLly3HrEiVKyBATOMSuXbu+//57thQZGVmgQIG0/2o+KCiIGfA2Km5fX18m37dv32OPPdahQwfzx0jgxpYtW37++ef9+/dT5fj7+0s/WLt2LUvky5evU6dOefPmdfUqFP8wCI5LliwhVS9dujS+TRtOxcbGwgtvb2+XkRM49m+//TZnzhy4Bsu8vLxWr169c+fO4sWL4/AuozsBBfB2WIY9jFiwcEFwcDDshj6Q/cCBA99+++3vv/8OEfz8/FxjbiMsLAxGL1y4cPfu3XAcGzc3VxYbExPDtJARvkMZ6Txy5AizXb16tWjRouyNHpYIDAwkpHBFZ86cSRscNm/ezDxcDhIIqc35BdevX4etDD927BiXkCdPHuknRHAthCmGcOFskift0qVLPGNmmFq1atXkyZN5bkkr2S3BgS1hL1kmcWD79u3sSuIA/TIK8Gz89NNPPBtc1y+//IJB4cKFU70Qir8MXOFPgdN37NiRV3HQoEF9+/bNnz8/A3Gapk2bEppdRk7Mnj27YsWK4mSIE6OqVauGb33yyScuizRAGwoWLIgevPXWW40bN+YVhQPly5eHTnhh69atcR28HN8dPXo0HuMaZrfj1t27d2cVuS2WO3fup556KtXv/uJtDRs2FOfDb2g/8cQTtJs1a2b+Ev65c+deffVVrg5lZeeI3NixY8+ePcspq9U2cOAg7MuVK3fixAmxVygeAAjuZcuWJQKOGjWqc+fOWbJkIQrDlN69exNSXUZ2O248cOBA+vFSaFK1atXnn3+eTA5VQIFcRncCOkNkcq+2bdv26dMH1bG4WUitYBOLQlUoABdgTaNGjXbs2OEa5gSqAOvljjQgBPfs2ZNYLGdRtTp16jDzuHHjWIWe+Pj4iRMnEiuYirP0IJbTp0+HUMJKyN6jR4/w8HDnBHbkli0RYWAip9jbyJEjUV85C7Zu3QqLkRyeEDQGbZ45cyaywalbt24xlgvhCSFMwXdEBcsGDRqQRGLAPDVr1pSdCzAYMmQIW+Ls8ePHX3nlFZ5wQhBAvN955x1zaV4FrpqZx48fT6zgGU4V+hT/BdIlPzdv3nzmmWd4tfBvfAJFqV27trx+/fr1I4MQs2+++Ub8skKFCnDA/OlfgA+JTVowihcbG9jF64qESN7Ey1+mTBmc7Mknn8RZ6SH1IOWRUSRrzz33nHS+8MILeJvURuyNTFBsDh06VKNGDTohCbXO008/baZRzZs3R3WwuXz5cpcuXehheK9evdq0aQPxMMPP8GnQv39/ziKHJ0+elGkVigcAyeLxPbwRRtSvX19+uTFbtmzk79HR0dhQByAkdAJcmgLdFAY4ZZIlFaAzdBAzJq9SpYoEZWmTzwFoKBXJiy++KEICqC0ef/xxOqE2gb59+/ZCKNYVRWTPpUqVogf6SOBmn2+//TY96ATKQQ+PUJse+Ih01apVa8SIEWKMlEJkTrEBNInUExGCjxMmTBADOIg9BtCcDSBptJHeefPmcRb5adeuHT3sioGVKlVq0qQJh4Ad8lwlJSWhKBJeMOCqCVPEH2qsiIgIwghqxN7+85//sDSxjucwICBALh+VYhTRD9CoXr06xRn9ir+D9MpP165dedJx/XfffTc0NFQchZeZ5ILKGhuKa1wWGyoYimISiqNHj4oN1cmnn36KDZ3Xrl1jOPU7DaEQiQmqw0AIRlXLi41DSDbH5IsWLcJs9erVjz76KD04AT7EPGyDaUmOFi5cyCGduDWZFzatWrWiuMalRDkgzMqVK8nCmPnLL7+UeXBcqn5WnzJlCofkU6JGYMGCBXgYLAoMDOQQImGAoMqhQvFgQCEiGRWuSE1P3Y+HSzpF7Dtw4AA28AKRgGJEcIIvTr5582ZhAX7++++/YxMVFRUSEgIjANSDLHFxcZT72FCU/N///R+Rl5oDgssNKLIx2M1yAwYMgGJUYHv37mUeigNJ+Aj99MA4lps9ezZSQZimxMGGMkj0CZ6a8gNVmRn54YroYUUMKleuLOHbarVK7QJhqZmwpFjhWugBGzZsQCcQDFZk52gSY5EEOQtYlx7ozBAIjiJyiHIMGzaM6+LaUSkErGjRooQplhAFwkauizlZnf6pU6eydMuWLc06bPny5fQgtLJPti3PD0/+d999R7iQbSv+DtL70QOeax4pRAYPHow3UNpTqiMPKBMvM6fwPMArTT/FCk7zxBNP8Nrj4iwjhfaKFSsoLyj5cXFc+f333+flp3yRu2fkcUgXBTU21D30kIN069aNsXi8ZDqiGagXxGNLTNW5c2fWYgbUi7QFG4piaiPkbc2aNewHlyUxhCHMTH3TokULbJgEjYGH+DeHLMdVUC0hnPguWScMhL2covzikU7ZpELxYGD6GxTAz/FDPJw2YnP+/HkcmKBJOQIByY1wclJDnByaYMwozubPn59o++GHHz7zzDOk/x07diQ6Qxw8X+qq2rVrv/766xCQukqIBkcod2A3yzVt2hTlo6wh1GIMrX7++efs2bO/8cYbhGC2x3IwjqQTFpM4wiZmkBjNozQEtCEpO6fNnMSEI0eOfP7558wJlyEX/cR9KdfYzMWLFw8fPozgIU7sFiVDQUlwiTBYsi5UBRRDzAnHT58+DX9py6JUSKSeXBe7pb5BxaHz2bNnmY1t80TJJGyDXbE6GkmsYGlqR66XvZ04cQJjLoeB8gE5BmJADwGQ8MWcsm3F30G65IdXAg+jgUPjoNKJW/CS8JLzQnKIj5JrUMeIZwucTuiAcAnxIOMgrO/cuRPPI4ODHpzCgLMS6AHMkR68gZecBl6C1GHJKR5JzfBF+sm8ZGYBNmwPGuCvGFy+fJk5SbtMG4YzFQ36scTLUSkOZ86cictSjJM59uzZk2SQTAoNE0secTUhj0LxYJCYmCg5X8oPvMA1oYYkT1TktAmFckNJIHyEWXgsMxCj9+3bB9127NiBXJ06dYqzEjqJzsRuxxjnhHCN0EzUlh7acATui+fDKR6hg9yZEHBKbl1QfEB/k2gOzt+WH0jHI7yTy0EC+/Xrx0BIR7WBPJCV0o8OwWsalCkwET7WrVv3hRdeYFqeChSCJWQGyhfyUWzq1av31ltvcaWwldpOVuGRZwydoAG4BFkayJaYh0eJEk4TA+lC/GgsWrSIDJulUXpkmEXZEpackrFFihSRzFhxX5Be+ZEG5bZ4ABBh4FF6cF98msNUYZqXDf+Tl5CKZ8aMGXPmzJk7dy4N6llcHPfCgThrriL+CuiRNnOauYbDr52gbW7GhAgMDAR4HocyuQB6yLYBMzBcZLVkyZJUWq1atcL5qP1hBQmO3BCXJSAA1+4YplA8EOB44vwps2zxXvpFFSTa0ja9GtAvvk1Ah5UUK1999RWMmz179qxZs4j+DJfIy0Ago2QtxppTsa6TZw5waEpLyv1wSmbgrJBLhssepMEjnSZVc+TIMXTo0E8++YQqjf6NGzdOnjyZTJFck91iULhwYQjYvHnzKlWq1KhRo02bNi+//DKSgBgIW6mf6KTqqly5MrR99tlnO3TogArKJQBTuYHsh82YWxKgu6LTgH45xdItWrRgZgrKhg0bsgpVo7xTJRPyhKe8fMXfRLrkx3x55LUUCAfol1cdn8CBKCakVBeQaEj0l4EkDr169SKj4UXt06cPKQadGJgcEOAokpSlVA5mAJyik6xN3oalPMcpXQaG/VTgKRyUTJAqjcqa2kjumN+8eVNsqKlle5LX4FhSqyE88HPhwoWLFy8m+VqwYAGMlY9XiMezQ9OhFYoHADNcCndMcEg/EZZgXbZsWXpgQcpvUIaEhGBDoIQpWFIivPLKK6RTpPOwD57ST7mAJV5thmyG0GbRVDJDj9jAFJSDZJHlnOcdoGgQQuXJk4eyiZlFEdmDlDLhYeHHjh1jcqY116I66d+//9dffy0fgaMm++GHH+iUz008/fTTVCFgyZIl33333fz586dNmyY3uyRQcBWchaewFc5i8NFHH/n7+5sMZc9A2jwDrM5Y2RgQ1ZFO6eG65CYHcYBpZWka33zzDXGgevXqXBdPOAY0UgUrxd9BuuQHiOvgQ+bryishr7fN6jiFG5UvX56eKVOmLF++nHJn/fr1Y8aMQYF4mTF2DroLeDlxBdeBE3iMrCIvOcCA4gNL+knc8FS4hMcvXbqU1Im1mH/GVzM++/wzdkjOQiqECOFMbHvevHlTp06FNmjPqFGj1q1bx4TMhgJRe5E9ccg8+DEqJT7KWQYigawoROUSzNsUCsUDAJ4s8mOyAJhtGpylJsDPz549O3HipCNHjkRERMA+oicGnDXDfSrAJomhKSOpqTqyqAA6CwtoN27cmMQRrgUEBPz000+cCg4O/uD9DyAUykQpwwy5cuWSD6lu2rQJTh04cODLr74kDtDDPELzoKCgnTt3kqcS9Kk2ZJ9S90jCRz2EMt24cYMskyE0eARFihRhDxjMmDGDDbArZhAiCzexkUuGrWaYkrH0s2Ea9Pg63z6g3kLb9u/fT+ggDqB5jFq7di01IrGC2IIxsQtjJpfhjKIhkyjuDxwvzp/h6tWrEqabNm1KjJZOqgr5aObYMWOlhxSGopUeUonHH3+cXEacAL+UD8bcFd9//73kI8uWLZMeUioWouf555/HOegJDQ2VD70888wz8r4rNq+//rq4HWsBoQ0MkewPXLx4Ea+iEzMYQj3ElmTPFStWlO/xQKGePXsK9zgFH6iZyKSGDx/OWVYnbeQUdZt+8FrxILFr1y55l+Wdd96RHgLu+PHj6SFJknfpYcG4ceOIwnTit6VLl4ZKQgRSNPMbCKlAXSJsatKkiUmWNWvWEGqRAXkTXnoolXL45UAMJOyeOnVKPt1KvIYRkIV21qxZ0TzkEAPMED/ZD5ziFG02xmHJkiW5ImxGjx4twsMMUJJTiMqFCxc4FRYWJp9W5RLy58/PEJiIJcUNSoDBmTNnJDIgFUxLSUSiCZdnzpzJWWSD1JOz9evXh/v0AMKU1IgjRoyQYIK8UdDQAwgLn3/+OZ2IXLdu3eSpY2lmZulixYqNHTsWUeeZf+211zhVtGjRX375xTmx4j4gXf/1ABw6dIgqW26MStAnD9qzZw8O17VrV+oeevB+CIOjyL/pbNCgAfUHSRmJQ7t27cyXPBVwGrIh/AnlkNuszMkolmvZsiWuKfkRnkcP6R5zQhKoUq1aNZbDb6AQi+KsAwYMQJPIkmRmPz8/ZAmqwFJWeeyxx0aOHFmjRo1jx44xT/v27ZFJMixyLlwNG+qqBOcX0FAplmZ+5JNFSeIqV66MvfBKoXgAIKmHX0hFp06dqlSpQg9EoHSgkwqD6p+6BxbQ5hHvlXd66CdE4uHkUuRVcm85FZgHAyhWp04d0kpJ/hi+fft25oSG0IEeEs19+/ZB9g4dOsjXFagJIAKsIWmD47CyXr16Q4cOlU/NycyEbCSBkM3+4UuvXr369OlDrYMcciEwC2FAxlgOSjJVs2bN0FcJIFwIxESToDMGcvuOpaE8GsPkDMeSS2NytscjnTwD8iE9ROLw4cOXLl1ikubNm8uWCFPIHo88M5UqVaKHHSJpbAm+I+RocNWqVdkJTzKqQ+Ai2cUeS8yYh1E8CWSfbBtLFI5nibOKv4/0/t4PtQKuT8Iib7oA8p09e/bGxsagK7iFdAr27t2LT+MxUAW54rVcsmQJ4dt1+k5w9uDBg7Gxsby0UpoAlsNNSVvM5Tg8evQo/kEnPiedADdFmRjOKVGvVCDlwW/wdaSIfeLTbA8H4lrQPJeR8241KRjGcAACy+d5wJUrVyAhh6hRSnuF4h+F8AK/JSySj0unfPhYvFF6BJhhTAgmIZswYQKZfoUKFaiQREjS4vLly0RqKAMp5BYFoZwsENqSn0EBetgA/OVRJME5zgXICFmI3ZAx1SkB8kYQh7wkhRwibHAHgsvNbUL/2bNnYSIXwgZE/1ICeZNPn5JBIj/InuuEE4QsNIanApUifSTrlT0gP5Kksi7TClsJU7t37+bqyDJTbpVoFhgYSMAx/0uLAFk9f/48o9By5MfUb4k/lFzYm3f2FH8T6ZWf9IB8BJ8jj4ADTAtPJk+e/P333/OCzZkzJxVhFArF3wT1B1EY3hV4pECevHlI5zdt2jRu3DikqHv37tOnTzc/f6xQZELcT/lZtGjRpEmTyGWoHshEDhw4QB5BpgANevTokTbHUSgUfwcIT0BAwMqVKymPIB3J344dO+Q+87x588j3U94nUCgyG+6n/Cxfvnz48OEnT550HTv/S0KnTp369u1LjezqUigU9wkxMTFTP5k6YeIEJEd6PD09W7Zs2adPH/knjQpFZsb9lJ+EhIQTJ07s2bNHPpxGRla/fv3q1atrCqZQ/EOIiIjYtWvX/v37aaA9JUuWbNasmfnpG4UiM+N+yo8Jq/OLAvpGvULxYACLbbe/8iI9CkXmxz8iPwqFQqFQ3Bv6CUKFQqFQZABUfhQKhUKRAVD5USgUCkUGQOVHoVAoFBkAlR+FQqFQZABUfhQKhUKRAVD5USgUCkUGQOVHoVAoFBkAlR+FQqFQZAD0vx4oFApFemAzjBj7rRu26Bg3wy2JY28fnxx5DI/sf5zHm9H1L/3fS6tzoPtfHPXwQeVHoVAo0oPY6ODDoaePusXEerh5Rttscd5Z/AqWKlSikrfvH/0OMtGVP1TkLwlJsnOUx/+8/OjNN4VCoUgN0nKb88+EPSkpJuS6t5tX3iLF/QoVzVWgYNasWa1WTO4RRdEPzv5VFUF4PP/ntQdo9aNQKBR3wGYYoVFGdKzdy9Pi62l4u9s9k+ITb15IjriYq0AuN//CRnKykZCAQMQneyd55s3imxWRkTLHRFr1SHTO7HW3rJ/+ZOf4tLIjATrtbH/UD5hN/rDhERv549hicaz+lyQxyfko9rIom/wjYIA9j/zJELT0rv+G3bExlR+FQqFIiXjDOHvVHh5h96HYcTO8LTbPxHD3qIt5fOKy++c0vH0d7854e9otbhGRyWHWnPYsOd3dHQXT/79fZjNyeNn9vF2/dZZgNULijKsxyJY1p7dRwNc9V1ZXUCb+hscZwZH2W/GGu5clb1ajYFYji4cjOkcmGLeSjAS7c2anZGX1NPJ5O8Qjzm5cjzfikwx3C9szvA2rr4ctm49DFxJtxpVoIyzWSLQYNsttGbAZbjbDYnXYI6i+bkZOHyNHVsMzrRLeiWircS7SiI0zPNwNi5tjV8nJtvxZ7UWzu991bFiycfGWc2PuhpvdsCY49lwit5GNpyYFkKgL0So/CoVCcSeiDeN0iBEWZfj4OMKuDyE7KT5rXHAB72h398SYsHB3nyy+RYrciokNCkuOzVLslrtfotXwQiQoL5wz2K32R3IZpfJZ0JioJOPcDePyDSMq1m6zWr2sRs4sbqVLWIrnthB8r8UZx84b127akyl9vC1Z3I1Cue3lC1m83I3DV42r4UaS1aFejqrF3cjma5TIZxTNYUTZjIMXjfBIA3U0EmONuGvFC/hUKlXAYrFEJRqHLxvBYQYT2hFFVIdlnCqEArnbDWZGpnw9jFx+Rv6cRr5cqNfdgdiciTQOnzdi4gxPd4eiILvJVlsO78QaJT0KZb9TUpwIvGUcCjJiYw0PD4fU2ZMNT4u9ZAHLE4UMH5eJAzcNY+fpu1SBCoVC8a9GnNWITjJi7Eak1YiyOhrxhpfFx8/DL6/FO4u7h5ebTxbD8LQRtz39kt18E9yMJHcjWf7cHH82d4vN4gr7QZHGycvGrUQjdz7LI494+Ph6RN2ynL9kibYZSXbj9DXjSrjhmd2Sy9+SJbcRb7OdC0m6EuUI/dQxUQmOQsfwMuzejnt3V28agcFGaLKRZDHi7Y7aKMZmxNnsyR4eXr5ZXL8r7eZQHYf2IDLOO182eqTt5fizuhsJlFwJxpkrxu9njGMhjknuCnYYEmXE2gw7G/BwXF2Sh2H3cYuzeYQn3L1w4YqSKd08Has4nhMvI9HDcincTuWXEsiYzUvlR6FQKO4EkdXKn81ITDbiEo2oeCMywR5jNZKoILJm8y1Z0rtQEcPdK2uW3Dly+1vtXgmJRhLGVsf7N8kSW22Ojy2gBrRjEo3oOEcJUvQR47HCRh4/wm7SrZjEiESHtMTGW5Ns1ixZjLx5jdy5DHdPe3x8ckS8Qbgm4jMnU+X0M4oUNrJkM+JibckJVFaOu2oUQwlJjlVKPJq1XpXCj/r7yebRIAyQLwov4rvF5tRJm+FjNXythqfVcLcaHhZHVefm6airzl42jlwyIhG3NKBui4p2PBvM6VA25xVxaDfcY2I9GJsWjirNua6bU3utFocQxluN4BtGJE/NbWDAHlR+FAqF4g4Q2Qm0yA8Bk7AcnWxE2dwiE+2RtxAFi+FDJRJnRMe6u/t4+3rRkZzk+EOrEpx/8c5HqzM680AIpv7wcLNl9zByuBvuFmuyNTrRGhufbKcKsaEPbsnunkZWXyMLBYHdZrUns2g8pxzvtdhsViv9ubIZXhQuVsoquxf9zjeEkqlLLIZ/DqOAj8X79vv7hH00wNvb8PEyfNwNX3fHO0k53JPz+cTk8432c4/zdUv28XTYON4Z8jLiLcalMMdfqhKIw4gYIy7O0UYnmN799of8KLNibhmRzlOpgD653VYgkR9qoCQPS0iEceG6mDjgeIKtxv8DspHd0kvpbdAAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8AE05D-C877-8A48-BF25-71727026A4D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4495800" y="965200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31016</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>411190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974B8270-27C2-3646-96B2-13F2494B1AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9200416" y="241300"/>
+          <a:ext cx="3385284" cy="2582890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>406400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>227810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48C4EF5-A0C5-D74D-89DE-36C77229FEA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9194800" y="2819400"/>
+          <a:ext cx="3886200" cy="1751810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,13 +1740,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="62" style="1" customWidth="1"/>
+    <col min="1" max="1" width="62" style="34" customWidth="1"/>
     <col min="2" max="2" width="64" style="6" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
     <col min="4" max="5" width="50.6640625" style="1" customWidth="1"/>
@@ -840,38 +1754,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="28" t="s">
+        <v>196</v>
+      </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="38" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="38" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="38" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="38" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
@@ -879,7 +1801,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="38" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
@@ -887,7 +1809,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="38" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
@@ -895,7 +1817,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="38" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -905,7 +1827,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="38" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -915,7 +1837,7 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="38" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
@@ -923,7 +1845,7 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="38" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -933,7 +1855,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="38" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -943,7 +1865,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="38" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -953,7 +1875,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="38" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -963,7 +1885,7 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="38" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -973,7 +1895,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="38" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -983,7 +1905,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="38" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -993,7 +1915,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="38" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1003,7 +1925,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="38" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1013,7 +1935,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="38" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1023,7 +1945,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="38" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="29" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1033,7 +1955,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="38" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1043,7 +1965,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="38" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="29" t="s">
         <v>73</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1053,19 +1975,19 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="38" customHeight="1">
-      <c r="A24" s="2"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="5"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="38" customHeight="1">
-      <c r="A25" s="2"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="38" customHeight="1">
-      <c r="A26" s="2"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="5"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1209,18 +2131,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BE1313-5965-4D44-A057-96E013303E7B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="79.83203125" customWidth="1"/>
+    <col min="1" max="1" width="79.83203125" style="31" customWidth="1"/>
     <col min="2" max="2" width="70.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1231,7 +2153,7 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1242,7 +2164,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1253,7 +2175,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="5"/>
@@ -1262,7 +2184,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1273,7 +2195,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1284,7 +2206,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1295,7 +2217,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1306,7 +2228,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="29" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1317,7 +2239,7 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="29" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1328,7 +2250,7 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="29" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1339,7 +2261,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1350,7 +2272,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="29" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1361,7 +2283,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="29" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1372,7 +2294,7 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="29" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1383,7 +2305,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="29" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1394,7 +2316,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1405,7 +2327,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="29" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1416,7 +2338,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="29" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1427,35 +2349,35 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A24" s="2"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
@@ -1470,18 +2392,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AB9DF7-6EB9-354D-9B39-D41F33CBD421}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="1" max="1" width="58" style="30" customWidth="1"/>
     <col min="2" max="2" width="90.33203125" customWidth="1"/>
+    <col min="3" max="3" width="73.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="29" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1492,7 +2415,7 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1503,7 +2426,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="29" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1514,7 +2437,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1525,211 +2448,263 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="5"/>
+      <c r="A6" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="5"/>
+      <c r="A7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A24" s="2"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A25" s="2"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A26" s="2"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A27" s="2"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A28" s="2"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A29" s="2"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A30" s="2"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A31" s="2"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A32" s="2"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A33" s="2"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="2"/>
@@ -1742,26 +2717,992 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B57043D-E636-164F-9A91-00D5A950ABF5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="59" style="30" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A3" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A7" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A8" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A9" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A10" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A11" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A12" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A13" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A15" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A17" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BF4D75-3736-9849-9D8E-FA8BBC3E2E2F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="75.33203125" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="38" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" s="17" customFormat="1" ht="38" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" s="22" customFormat="1" ht="38" customHeight="1">
+      <c r="A20" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" s="27" customFormat="1" ht="38" customHeight="1">
+      <c r="A30" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E492B24-60C1-A044-AB50-34FD5E2E6670}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="62" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9AD41D-606C-4C40-AEDF-1F488CD4487E}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Angular/mock_interview/Questions.xlsx
+++ b/Angular/mock_interview/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CD65C2-AA5F-EB47-B069-B38C9D852CB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC6B5A9-DB26-7A4D-AB3C-A259803807D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36900" yWindow="1880" windowWidth="23760" windowHeight="15920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1740,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
@@ -2132,7 +2132,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2393,7 +2393,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2994,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BF4D75-3736-9849-9D8E-FA8BBC3E2E2F}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Angular/mock_interview/Questions.xlsx
+++ b/Angular/mock_interview/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC6B5A9-DB26-7A4D-AB3C-A259803807D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77B16AB-CF52-6F4B-B862-27875FCF9768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36900" yWindow="1880" windowWidth="23760" windowHeight="15920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36900" yWindow="1860" windowWidth="23760" windowHeight="15920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -1740,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
@@ -2131,7 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BE1313-5965-4D44-A057-96E013303E7B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2392,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AB9DF7-6EB9-354D-9B39-D41F33CBD421}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2719,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B57043D-E636-164F-9A91-00D5A950ABF5}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2994,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BF4D75-3736-9849-9D8E-FA8BBC3E2E2F}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Angular/mock_interview/Questions.xlsx
+++ b/Angular/mock_interview/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77B16AB-CF52-6F4B-B862-27875FCF9768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2CAB0D-5C7C-7C48-B865-CDC39DB29EC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36900" yWindow="1860" windowWidth="23760" windowHeight="15920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="23760" windowHeight="15920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t xml:space="preserve">What's the difference between Block Level Elements and Inline Elements? Examples? </t>
   </si>
@@ -1035,6 +1035,9 @@
 placeholder 
 required 
 step </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is "#" meaning in angular </t>
   </si>
 </sst>
 </file>
@@ -1740,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
@@ -2131,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BE1313-5965-4D44-A057-96E013303E7B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A4" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2392,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AB9DF7-6EB9-354D-9B39-D41F33CBD421}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2719,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B57043D-E636-164F-9A91-00D5A950ABF5}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A9" zoomScale="116" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2994,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BF4D75-3736-9849-9D8E-FA8BBC3E2E2F}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3356,7 +3359,9 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A40" s="7"/>
+      <c r="A40" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
       <c r="D40" s="2"/>

--- a/Angular/mock_interview/Questions.xlsx
+++ b/Angular/mock_interview/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2CAB0D-5C7C-7C48-B865-CDC39DB29EC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EBCC69-D831-D748-B527-AF591D7B9AD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1860" windowWidth="23760" windowHeight="15920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="2420" windowWidth="23760" windowHeight="15920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t xml:space="preserve">What's the difference between Block Level Elements and Inline Elements? Examples? </t>
   </si>
@@ -1038,6 +1038,12 @@
   </si>
   <si>
     <t xml:space="preserve">What is "#" meaning in angular </t>
+  </si>
+  <si>
+    <t>New features in ES6?</t>
+  </si>
+  <si>
+    <t>Rest and Spread Operator</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
@@ -2134,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BE1313-5965-4D44-A057-96E013303E7B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A8" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2395,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AB9DF7-6EB9-354D-9B39-D41F33CBD421}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2609,14 +2615,18 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="29" t="s">
+        <v>201</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="29" t="s">
+        <v>202</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
@@ -2722,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B57043D-E636-164F-9A91-00D5A950ABF5}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="116" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A7" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2997,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BF4D75-3736-9849-9D8E-FA8BBC3E2E2F}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Angular/mock_interview/Questions.xlsx
+++ b/Angular/mock_interview/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EBCC69-D831-D748-B527-AF591D7B9AD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D418A5D-F21B-574F-992E-5FE12C442FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2420" windowWidth="23760" windowHeight="15920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="2420" windowWidth="23760" windowHeight="15920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t xml:space="preserve">What's the difference between Block Level Elements and Inline Elements? Examples? </t>
   </si>
@@ -1044,6 +1044,9 @@
   </si>
   <si>
     <t>Rest and Spread Operator</t>
+  </si>
+  <si>
+    <t>3 ways to access Custom directive</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
@@ -2140,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BE1313-5965-4D44-A057-96E013303E7B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A4" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2401,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AB9DF7-6EB9-354D-9B39-D41F33CBD421}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2732,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B57043D-E636-164F-9A91-00D5A950ABF5}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="116" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2928,7 +2931,9 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="29" t="s">
+        <v>203</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
@@ -3007,7 +3012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BF4D75-3736-9849-9D8E-FA8BBC3E2E2F}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Angular/mock_interview/Questions.xlsx
+++ b/Angular/mock_interview/Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D418A5D-F21B-574F-992E-5FE12C442FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AECBDA9-FA47-0D46-9F21-740E8E028954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2420" windowWidth="23760" windowHeight="15920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="2380" windowWidth="23760" windowHeight="15920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="JavaScrit" sheetId="4" r:id="rId3"/>
     <sheet name="AngularJS" sheetId="5" r:id="rId4"/>
     <sheet name="Anguar" sheetId="6" r:id="rId5"/>
-    <sheet name="TypeScript" sheetId="7" r:id="rId6"/>
-    <sheet name="Angular-CLI" sheetId="8" r:id="rId7"/>
+    <sheet name="RXJS" sheetId="11" r:id="rId6"/>
+    <sheet name="TypeScript" sheetId="7" r:id="rId7"/>
+    <sheet name="NGRX" sheetId="10" r:id="rId8"/>
+    <sheet name="Angular-CLI" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t xml:space="preserve">What's the difference between Block Level Elements and Inline Elements? Examples? </t>
   </si>
@@ -1047,6 +1049,54 @@
   </si>
   <si>
     <t>3 ways to access Custom directive</t>
+  </si>
+  <si>
+    <t>NGRX life cycle?</t>
+  </si>
+  <si>
+    <t>Reducer?</t>
+  </si>
+  <si>
+    <t>dispatch an action to change state?</t>
+  </si>
+  <si>
+    <t>Store?</t>
+  </si>
+  <si>
+    <t>AOT vs JIT</t>
+  </si>
+  <si>
+    <t>how to use ViewChild to get child component</t>
+  </si>
+  <si>
+    <t>difference between authentication and authorization, how to implement them</t>
+  </si>
+  <si>
+    <t>canactivate vs canload</t>
+  </si>
+  <si>
+    <t>need to unsubscribe observable?</t>
+  </si>
+  <si>
+    <t>mergeMap in RxJS</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>resolve in Angular</t>
+  </si>
+  <si>
+    <t>routing guards</t>
+  </si>
+  <si>
+    <t>lazy loading moduel</t>
+  </si>
+  <si>
+    <t>communication between parent component and child component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write a directive as ngif </t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2143,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BE1313-5965-4D44-A057-96E013303E7B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A6" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2404,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AB9DF7-6EB9-354D-9B39-D41F33CBD421}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2735,7 +2785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B57043D-E636-164F-9A91-00D5A950ABF5}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="116" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="116" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -3010,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BF4D75-3736-9849-9D8E-FA8BBC3E2E2F}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3383,53 +3433,143 @@
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A41" s="7"/>
+      <c r="A41" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="B41" s="5"/>
       <c r="C41" s="4"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A42" s="7"/>
+      <c r="A42" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="B42" s="5"/>
       <c r="C42" s="4"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A43" s="7"/>
+      <c r="A43" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="B43" s="5"/>
       <c r="C43" s="4"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A44" s="7"/>
+      <c r="A44" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="B44" s="5"/>
       <c r="C44" s="4"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A45" s="7"/>
+      <c r="A45" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A46" s="7"/>
+      <c r="A46" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="B46" s="5"/>
       <c r="C46" s="4"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A47" s="7"/>
+      <c r="A47" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="B47" s="5"/>
       <c r="C47" s="4"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A48" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A49" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A50" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A55" s="7"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3437,11 +3577,103 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE2F0CE-A247-DA47-A16F-4AE4AAA00729}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E492B24-60C1-A044-AB50-34FD5E2E6670}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3565,7 +3797,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D19A3D-70A4-A04A-A9DB-C6557CD9FC47}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9AD41D-606C-4C40-AEDF-1F488CD4487E}">
   <dimension ref="A1:E19"/>
   <sheetViews>

--- a/Angular/mock_interview/Questions.xlsx
+++ b/Angular/mock_interview/Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwang/MyWork/Teaching/Jago_Link_Training/Angular/mock_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AECBDA9-FA47-0D46-9F21-740E8E028954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B366BAF6-4706-2C45-A06D-2E7C3DFB5E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2380" windowWidth="23760" windowHeight="15920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25720" yWindow="3080" windowWidth="23760" windowHeight="15920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t xml:space="preserve">What's the difference between Block Level Elements and Inline Elements? Examples? </t>
   </si>
@@ -1097,6 +1097,9 @@
   </si>
   <si>
     <t xml:space="preserve">write a directive as ngif </t>
+  </si>
+  <si>
+    <t>interceptor</t>
   </si>
 </sst>
 </file>
@@ -1802,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14"/>
@@ -2193,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BE1313-5965-4D44-A057-96E013303E7B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="114" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="114" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2454,9 +2457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AB9DF7-6EB9-354D-9B39-D41F33CBD421}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -3062,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BF4D75-3736-9849-9D8E-FA8BBC3E2E2F}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3523,7 +3524,9 @@
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="38" customHeight="1">
-      <c r="A51" s="7"/>
+      <c r="A51" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="B51" s="5"/>
       <c r="C51" s="4"/>
       <c r="D51" s="2"/>
@@ -3581,7 +3584,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
